--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\FoxCloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\FoxCloud\frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="300">
   <si>
     <t>平台接入管理</t>
   </si>
@@ -1641,20 +1641,6 @@
     <t>module&amp;routing</t>
   </si>
   <si>
-    <t>/backend/pf-mng/pf-conn-mng/</t>
-  </si>
-  <si>
-    <t>/backend/pf-mng/pf-conn-mng/pf-conn-mng.module.ts
-/backend/pf-mng/pf-conn-mng/pf-conn-mng.routing.ts</t>
-  </si>
-  <si>
-    <t>/backend/ent-mng/ent-est-mng</t>
-  </si>
-  <si>
-    <t>/backend/ent-mng/ent-est-mng/ent-est-mng.module.ts
-/backend/ent-mng/ent-est-mng/ent-est-mng.routing.ts</t>
-  </si>
-  <si>
     <t>ent-mng/ent-est-mng/ent-est-mng</t>
   </si>
   <si>
@@ -1668,13 +1654,6 @@
   </si>
   <si>
     <t>ent-mng/ent-est-mng/ent-est-cre-step-04</t>
-  </si>
-  <si>
-    <t>/backend/ent-mng/ent-res-quota-mng</t>
-  </si>
-  <si>
-    <t>/backend/ent-mng/ent-res-quota-mng/ent-res-quota-mng.module.ts
-/backend/ent-mng/ent-res-quota-mng/ent-res-quota-mng.routing.ts</t>
   </si>
   <si>
     <t>ent-mng/ent-res-quota-mng/ent-res-quota-mng</t>
@@ -1696,13 +1675,6 @@
     <t>ent-mng/ent-admin-mng/ent-admin-cre</t>
   </si>
   <si>
-    <t>/backend/pf-mng/svc-dir-mng</t>
-  </si>
-  <si>
-    <t>/backend/pf-mng/svc-dir-mng/svc-dir-mng.module.ts
-/backend/pf-mng/svc-dir-mng/svc-dir-mng.routing.ts</t>
-  </si>
-  <si>
     <t>pf-mng/svc-dir-mng/svc-dir-mng</t>
   </si>
   <si>
@@ -1728,6 +1700,40 @@
   </si>
   <si>
     <t>zhoujian</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-est-mng/ent-est-mng.module.ts
+/backend/src/ent-mng/ent-est-mng/ent-est-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/pf-mng/svc-dir-mng/svc-dir-mng.module.ts
+/backend/src/pf-mng/svc-dir-mng/svc-dir-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/pf-mng/pf-conn-mng/pf-conn-mng.module.ts
+/backend/src/pf-mng/pf-conn-mng/pf-conn-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-res-quota-mng/ent-res-quota-mng.module.ts
+/backend/src/ent-mng/ent-res-quota-mng/ent-res-quota-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-res-quota-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-est-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/pf-mng/svc-dir-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/pf-mng/pf-conn-mng/</t>
+  </si>
+  <si>
+    <t>liming</t>
+  </si>
+  <si>
+    <t>chuyu</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1743,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,6 +1852,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1885,7 +1898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2136,6 +2149,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2143,7 +2171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2214,35 +2242,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2256,15 +2260,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2276,15 +2271,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2301,21 +2287,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2331,215 +2302,120 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2875,8 +2751,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50:L55"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2890,9 +2766,9 @@
     <col min="7" max="7" width="11.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="52.140625" style="6" customWidth="1"/>
     <col min="14" max="14" width="48.28515625" style="6" customWidth="1"/>
     <col min="15" max="15" width="52.85546875" style="6" customWidth="1"/>
@@ -2902,50 +2778,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="53" t="s">
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="76" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2840,10 @@
       <c r="K2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="59"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -2992,7 +2868,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="30"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="A4" s="7">
@@ -3017,7 +2893,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="30"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="7">
@@ -3050,85 +2926,85 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1">
-      <c r="A6" s="7">
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="49"/>
+      <c r="I6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="47">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="42">
         <v>42643</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="O7" s="36" t="s">
+      <c r="L7" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="N7" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="O7" s="28" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3165,11 +3041,11 @@
         <v>42643</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="37"/>
+        <v>286</v>
+      </c>
+      <c r="M8" s="64"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="7">
@@ -3204,11 +3080,11 @@
         <v>42643</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M9" s="64"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="29" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3245,11 +3121,11 @@
         <v>42643</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="29" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3286,11 +3162,11 @@
         <v>42643</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="29" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3327,11 +3203,11 @@
         <v>42643</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M12" s="64"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="29" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3368,11 +3244,11 @@
         <v>42643</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M13" s="64"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="29" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3409,11 +3285,11 @@
         <v>42643</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="64"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="29" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3450,11 +3326,11 @@
         <v>42643</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M15" s="33"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="37"/>
+        <v>286</v>
+      </c>
+      <c r="M15" s="64"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="7">
@@ -3489,94 +3365,94 @@
         <v>42643</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="37"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1">
-      <c r="A17" s="7">
+        <v>286</v>
+      </c>
+      <c r="M16" s="64"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="48">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="49"/>
+      <c r="I17" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="50">
         <v>42643</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="38"/>
+      <c r="L17" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="M17" s="65"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="51">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="52"/>
+      <c r="I18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="53">
         <v>42643</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M18" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="N18" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="O18" s="44" t="s">
-        <v>289</v>
+      <c r="L18" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="M18" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
@@ -3612,11 +3488,11 @@
         <v>42643</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="45"/>
+        <v>286</v>
+      </c>
+      <c r="M19" s="74"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
       <c r="A20" s="7">
@@ -3651,12 +3527,12 @@
         <v>42643</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
+      </c>
+      <c r="M20" s="74"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="34" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1">
@@ -3692,10 +3568,10 @@
         <v>42643</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="33"/>
+        <v>286</v>
+      </c>
+      <c r="M21" s="74"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
       <c r="A22" s="7">
@@ -3730,12 +3606,12 @@
         <v>42643</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="45" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="M22" s="74"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="34" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1">
@@ -3771,12 +3647,12 @@
         <v>42643</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="45" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="M23" s="74"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="34" t="s">
+        <v>284</v>
       </c>
       <c r="P23" s="16"/>
     </row>
@@ -3813,12 +3689,12 @@
         <v>42643</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="45" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="M24" s="74"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="34" t="s">
+        <v>285</v>
       </c>
       <c r="P24" s="16"/>
     </row>
@@ -3855,11 +3731,11 @@
         <v>42643</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="45"/>
+        <v>286</v>
+      </c>
+      <c r="M25" s="74"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
       <c r="A26" s="7">
@@ -3894,94 +3770,94 @@
         <v>42643</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="45"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1">
-      <c r="A27" s="7">
+        <v>286</v>
+      </c>
+      <c r="M26" s="74"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A27" s="48">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="49"/>
+      <c r="I27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="50">
         <v>42643</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="M27" s="48"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="46"/>
+      <c r="L27" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="M27" s="75"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="18" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="51">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="52"/>
+      <c r="I28" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="53">
         <v>42654</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>275</v>
+      <c r="L28" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="N28" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="O28" s="28" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" customHeight="1">
@@ -4017,12 +3893,12 @@
         <v>42654</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M29" s="33"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="37" t="s">
-        <v>276</v>
+        <v>288</v>
+      </c>
+      <c r="M29" s="64"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="29" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
@@ -4058,12 +3934,12 @@
         <v>42654</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="37" t="s">
-        <v>277</v>
+        <v>288</v>
+      </c>
+      <c r="M30" s="64"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="29" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18" customHeight="1">
@@ -4099,11 +3975,11 @@
         <v>42654</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="37"/>
+        <v>288</v>
+      </c>
+      <c r="M31" s="64"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
       <c r="A32" s="7">
@@ -4138,12 +4014,12 @@
         <v>42654</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="37" t="s">
-        <v>278</v>
+        <v>288</v>
+      </c>
+      <c r="M32" s="64"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="29" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
@@ -4179,96 +4055,96 @@
         <v>42654</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1">
-      <c r="A34" s="7">
+        <v>288</v>
+      </c>
+      <c r="M33" s="64"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A34" s="48">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8" t="s">
+      <c r="H34" s="49"/>
+      <c r="I34" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="50">
         <v>42654</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="38"/>
+      <c r="L34" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" s="65"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="51">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8" t="s">
+      <c r="H35" s="52"/>
+      <c r="I35" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="K35" s="9">
+      <c r="J35" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="53">
         <v>42654</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M35" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="N35" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>281</v>
+      <c r="L35" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="N35" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -4298,17 +4174,17 @@
         <v>24</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K36" s="9">
         <v>42654</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="37"/>
+        <v>288</v>
+      </c>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="7">
@@ -4337,18 +4213,18 @@
         <v>24</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K37" s="9">
         <v>42654</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="37" t="s">
-        <v>282</v>
+        <v>288</v>
+      </c>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="29" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1">
@@ -4378,410 +4254,410 @@
         <v>24</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K38" s="9">
         <v>42654</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="37"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1">
-      <c r="A39" s="7">
+        <v>288</v>
+      </c>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="29"/>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A39" s="48">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8" t="s">
+      <c r="H39" s="49"/>
+      <c r="I39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="K39" s="9">
+      <c r="J39" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="K39" s="50">
         <v>42654</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="38"/>
+      <c r="L39" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
-      <c r="A40" s="25">
+      <c r="A40" s="57">
         <v>38</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51">
+      <c r="F40" s="52"/>
+      <c r="G40" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="59">
         <v>42643</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M40" s="52"/>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
       <c r="A41" s="25">
         <v>39</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="51">
+      <c r="I41" s="36"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="37">
         <v>42643</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="52"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1">
       <c r="A42" s="25">
         <v>40</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="50" t="s">
+      <c r="E42" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51">
+      <c r="I42" s="36"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="37">
         <v>42643</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="52"/>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1">
       <c r="A43" s="25">
         <v>41</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="50" t="s">
+      <c r="E43" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H43" s="8"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="51">
+      <c r="I43" s="36"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="37">
         <v>42643</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M43" s="52"/>
+      <c r="M43" s="38"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
       <c r="A44" s="25">
         <v>42</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H44" s="8"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="51">
+      <c r="I44" s="36"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="37">
         <v>42643</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="52"/>
+      <c r="M44" s="38"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1">
       <c r="A45" s="25">
         <v>43</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="51">
+      <c r="I45" s="36"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="37">
         <v>42643</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="52"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
       <c r="A46" s="25">
         <v>44</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="51">
+      <c r="I46" s="36"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="37">
         <v>42643</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="52"/>
+      <c r="M46" s="38"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1">
       <c r="A47" s="25">
         <v>45</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="50" t="s">
+      <c r="D47" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="50" t="s">
+      <c r="E47" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H47" s="8"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="51">
+      <c r="I47" s="36"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="37">
         <v>42643</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="52"/>
+      <c r="M47" s="38"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
       <c r="A48" s="25">
         <v>46</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="51">
+      <c r="I48" s="36"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="37">
         <v>42643</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="52"/>
-    </row>
-    <row r="49" spans="1:15" ht="18" customHeight="1">
-      <c r="A49" s="25">
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A49" s="43">
         <v>47</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="51">
+      <c r="F49" s="49"/>
+      <c r="G49" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="H49" s="49"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="45">
         <v>42643</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="52"/>
+      <c r="M49" s="38"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
-      <c r="A50" s="7">
+      <c r="A50" s="51">
         <v>48</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="52"/>
+      <c r="I50" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="K50" s="9">
+      <c r="J50" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="K50" s="53">
         <v>42654</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M50" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="N50" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="O50" s="36" t="s">
-        <v>285</v>
+      <c r="L50" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="M50" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="N50" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="O50" s="28" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1">
@@ -4811,17 +4687,17 @@
         <v>24</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K51" s="9">
         <v>42654</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="43"/>
+        <v>288</v>
+      </c>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="32"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
       <c r="A52" s="7">
@@ -4850,18 +4726,18 @@
         <v>24</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K52" s="9">
         <v>42654</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="37" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="29" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1">
@@ -4891,17 +4767,17 @@
         <v>24</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K53" s="9">
         <v>42654</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="37"/>
+        <v>288</v>
+      </c>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="29"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
       <c r="A54" s="7">
@@ -4930,171 +4806,187 @@
         <v>24</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K54" s="9">
         <v>42654</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="37"/>
-    </row>
-    <row r="55" spans="1:15" ht="18" customHeight="1">
-      <c r="A55" s="7">
+        <v>288</v>
+      </c>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="29"/>
+    </row>
+    <row r="55" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A55" s="48">
         <v>53</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="49"/>
+      <c r="I55" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="K55" s="9">
+      <c r="J55" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="K55" s="50">
         <v>42654</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="38"/>
+      <c r="L55" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
-      <c r="A56" s="25">
+      <c r="A56" s="54">
         <v>54</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="52"/>
+      <c r="E56" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="38"/>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1">
       <c r="A57" s="25">
         <v>55</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="52"/>
+      <c r="E57" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="38"/>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1">
       <c r="A58" s="25">
         <v>56</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="52"/>
+      <c r="E58" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="36"/>
+      <c r="G58" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="38"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A59" s="62">
+      <c r="A59" s="43">
         <v>57</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="52"/>
+      <c r="E59" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="38"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1">
-      <c r="A60" s="39">
+      <c r="A60" s="31">
         <v>58</v>
       </c>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1">
       <c r="A61" s="7">
@@ -5117,7 +5009,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="9"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="30"/>
+      <c r="M61" s="26"/>
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1">
       <c r="A62" s="7">
@@ -5140,7 +5032,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="9"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="30"/>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1">
       <c r="A63" s="7">
@@ -5163,7 +5055,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="30"/>
+      <c r="M63" s="26"/>
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1">
       <c r="A64" s="7">
@@ -5186,7 +5078,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="9"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="30"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="1:13" ht="18" customHeight="1">
       <c r="A65" s="7">
@@ -5209,7 +5101,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="9"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="30"/>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1">
       <c r="A66" s="7">
@@ -5232,7 +5124,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="9"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="30"/>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="1:13" ht="18" customHeight="1">
       <c r="A67" s="7">
@@ -5255,7 +5147,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="9"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="30"/>
+      <c r="M67" s="26"/>
     </row>
     <row r="68" spans="1:13" ht="18" customHeight="1">
       <c r="A68" s="7">
@@ -5278,7 +5170,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="30"/>
+      <c r="M68" s="26"/>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1">
       <c r="A69" s="7">
@@ -5301,7 +5193,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
-      <c r="M69" s="30"/>
+      <c r="M69" s="26"/>
     </row>
     <row r="70" spans="1:13" ht="18" customHeight="1">
       <c r="A70" s="7">
@@ -5324,7 +5216,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="9"/>
       <c r="L70" s="8"/>
-      <c r="M70" s="30"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1">
       <c r="A71" s="7">
@@ -5347,7 +5239,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="9"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="30"/>
+      <c r="M71" s="26"/>
     </row>
     <row r="72" spans="1:13" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="7">
@@ -5370,7 +5262,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="13"/>
       <c r="L72" s="14"/>
-      <c r="M72" s="31"/>
+      <c r="M72" s="27"/>
     </row>
     <row r="73" spans="1:13" ht="18" customHeight="1">
       <c r="A73" s="7">
@@ -5393,7 +5285,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="9"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="30"/>
+      <c r="M73" s="26"/>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1">
       <c r="A74" s="7">
@@ -5416,7 +5308,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="9"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="30"/>
+      <c r="M74" s="26"/>
     </row>
     <row r="75" spans="1:13" ht="18" customHeight="1">
       <c r="A75" s="7">
@@ -5439,7 +5331,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="9"/>
       <c r="L75" s="8"/>
-      <c r="M75" s="30"/>
+      <c r="M75" s="26"/>
     </row>
     <row r="76" spans="1:13" ht="18" customHeight="1">
       <c r="A76" s="7">
@@ -5462,7 +5354,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="9"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="30"/>
+      <c r="M76" s="26"/>
     </row>
     <row r="77" spans="1:13" ht="18" customHeight="1">
       <c r="A77" s="7">
@@ -5485,7 +5377,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="9"/>
       <c r="L77" s="8"/>
-      <c r="M77" s="30"/>
+      <c r="M77" s="26"/>
     </row>
     <row r="78" spans="1:13" ht="18" customHeight="1">
       <c r="A78" s="7">
@@ -5508,7 +5400,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="9"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="30"/>
+      <c r="M78" s="26"/>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1">
       <c r="A79" s="7">
@@ -5531,7 +5423,7 @@
       <c r="J79" s="8"/>
       <c r="K79" s="9"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="30"/>
+      <c r="M79" s="26"/>
     </row>
     <row r="80" spans="1:13" ht="18" customHeight="1">
       <c r="A80" s="7">
@@ -5554,7 +5446,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="9"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="30"/>
+      <c r="M80" s="26"/>
     </row>
     <row r="81" spans="1:13" ht="18" customHeight="1">
       <c r="A81" s="7">
@@ -5577,7 +5469,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="9"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="30"/>
+      <c r="M81" s="26"/>
     </row>
     <row r="82" spans="1:13" ht="18" customHeight="1">
       <c r="A82" s="7">
@@ -5600,7 +5492,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="9"/>
       <c r="L82" s="8"/>
-      <c r="M82" s="30"/>
+      <c r="M82" s="26"/>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1">
       <c r="A83" s="7">
@@ -5623,7 +5515,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="9"/>
       <c r="L83" s="8"/>
-      <c r="M83" s="30"/>
+      <c r="M83" s="26"/>
     </row>
     <row r="84" spans="1:13" ht="18" customHeight="1">
       <c r="A84" s="7">
@@ -5646,7 +5538,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="9"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="30"/>
+      <c r="M84" s="26"/>
     </row>
     <row r="85" spans="1:13" ht="18" customHeight="1">
       <c r="A85" s="7">
@@ -5669,7 +5561,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="9"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="30"/>
+      <c r="M85" s="26"/>
     </row>
     <row r="86" spans="1:13" ht="18" customHeight="1">
       <c r="A86" s="7">
@@ -5692,7 +5584,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="9"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="30"/>
+      <c r="M86" s="26"/>
     </row>
     <row r="87" spans="1:13" ht="18" customHeight="1">
       <c r="A87" s="7">
@@ -5715,7 +5607,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="9"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="30"/>
+      <c r="M87" s="26"/>
     </row>
     <row r="88" spans="1:13" ht="18" customHeight="1">
       <c r="A88" s="7">
@@ -5738,7 +5630,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="9"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="30"/>
+      <c r="M88" s="26"/>
     </row>
     <row r="89" spans="1:13" ht="18" customHeight="1">
       <c r="A89" s="7">
@@ -5761,7 +5653,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="9"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="30"/>
+      <c r="M89" s="26"/>
     </row>
     <row r="90" spans="1:13" ht="18" customHeight="1">
       <c r="A90" s="7">
@@ -5784,7 +5676,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="9"/>
       <c r="L90" s="8"/>
-      <c r="M90" s="30"/>
+      <c r="M90" s="26"/>
     </row>
     <row r="91" spans="1:13" ht="18" customHeight="1">
       <c r="A91" s="7">
@@ -5807,7 +5699,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="9"/>
       <c r="L91" s="8"/>
-      <c r="M91" s="30"/>
+      <c r="M91" s="26"/>
     </row>
     <row r="92" spans="1:13" ht="18" customHeight="1">
       <c r="A92" s="7">
@@ -5830,7 +5722,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="9"/>
       <c r="L92" s="8"/>
-      <c r="M92" s="30"/>
+      <c r="M92" s="26"/>
     </row>
     <row r="93" spans="1:13" ht="18" customHeight="1">
       <c r="A93" s="7">
@@ -5853,7 +5745,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="9"/>
       <c r="L93" s="8"/>
-      <c r="M93" s="30"/>
+      <c r="M93" s="26"/>
     </row>
     <row r="94" spans="1:13" ht="18" customHeight="1">
       <c r="A94" s="7">
@@ -5876,7 +5768,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="9"/>
       <c r="L94" s="8"/>
-      <c r="M94" s="30"/>
+      <c r="M94" s="26"/>
     </row>
     <row r="95" spans="1:13" ht="18" customHeight="1">
       <c r="A95" s="7">
@@ -5899,7 +5791,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="9"/>
       <c r="L95" s="8"/>
-      <c r="M95" s="30"/>
+      <c r="M95" s="26"/>
     </row>
     <row r="96" spans="1:13" ht="18" customHeight="1">
       <c r="A96" s="7">
@@ -5922,7 +5814,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="9"/>
       <c r="L96" s="8"/>
-      <c r="M96" s="30"/>
+      <c r="M96" s="26"/>
     </row>
     <row r="97" spans="1:13" ht="18" customHeight="1">
       <c r="A97" s="7">
@@ -5945,7 +5837,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="9"/>
       <c r="L97" s="8"/>
-      <c r="M97" s="30"/>
+      <c r="M97" s="26"/>
     </row>
     <row r="98" spans="1:13" ht="18" customHeight="1">
       <c r="A98" s="7">
@@ -5968,7 +5860,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="9"/>
       <c r="L98" s="8"/>
-      <c r="M98" s="30"/>
+      <c r="M98" s="26"/>
     </row>
     <row r="99" spans="1:13" ht="18" customHeight="1">
       <c r="A99" s="7">
@@ -5991,7 +5883,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="9"/>
       <c r="L99" s="8"/>
-      <c r="M99" s="30"/>
+      <c r="M99" s="26"/>
     </row>
     <row r="100" spans="1:13" ht="18" customHeight="1">
       <c r="A100" s="7">
@@ -6014,7 +5906,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="9"/>
       <c r="L100" s="8"/>
-      <c r="M100" s="30"/>
+      <c r="M100" s="26"/>
     </row>
     <row r="101" spans="1:13" ht="18" customHeight="1">
       <c r="A101" s="7">
@@ -6037,7 +5929,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="9"/>
       <c r="L101" s="8"/>
-      <c r="M101" s="30"/>
+      <c r="M101" s="26"/>
     </row>
     <row r="102" spans="1:13" ht="18" customHeight="1">
       <c r="A102" s="7">
@@ -6060,7 +5952,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="9"/>
       <c r="L102" s="8"/>
-      <c r="M102" s="30"/>
+      <c r="M102" s="26"/>
     </row>
     <row r="103" spans="1:13" ht="18" customHeight="1">
       <c r="A103" s="7">
@@ -6083,7 +5975,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="9"/>
       <c r="L103" s="8"/>
-      <c r="M103" s="30"/>
+      <c r="M103" s="26"/>
     </row>
     <row r="104" spans="1:13" ht="18" customHeight="1">
       <c r="A104" s="7">
@@ -6106,7 +5998,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="9"/>
       <c r="L104" s="8"/>
-      <c r="M104" s="30"/>
+      <c r="M104" s="26"/>
     </row>
     <row r="105" spans="1:13" ht="18" customHeight="1">
       <c r="A105" s="7">
@@ -6129,7 +6021,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="9"/>
       <c r="L105" s="8"/>
-      <c r="M105" s="30"/>
+      <c r="M105" s="26"/>
     </row>
     <row r="106" spans="1:13" ht="18" customHeight="1">
       <c r="A106" s="7">
@@ -6152,7 +6044,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="9"/>
       <c r="L106" s="8"/>
-      <c r="M106" s="30"/>
+      <c r="M106" s="26"/>
     </row>
     <row r="107" spans="1:13" ht="18" customHeight="1">
       <c r="A107" s="7">
@@ -6175,7 +6067,7 @@
       <c r="J107" s="8"/>
       <c r="K107" s="9"/>
       <c r="L107" s="8"/>
-      <c r="M107" s="30"/>
+      <c r="M107" s="26"/>
     </row>
     <row r="108" spans="1:13" ht="18" customHeight="1">
       <c r="A108" s="7">
@@ -6198,7 +6090,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="9"/>
       <c r="L108" s="8"/>
-      <c r="M108" s="30"/>
+      <c r="M108" s="26"/>
     </row>
     <row r="109" spans="1:13" ht="18" customHeight="1">
       <c r="A109" s="7">
@@ -6221,7 +6113,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="9"/>
       <c r="L109" s="8"/>
-      <c r="M109" s="30"/>
+      <c r="M109" s="26"/>
     </row>
     <row r="110" spans="1:13" ht="18" customHeight="1">
       <c r="A110" s="7">
@@ -6244,7 +6136,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="9"/>
       <c r="L110" s="8"/>
-      <c r="M110" s="30"/>
+      <c r="M110" s="26"/>
     </row>
     <row r="111" spans="1:13" ht="18" customHeight="1">
       <c r="A111" s="7">
@@ -6267,7 +6159,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="9"/>
       <c r="L111" s="8"/>
-      <c r="M111" s="30"/>
+      <c r="M111" s="26"/>
     </row>
     <row r="112" spans="1:13" ht="18" customHeight="1">
       <c r="A112" s="7">
@@ -6290,7 +6182,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="9"/>
       <c r="L112" s="8"/>
-      <c r="M112" s="30"/>
+      <c r="M112" s="26"/>
     </row>
     <row r="113" spans="1:13" ht="18" customHeight="1">
       <c r="A113" s="7">
@@ -6313,7 +6205,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="9"/>
       <c r="L113" s="8"/>
-      <c r="M113" s="30"/>
+      <c r="M113" s="26"/>
     </row>
     <row r="114" spans="1:13" ht="18" customHeight="1">
       <c r="A114" s="7">
@@ -6336,7 +6228,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="9"/>
       <c r="L114" s="8"/>
-      <c r="M114" s="30"/>
+      <c r="M114" s="26"/>
     </row>
     <row r="115" spans="1:13" ht="18" customHeight="1">
       <c r="A115" s="7">
@@ -6359,7 +6251,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="9"/>
       <c r="L115" s="8"/>
-      <c r="M115" s="30"/>
+      <c r="M115" s="26"/>
     </row>
     <row r="116" spans="1:13" ht="18" customHeight="1">
       <c r="A116" s="7">
@@ -6382,7 +6274,7 @@
       <c r="J116" s="8"/>
       <c r="K116" s="9"/>
       <c r="L116" s="8"/>
-      <c r="M116" s="30"/>
+      <c r="M116" s="26"/>
     </row>
     <row r="117" spans="1:13" ht="18" customHeight="1">
       <c r="A117" s="7">
@@ -6405,7 +6297,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="9"/>
       <c r="L117" s="8"/>
-      <c r="M117" s="30"/>
+      <c r="M117" s="26"/>
     </row>
     <row r="118" spans="1:13" ht="18" customHeight="1">
       <c r="A118" s="7">
@@ -6428,7 +6320,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="9"/>
       <c r="L118" s="8"/>
-      <c r="M118" s="30"/>
+      <c r="M118" s="26"/>
     </row>
     <row r="119" spans="1:13" ht="18" customHeight="1">
       <c r="A119" s="7">
@@ -6451,7 +6343,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="9"/>
       <c r="L119" s="8"/>
-      <c r="M119" s="30"/>
+      <c r="M119" s="26"/>
     </row>
     <row r="120" spans="1:13" ht="18" customHeight="1">
       <c r="A120" s="7">
@@ -6474,7 +6366,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="9"/>
       <c r="L120" s="8"/>
-      <c r="M120" s="30"/>
+      <c r="M120" s="26"/>
     </row>
     <row r="121" spans="1:13" ht="18" customHeight="1">
       <c r="A121" s="7">
@@ -6497,7 +6389,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="9"/>
       <c r="L121" s="8"/>
-      <c r="M121" s="30"/>
+      <c r="M121" s="26"/>
     </row>
     <row r="122" spans="1:13" ht="18" customHeight="1">
       <c r="A122" s="7">
@@ -6520,7 +6412,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="30"/>
+      <c r="M122" s="26"/>
     </row>
     <row r="123" spans="1:13" ht="18" customHeight="1">
       <c r="A123" s="7">
@@ -6543,7 +6435,7 @@
       <c r="J123" s="8"/>
       <c r="K123" s="9"/>
       <c r="L123" s="8"/>
-      <c r="M123" s="30"/>
+      <c r="M123" s="26"/>
     </row>
     <row r="124" spans="1:13" ht="18" customHeight="1">
       <c r="A124" s="7">
@@ -6566,7 +6458,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="9"/>
       <c r="L124" s="8"/>
-      <c r="M124" s="30"/>
+      <c r="M124" s="26"/>
     </row>
     <row r="125" spans="1:13" ht="18" customHeight="1">
       <c r="A125" s="7">
@@ -6589,7 +6481,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="9"/>
       <c r="L125" s="8"/>
-      <c r="M125" s="30"/>
+      <c r="M125" s="26"/>
     </row>
     <row r="126" spans="1:13" ht="18" customHeight="1">
       <c r="A126" s="7">
@@ -6612,7 +6504,7 @@
       <c r="J126" s="8"/>
       <c r="K126" s="9"/>
       <c r="L126" s="8"/>
-      <c r="M126" s="30"/>
+      <c r="M126" s="26"/>
     </row>
     <row r="127" spans="1:13" ht="18" customHeight="1">
       <c r="A127" s="7">
@@ -6635,7 +6527,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="9"/>
       <c r="L127" s="8"/>
-      <c r="M127" s="30"/>
+      <c r="M127" s="26"/>
     </row>
     <row r="128" spans="1:13" ht="18" customHeight="1">
       <c r="A128" s="7">
@@ -6658,7 +6550,7 @@
       <c r="J128" s="8"/>
       <c r="K128" s="9"/>
       <c r="L128" s="8"/>
-      <c r="M128" s="30"/>
+      <c r="M128" s="26"/>
     </row>
     <row r="129" spans="1:13" ht="18" customHeight="1">
       <c r="A129" s="7">
@@ -6681,7 +6573,7 @@
       <c r="J129" s="8"/>
       <c r="K129" s="9"/>
       <c r="L129" s="8"/>
-      <c r="M129" s="30"/>
+      <c r="M129" s="26"/>
     </row>
     <row r="130" spans="1:13" ht="18" customHeight="1">
       <c r="A130" s="7">
@@ -6704,7 +6596,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="9"/>
       <c r="L130" s="8"/>
-      <c r="M130" s="30"/>
+      <c r="M130" s="26"/>
     </row>
     <row r="131" spans="1:13" ht="18" customHeight="1">
       <c r="A131" s="7">
@@ -6727,7 +6619,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="9"/>
       <c r="L131" s="8"/>
-      <c r="M131" s="30"/>
+      <c r="M131" s="26"/>
     </row>
     <row r="132" spans="1:13" ht="18" customHeight="1">
       <c r="A132" s="7">
@@ -6750,7 +6642,7 @@
       <c r="J132" s="8"/>
       <c r="K132" s="9"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="30"/>
+      <c r="M132" s="26"/>
     </row>
     <row r="133" spans="1:13" ht="18" customHeight="1">
       <c r="A133" s="7">
@@ -6773,7 +6665,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="9"/>
       <c r="L133" s="8"/>
-      <c r="M133" s="30"/>
+      <c r="M133" s="26"/>
     </row>
     <row r="134" spans="1:13" ht="18" customHeight="1">
       <c r="A134" s="7">
@@ -6796,7 +6688,7 @@
       <c r="J134" s="8"/>
       <c r="K134" s="9"/>
       <c r="L134" s="8"/>
-      <c r="M134" s="30"/>
+      <c r="M134" s="26"/>
     </row>
     <row r="135" spans="1:13" ht="18" customHeight="1">
       <c r="A135" s="7">
@@ -6819,7 +6711,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="9"/>
       <c r="L135" s="8"/>
-      <c r="M135" s="30"/>
+      <c r="M135" s="26"/>
     </row>
     <row r="136" spans="1:13" ht="18" customHeight="1">
       <c r="A136" s="7">
@@ -6842,7 +6734,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="9"/>
       <c r="L136" s="8"/>
-      <c r="M136" s="30"/>
+      <c r="M136" s="26"/>
     </row>
     <row r="137" spans="1:13" ht="18" customHeight="1">
       <c r="A137" s="7">
@@ -6865,7 +6757,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="9"/>
       <c r="L137" s="8"/>
-      <c r="M137" s="30"/>
+      <c r="M137" s="26"/>
     </row>
     <row r="138" spans="1:13" ht="18" customHeight="1">
       <c r="A138" s="7">
@@ -6888,7 +6780,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="9"/>
       <c r="L138" s="8"/>
-      <c r="M138" s="30"/>
+      <c r="M138" s="26"/>
     </row>
     <row r="139" spans="1:13" ht="18" customHeight="1">
       <c r="A139" s="7">
@@ -6911,7 +6803,7 @@
       <c r="J139" s="8"/>
       <c r="K139" s="9"/>
       <c r="L139" s="8"/>
-      <c r="M139" s="30"/>
+      <c r="M139" s="26"/>
     </row>
     <row r="140" spans="1:13" ht="18" customHeight="1">
       <c r="A140" s="7">
@@ -6934,7 +6826,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="9"/>
       <c r="L140" s="8"/>
-      <c r="M140" s="30"/>
+      <c r="M140" s="26"/>
     </row>
     <row r="141" spans="1:13" ht="18" customHeight="1">
       <c r="A141" s="7">
@@ -6957,7 +6849,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="9"/>
       <c r="L141" s="8"/>
-      <c r="M141" s="30"/>
+      <c r="M141" s="26"/>
     </row>
     <row r="142" spans="1:13" ht="18" customHeight="1">
       <c r="A142" s="7">
@@ -6980,7 +6872,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="9"/>
       <c r="L142" s="8"/>
-      <c r="M142" s="30"/>
+      <c r="M142" s="26"/>
     </row>
     <row r="143" spans="1:13" ht="18" customHeight="1">
       <c r="A143" s="7">
@@ -7003,7 +6895,7 @@
       <c r="J143" s="8"/>
       <c r="K143" s="9"/>
       <c r="L143" s="8"/>
-      <c r="M143" s="30"/>
+      <c r="M143" s="26"/>
     </row>
     <row r="144" spans="1:13" ht="18" customHeight="1">
       <c r="A144" s="7">
@@ -7026,7 +6918,7 @@
       <c r="J144" s="8"/>
       <c r="K144" s="9"/>
       <c r="L144" s="8"/>
-      <c r="M144" s="30"/>
+      <c r="M144" s="26"/>
     </row>
     <row r="145" spans="1:13" ht="18" customHeight="1">
       <c r="A145" s="7">
@@ -7049,7 +6941,7 @@
       <c r="J145" s="8"/>
       <c r="K145" s="9"/>
       <c r="L145" s="8"/>
-      <c r="M145" s="30"/>
+      <c r="M145" s="26"/>
     </row>
     <row r="146" spans="1:13" ht="18" customHeight="1">
       <c r="A146" s="7">
@@ -7072,7 +6964,7 @@
       <c r="J146" s="8"/>
       <c r="K146" s="9"/>
       <c r="L146" s="8"/>
-      <c r="M146" s="30"/>
+      <c r="M146" s="26"/>
     </row>
     <row r="147" spans="1:13" ht="18" customHeight="1">
       <c r="A147" s="7">
@@ -7095,7 +6987,7 @@
       <c r="J147" s="8"/>
       <c r="K147" s="9"/>
       <c r="L147" s="8"/>
-      <c r="M147" s="30"/>
+      <c r="M147" s="26"/>
     </row>
     <row r="148" spans="1:13" ht="18" customHeight="1">
       <c r="A148" s="7">
@@ -7118,7 +7010,7 @@
       <c r="J148" s="8"/>
       <c r="K148" s="9"/>
       <c r="L148" s="8"/>
-      <c r="M148" s="30"/>
+      <c r="M148" s="26"/>
     </row>
     <row r="149" spans="1:13" ht="18" customHeight="1">
       <c r="A149" s="7">
@@ -7141,7 +7033,7 @@
       <c r="J149" s="8"/>
       <c r="K149" s="9"/>
       <c r="L149" s="8"/>
-      <c r="M149" s="30"/>
+      <c r="M149" s="26"/>
     </row>
     <row r="150" spans="1:13" ht="18" customHeight="1">
       <c r="A150" s="7">
@@ -7164,7 +7056,7 @@
       <c r="J150" s="8"/>
       <c r="K150" s="9"/>
       <c r="L150" s="8"/>
-      <c r="M150" s="30"/>
+      <c r="M150" s="26"/>
     </row>
     <row r="151" spans="1:13" ht="18" customHeight="1">
       <c r="A151" s="7">
@@ -7187,7 +7079,7 @@
       <c r="J151" s="8"/>
       <c r="K151" s="9"/>
       <c r="L151" s="8"/>
-      <c r="M151" s="30"/>
+      <c r="M151" s="26"/>
     </row>
     <row r="152" spans="1:13" ht="18" customHeight="1">
       <c r="A152" s="7">
@@ -7210,7 +7102,7 @@
       <c r="J152" s="8"/>
       <c r="K152" s="9"/>
       <c r="L152" s="8"/>
-      <c r="M152" s="30"/>
+      <c r="M152" s="26"/>
     </row>
     <row r="153" spans="1:13" ht="18" customHeight="1">
       <c r="A153" s="7">
@@ -7233,7 +7125,7 @@
       <c r="J153" s="8"/>
       <c r="K153" s="9"/>
       <c r="L153" s="8"/>
-      <c r="M153" s="30"/>
+      <c r="M153" s="26"/>
     </row>
     <row r="154" spans="1:13" ht="18" customHeight="1">
       <c r="A154" s="7">
@@ -7256,7 +7148,7 @@
       <c r="J154" s="8"/>
       <c r="K154" s="9"/>
       <c r="L154" s="8"/>
-      <c r="M154" s="30"/>
+      <c r="M154" s="26"/>
     </row>
     <row r="155" spans="1:13" ht="18" customHeight="1">
       <c r="A155" s="7">
@@ -7279,7 +7171,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="9"/>
       <c r="L155" s="8"/>
-      <c r="M155" s="30"/>
+      <c r="M155" s="26"/>
     </row>
     <row r="156" spans="1:13" ht="18" customHeight="1">
       <c r="A156" s="7">
@@ -7302,7 +7194,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="9"/>
       <c r="L156" s="8"/>
-      <c r="M156" s="30"/>
+      <c r="M156" s="26"/>
     </row>
     <row r="157" spans="1:13" ht="18" customHeight="1">
       <c r="A157" s="7">
@@ -7325,7 +7217,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="9"/>
       <c r="L157" s="8"/>
-      <c r="M157" s="30"/>
+      <c r="M157" s="26"/>
     </row>
     <row r="158" spans="1:13" ht="18" customHeight="1">
       <c r="A158" s="7">
@@ -7348,7 +7240,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="9"/>
       <c r="L158" s="8"/>
-      <c r="M158" s="30"/>
+      <c r="M158" s="26"/>
     </row>
     <row r="159" spans="1:13" ht="18" customHeight="1">
       <c r="A159" s="7">
@@ -7371,7 +7263,7 @@
       <c r="J159" s="8"/>
       <c r="K159" s="9"/>
       <c r="L159" s="8"/>
-      <c r="M159" s="30"/>
+      <c r="M159" s="26"/>
     </row>
     <row r="160" spans="1:13" ht="18" customHeight="1">
       <c r="A160" s="7">
@@ -7394,7 +7286,7 @@
       <c r="J160" s="8"/>
       <c r="K160" s="9"/>
       <c r="L160" s="8"/>
-      <c r="M160" s="30"/>
+      <c r="M160" s="26"/>
     </row>
     <row r="161" spans="1:13" ht="18" customHeight="1">
       <c r="A161" s="7">
@@ -7417,7 +7309,7 @@
       <c r="J161" s="8"/>
       <c r="K161" s="9"/>
       <c r="L161" s="8"/>
-      <c r="M161" s="30"/>
+      <c r="M161" s="26"/>
     </row>
     <row r="162" spans="1:13" ht="18" customHeight="1">
       <c r="A162" s="7">
@@ -7440,7 +7332,7 @@
       <c r="J162" s="8"/>
       <c r="K162" s="9"/>
       <c r="L162" s="8"/>
-      <c r="M162" s="30"/>
+      <c r="M162" s="26"/>
     </row>
     <row r="163" spans="1:13" ht="18" customHeight="1">
       <c r="A163" s="7">
@@ -7463,7 +7355,7 @@
       <c r="J163" s="8"/>
       <c r="K163" s="9"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="30"/>
+      <c r="M163" s="26"/>
     </row>
     <row r="164" spans="1:13" ht="18" customHeight="1">
       <c r="A164" s="7">
@@ -7486,7 +7378,7 @@
       <c r="J164" s="8"/>
       <c r="K164" s="9"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="30"/>
+      <c r="M164" s="26"/>
     </row>
     <row r="165" spans="1:13" ht="18" customHeight="1">
       <c r="A165" s="7">
@@ -7509,7 +7401,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="9"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="30"/>
+      <c r="M165" s="26"/>
     </row>
     <row r="166" spans="1:13" ht="18" customHeight="1">
       <c r="A166" s="7">
@@ -7532,7 +7424,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="9"/>
       <c r="L166" s="8"/>
-      <c r="M166" s="30"/>
+      <c r="M166" s="26"/>
     </row>
     <row r="167" spans="1:13" ht="18" customHeight="1">
       <c r="A167" s="7">
@@ -7555,7 +7447,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="9"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="30"/>
+      <c r="M167" s="26"/>
     </row>
     <row r="168" spans="1:13" ht="18" customHeight="1">
       <c r="A168" s="7">
@@ -7578,7 +7470,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="9"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="30"/>
+      <c r="M168" s="26"/>
     </row>
     <row r="169" spans="1:13" ht="18" customHeight="1">
       <c r="A169" s="7">
@@ -7601,7 +7493,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="9"/>
       <c r="L169" s="8"/>
-      <c r="M169" s="30"/>
+      <c r="M169" s="26"/>
     </row>
     <row r="170" spans="1:13" ht="18" customHeight="1">
       <c r="A170" s="7">
@@ -7624,7 +7516,7 @@
       <c r="J170" s="8"/>
       <c r="K170" s="9"/>
       <c r="L170" s="8"/>
-      <c r="M170" s="30"/>
+      <c r="M170" s="26"/>
     </row>
     <row r="171" spans="1:13" ht="18" customHeight="1">
       <c r="A171" s="7">
@@ -7647,7 +7539,7 @@
       <c r="J171" s="8"/>
       <c r="K171" s="9"/>
       <c r="L171" s="8"/>
-      <c r="M171" s="30"/>
+      <c r="M171" s="26"/>
     </row>
     <row r="172" spans="1:13" ht="18" customHeight="1">
       <c r="A172" s="7">
@@ -7670,7 +7562,7 @@
       <c r="J172" s="8"/>
       <c r="K172" s="9"/>
       <c r="L172" s="8"/>
-      <c r="M172" s="30"/>
+      <c r="M172" s="26"/>
     </row>
     <row r="173" spans="1:13" ht="18" customHeight="1">
       <c r="A173" s="7">
@@ -7693,7 +7585,7 @@
       <c r="J173" s="8"/>
       <c r="K173" s="9"/>
       <c r="L173" s="8"/>
-      <c r="M173" s="30"/>
+      <c r="M173" s="26"/>
     </row>
     <row r="174" spans="1:13" ht="18" customHeight="1">
       <c r="A174" s="7">
@@ -7716,7 +7608,7 @@
       <c r="J174" s="8"/>
       <c r="K174" s="9"/>
       <c r="L174" s="8"/>
-      <c r="M174" s="30"/>
+      <c r="M174" s="26"/>
     </row>
     <row r="175" spans="1:13" ht="18" customHeight="1">
       <c r="A175" s="7">
@@ -7739,7 +7631,7 @@
       <c r="J175" s="8"/>
       <c r="K175" s="9"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="30"/>
+      <c r="M175" s="26"/>
     </row>
     <row r="176" spans="1:13" ht="18" customHeight="1">
       <c r="A176" s="7">
@@ -7762,7 +7654,7 @@
       <c r="J176" s="8"/>
       <c r="K176" s="9"/>
       <c r="L176" s="8"/>
-      <c r="M176" s="30"/>
+      <c r="M176" s="26"/>
     </row>
     <row r="177" spans="1:13" ht="18" customHeight="1">
       <c r="A177" s="7">
@@ -7785,7 +7677,7 @@
       <c r="J177" s="8"/>
       <c r="K177" s="9"/>
       <c r="L177" s="8"/>
-      <c r="M177" s="30"/>
+      <c r="M177" s="26"/>
     </row>
     <row r="178" spans="1:13" ht="18" customHeight="1">
       <c r="A178" s="7">
@@ -7808,7 +7700,7 @@
       <c r="J178" s="8"/>
       <c r="K178" s="9"/>
       <c r="L178" s="8"/>
-      <c r="M178" s="30"/>
+      <c r="M178" s="26"/>
     </row>
     <row r="179" spans="1:13" ht="18" customHeight="1">
       <c r="A179" s="7">
@@ -7831,7 +7723,7 @@
       <c r="J179" s="8"/>
       <c r="K179" s="9"/>
       <c r="L179" s="8"/>
-      <c r="M179" s="30"/>
+      <c r="M179" s="26"/>
     </row>
     <row r="180" spans="1:13" ht="18" customHeight="1">
       <c r="A180" s="7">
@@ -7854,7 +7746,7 @@
       <c r="J180" s="8"/>
       <c r="K180" s="9"/>
       <c r="L180" s="8"/>
-      <c r="M180" s="30"/>
+      <c r="M180" s="26"/>
     </row>
     <row r="181" spans="1:13" ht="18" customHeight="1">
       <c r="A181" s="7">
@@ -7877,7 +7769,7 @@
       <c r="J181" s="8"/>
       <c r="K181" s="9"/>
       <c r="L181" s="8"/>
-      <c r="M181" s="30"/>
+      <c r="M181" s="26"/>
     </row>
     <row r="182" spans="1:13" ht="18" customHeight="1">
       <c r="A182" s="7">
@@ -7900,7 +7792,7 @@
       <c r="J182" s="8"/>
       <c r="K182" s="9"/>
       <c r="L182" s="8"/>
-      <c r="M182" s="30"/>
+      <c r="M182" s="26"/>
     </row>
     <row r="183" spans="1:13" ht="18" customHeight="1">
       <c r="A183" s="7">
@@ -7923,7 +7815,7 @@
       <c r="J183" s="8"/>
       <c r="K183" s="9"/>
       <c r="L183" s="8"/>
-      <c r="M183" s="30"/>
+      <c r="M183" s="26"/>
     </row>
     <row r="184" spans="1:13" ht="18" customHeight="1">
       <c r="A184" s="7">
@@ -7946,7 +7838,7 @@
       <c r="J184" s="8"/>
       <c r="K184" s="9"/>
       <c r="L184" s="8"/>
-      <c r="M184" s="30"/>
+      <c r="M184" s="26"/>
     </row>
     <row r="185" spans="1:13" ht="18" customHeight="1">
       <c r="A185" s="7">
@@ -7969,7 +7861,7 @@
       <c r="J185" s="8"/>
       <c r="K185" s="9"/>
       <c r="L185" s="8"/>
-      <c r="M185" s="30"/>
+      <c r="M185" s="26"/>
     </row>
     <row r="186" spans="1:13" ht="18" customHeight="1">
       <c r="A186" s="7">
@@ -7992,7 +7884,7 @@
       <c r="J186" s="8"/>
       <c r="K186" s="9"/>
       <c r="L186" s="8"/>
-      <c r="M186" s="30"/>
+      <c r="M186" s="26"/>
     </row>
     <row r="187" spans="1:13" ht="18" customHeight="1">
       <c r="A187" s="7">
@@ -8015,7 +7907,7 @@
       <c r="J187" s="8"/>
       <c r="K187" s="9"/>
       <c r="L187" s="8"/>
-      <c r="M187" s="30"/>
+      <c r="M187" s="26"/>
     </row>
     <row r="188" spans="1:13" ht="18" customHeight="1">
       <c r="A188" s="7">
@@ -8038,7 +7930,7 @@
       <c r="J188" s="8"/>
       <c r="K188" s="9"/>
       <c r="L188" s="8"/>
-      <c r="M188" s="30"/>
+      <c r="M188" s="26"/>
     </row>
     <row r="189" spans="1:13" ht="18" customHeight="1">
       <c r="A189" s="7">
@@ -8061,7 +7953,7 @@
       <c r="J189" s="8"/>
       <c r="K189" s="9"/>
       <c r="L189" s="8"/>
-      <c r="M189" s="30"/>
+      <c r="M189" s="26"/>
     </row>
     <row r="190" spans="1:13" ht="18" customHeight="1">
       <c r="A190" s="7">
@@ -8084,7 +7976,7 @@
       <c r="J190" s="8"/>
       <c r="K190" s="9"/>
       <c r="L190" s="8"/>
-      <c r="M190" s="30"/>
+      <c r="M190" s="26"/>
     </row>
     <row r="191" spans="1:13" ht="18" customHeight="1">
       <c r="A191" s="7">
@@ -8107,7 +7999,7 @@
       <c r="J191" s="8"/>
       <c r="K191" s="9"/>
       <c r="L191" s="8"/>
-      <c r="M191" s="30"/>
+      <c r="M191" s="26"/>
     </row>
     <row r="192" spans="1:13" ht="18" customHeight="1">
       <c r="A192" s="7">
@@ -8130,7 +8022,7 @@
       <c r="J192" s="8"/>
       <c r="K192" s="9"/>
       <c r="L192" s="8"/>
-      <c r="M192" s="30"/>
+      <c r="M192" s="26"/>
     </row>
     <row r="193" spans="1:13" ht="18" customHeight="1">
       <c r="A193" s="7">
@@ -8153,7 +8045,7 @@
       <c r="J193" s="8"/>
       <c r="K193" s="9"/>
       <c r="L193" s="8"/>
-      <c r="M193" s="30"/>
+      <c r="M193" s="26"/>
     </row>
     <row r="194" spans="1:13" ht="18" customHeight="1">
       <c r="A194" s="7">
@@ -8176,7 +8068,7 @@
       <c r="J194" s="8"/>
       <c r="K194" s="9"/>
       <c r="L194" s="8"/>
-      <c r="M194" s="30"/>
+      <c r="M194" s="26"/>
     </row>
     <row r="195" spans="1:13" ht="18" customHeight="1">
       <c r="A195" s="7">
@@ -8199,7 +8091,7 @@
       <c r="J195" s="8"/>
       <c r="K195" s="9"/>
       <c r="L195" s="8"/>
-      <c r="M195" s="30"/>
+      <c r="M195" s="26"/>
     </row>
     <row r="196" spans="1:13" ht="18" customHeight="1">
       <c r="A196" s="7"/>
@@ -8214,7 +8106,7 @@
       <c r="J196" s="8"/>
       <c r="K196" s="9"/>
       <c r="L196" s="8"/>
-      <c r="M196" s="30"/>
+      <c r="M196" s="26"/>
     </row>
     <row r="197" spans="1:13" ht="18" customHeight="1">
       <c r="A197" s="7"/>
@@ -8229,7 +8121,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="9"/>
       <c r="L197" s="8"/>
-      <c r="M197" s="30"/>
+      <c r="M197" s="26"/>
     </row>
     <row r="198" spans="1:13" ht="18" customHeight="1">
       <c r="A198" s="7"/>
@@ -8244,7 +8136,7 @@
       <c r="J198" s="8"/>
       <c r="K198" s="9"/>
       <c r="L198" s="8"/>
-      <c r="M198" s="30"/>
+      <c r="M198" s="26"/>
     </row>
     <row r="199" spans="1:13" ht="18" customHeight="1">
       <c r="A199" s="7"/>
@@ -8259,7 +8151,7 @@
       <c r="J199" s="8"/>
       <c r="K199" s="9"/>
       <c r="L199" s="8"/>
-      <c r="M199" s="30"/>
+      <c r="M199" s="26"/>
     </row>
     <row r="200" spans="1:13" ht="18" customHeight="1">
       <c r="A200" s="7"/>
@@ -8274,7 +8166,7 @@
       <c r="J200" s="8"/>
       <c r="K200" s="9"/>
       <c r="L200" s="8"/>
-      <c r="M200" s="30"/>
+      <c r="M200" s="26"/>
     </row>
     <row r="201" spans="1:13" ht="18" customHeight="1">
       <c r="A201" s="7"/>
@@ -8289,7 +8181,7 @@
       <c r="J201" s="8"/>
       <c r="K201" s="9"/>
       <c r="L201" s="8"/>
-      <c r="M201" s="30"/>
+      <c r="M201" s="26"/>
     </row>
     <row r="202" spans="1:13" ht="18" customHeight="1">
       <c r="A202" s="7"/>
@@ -8304,7 +8196,7 @@
       <c r="J202" s="8"/>
       <c r="K202" s="9"/>
       <c r="L202" s="8"/>
-      <c r="M202" s="30"/>
+      <c r="M202" s="26"/>
     </row>
     <row r="203" spans="1:13" ht="18" customHeight="1">
       <c r="A203" s="7"/>
@@ -8319,7 +8211,7 @@
       <c r="J203" s="8"/>
       <c r="K203" s="9"/>
       <c r="L203" s="8"/>
-      <c r="M203" s="30"/>
+      <c r="M203" s="26"/>
     </row>
     <row r="204" spans="1:13" ht="18" customHeight="1">
       <c r="A204" s="7"/>
@@ -8334,7 +8226,7 @@
       <c r="J204" s="8"/>
       <c r="K204" s="9"/>
       <c r="L204" s="8"/>
-      <c r="M204" s="30"/>
+      <c r="M204" s="26"/>
     </row>
     <row r="205" spans="1:13" ht="18" customHeight="1">
       <c r="A205" s="7"/>
@@ -8349,7 +8241,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="9"/>
       <c r="L205" s="8"/>
-      <c r="M205" s="30"/>
+      <c r="M205" s="26"/>
     </row>
     <row r="206" spans="1:13" ht="18" customHeight="1">
       <c r="A206" s="7"/>
@@ -8364,7 +8256,7 @@
       <c r="J206" s="8"/>
       <c r="K206" s="9"/>
       <c r="L206" s="8"/>
-      <c r="M206" s="30"/>
+      <c r="M206" s="26"/>
     </row>
     <row r="207" spans="1:13" ht="18" customHeight="1">
       <c r="A207" s="7"/>
@@ -8379,7 +8271,7 @@
       <c r="J207" s="8"/>
       <c r="K207" s="9"/>
       <c r="L207" s="8"/>
-      <c r="M207" s="30"/>
+      <c r="M207" s="26"/>
     </row>
     <row r="208" spans="1:13" ht="18" customHeight="1">
       <c r="A208" s="7"/>
@@ -8394,7 +8286,7 @@
       <c r="J208" s="8"/>
       <c r="K208" s="9"/>
       <c r="L208" s="8"/>
-      <c r="M208" s="30"/>
+      <c r="M208" s="26"/>
     </row>
     <row r="209" spans="1:13" ht="18" customHeight="1">
       <c r="A209" s="7"/>
@@ -8409,7 +8301,7 @@
       <c r="J209" s="8"/>
       <c r="K209" s="9"/>
       <c r="L209" s="8"/>
-      <c r="M209" s="30"/>
+      <c r="M209" s="26"/>
     </row>
     <row r="210" spans="1:13" ht="18" customHeight="1">
       <c r="A210" s="7"/>
@@ -8424,7 +8316,7 @@
       <c r="J210" s="8"/>
       <c r="K210" s="9"/>
       <c r="L210" s="8"/>
-      <c r="M210" s="30"/>
+      <c r="M210" s="26"/>
     </row>
     <row r="211" spans="1:13" ht="18" customHeight="1">
       <c r="A211" s="7"/>
@@ -8439,7 +8331,7 @@
       <c r="J211" s="8"/>
       <c r="K211" s="9"/>
       <c r="L211" s="8"/>
-      <c r="M211" s="30"/>
+      <c r="M211" s="26"/>
     </row>
     <row r="212" spans="1:13" ht="18" customHeight="1">
       <c r="A212" s="7"/>
@@ -8454,7 +8346,7 @@
       <c r="J212" s="8"/>
       <c r="K212" s="9"/>
       <c r="L212" s="8"/>
-      <c r="M212" s="30"/>
+      <c r="M212" s="26"/>
     </row>
     <row r="213" spans="1:13" ht="18" customHeight="1">
       <c r="A213" s="7"/>
@@ -8469,7 +8361,7 @@
       <c r="J213" s="8"/>
       <c r="K213" s="9"/>
       <c r="L213" s="8"/>
-      <c r="M213" s="30"/>
+      <c r="M213" s="26"/>
     </row>
     <row r="214" spans="1:13" ht="18" customHeight="1">
       <c r="A214" s="7"/>
@@ -8484,7 +8376,7 @@
       <c r="J214" s="8"/>
       <c r="K214" s="9"/>
       <c r="L214" s="8"/>
-      <c r="M214" s="30"/>
+      <c r="M214" s="26"/>
     </row>
     <row r="215" spans="1:13" ht="18" customHeight="1">
       <c r="A215" s="7"/>
@@ -8499,7 +8391,7 @@
       <c r="J215" s="8"/>
       <c r="K215" s="9"/>
       <c r="L215" s="8"/>
-      <c r="M215" s="30"/>
+      <c r="M215" s="26"/>
     </row>
     <row r="216" spans="1:13" ht="18" customHeight="1">
       <c r="A216" s="7"/>
@@ -8514,7 +8406,7 @@
       <c r="J216" s="8"/>
       <c r="K216" s="9"/>
       <c r="L216" s="8"/>
-      <c r="M216" s="30"/>
+      <c r="M216" s="26"/>
     </row>
     <row r="217" spans="1:13" ht="18" customHeight="1">
       <c r="A217" s="7"/>
@@ -8529,7 +8421,7 @@
       <c r="J217" s="8"/>
       <c r="K217" s="9"/>
       <c r="L217" s="8"/>
-      <c r="M217" s="30"/>
+      <c r="M217" s="26"/>
     </row>
     <row r="218" spans="1:13" ht="18" customHeight="1">
       <c r="A218" s="7"/>
@@ -8544,7 +8436,7 @@
       <c r="J218" s="8"/>
       <c r="K218" s="9"/>
       <c r="L218" s="8"/>
-      <c r="M218" s="30"/>
+      <c r="M218" s="26"/>
     </row>
     <row r="219" spans="1:13" ht="18" customHeight="1">
       <c r="A219" s="7"/>
@@ -8559,7 +8451,7 @@
       <c r="J219" s="8"/>
       <c r="K219" s="9"/>
       <c r="L219" s="8"/>
-      <c r="M219" s="30"/>
+      <c r="M219" s="26"/>
     </row>
     <row r="220" spans="1:13" ht="18" customHeight="1">
       <c r="A220" s="7"/>
@@ -8574,7 +8466,7 @@
       <c r="J220" s="8"/>
       <c r="K220" s="9"/>
       <c r="L220" s="8"/>
-      <c r="M220" s="30"/>
+      <c r="M220" s="26"/>
     </row>
     <row r="221" spans="1:13" ht="18" customHeight="1">
       <c r="A221" s="7"/>
@@ -8589,7 +8481,7 @@
       <c r="J221" s="8"/>
       <c r="K221" s="9"/>
       <c r="L221" s="8"/>
-      <c r="M221" s="30"/>
+      <c r="M221" s="26"/>
     </row>
     <row r="222" spans="1:13" ht="18" customHeight="1">
       <c r="A222" s="7"/>
@@ -8604,7 +8496,7 @@
       <c r="J222" s="8"/>
       <c r="K222" s="9"/>
       <c r="L222" s="8"/>
-      <c r="M222" s="30"/>
+      <c r="M222" s="26"/>
     </row>
     <row r="223" spans="1:13" ht="18" customHeight="1">
       <c r="A223" s="7"/>
@@ -8619,7 +8511,7 @@
       <c r="J223" s="8"/>
       <c r="K223" s="9"/>
       <c r="L223" s="8"/>
-      <c r="M223" s="30"/>
+      <c r="M223" s="26"/>
     </row>
     <row r="224" spans="1:13" ht="18" customHeight="1">
       <c r="A224" s="7"/>
@@ -8634,7 +8526,7 @@
       <c r="J224" s="8"/>
       <c r="K224" s="9"/>
       <c r="L224" s="8"/>
-      <c r="M224" s="30"/>
+      <c r="M224" s="26"/>
     </row>
     <row r="225" spans="1:13" ht="18" customHeight="1">
       <c r="A225" s="7"/>
@@ -8649,7 +8541,7 @@
       <c r="J225" s="8"/>
       <c r="K225" s="9"/>
       <c r="L225" s="8"/>
-      <c r="M225" s="30"/>
+      <c r="M225" s="26"/>
     </row>
     <row r="226" spans="1:13" ht="18" customHeight="1">
       <c r="A226" s="7"/>
@@ -8664,7 +8556,7 @@
       <c r="J226" s="8"/>
       <c r="K226" s="9"/>
       <c r="L226" s="8"/>
-      <c r="M226" s="30"/>
+      <c r="M226" s="26"/>
     </row>
     <row r="227" spans="1:13" ht="18" customHeight="1">
       <c r="A227" s="7"/>
@@ -8679,7 +8571,7 @@
       <c r="J227" s="8"/>
       <c r="K227" s="9"/>
       <c r="L227" s="8"/>
-      <c r="M227" s="30"/>
+      <c r="M227" s="26"/>
     </row>
     <row r="228" spans="1:13" ht="18" customHeight="1">
       <c r="A228" s="7"/>
@@ -8694,7 +8586,7 @@
       <c r="J228" s="8"/>
       <c r="K228" s="9"/>
       <c r="L228" s="8"/>
-      <c r="M228" s="30"/>
+      <c r="M228" s="26"/>
     </row>
     <row r="229" spans="1:13" ht="18" customHeight="1">
       <c r="A229" s="7"/>
@@ -8709,7 +8601,7 @@
       <c r="J229" s="8"/>
       <c r="K229" s="9"/>
       <c r="L229" s="8"/>
-      <c r="M229" s="30"/>
+      <c r="M229" s="26"/>
     </row>
     <row r="230" spans="1:13" ht="18" customHeight="1">
       <c r="A230" s="7"/>
@@ -8724,7 +8616,7 @@
       <c r="J230" s="8"/>
       <c r="K230" s="9"/>
       <c r="L230" s="8"/>
-      <c r="M230" s="30"/>
+      <c r="M230" s="26"/>
     </row>
     <row r="231" spans="1:13" ht="18" customHeight="1">
       <c r="A231" s="7"/>
@@ -8739,7 +8631,7 @@
       <c r="J231" s="8"/>
       <c r="K231" s="9"/>
       <c r="L231" s="8"/>
-      <c r="M231" s="30"/>
+      <c r="M231" s="26"/>
     </row>
     <row r="232" spans="1:13" ht="18" customHeight="1">
       <c r="A232" s="7"/>
@@ -8754,7 +8646,7 @@
       <c r="J232" s="8"/>
       <c r="K232" s="9"/>
       <c r="L232" s="8"/>
-      <c r="M232" s="30"/>
+      <c r="M232" s="26"/>
     </row>
     <row r="233" spans="1:13" ht="18" customHeight="1">
       <c r="A233" s="7"/>
@@ -8769,7 +8661,7 @@
       <c r="J233" s="8"/>
       <c r="K233" s="9"/>
       <c r="L233" s="8"/>
-      <c r="M233" s="30"/>
+      <c r="M233" s="26"/>
     </row>
     <row r="234" spans="1:13" ht="18" customHeight="1">
       <c r="A234" s="7"/>
@@ -8784,7 +8676,7 @@
       <c r="J234" s="8"/>
       <c r="K234" s="9"/>
       <c r="L234" s="8"/>
-      <c r="M234" s="30"/>
+      <c r="M234" s="26"/>
     </row>
     <row r="235" spans="1:13" ht="18" customHeight="1">
       <c r="A235" s="7"/>
@@ -8799,7 +8691,7 @@
       <c r="J235" s="8"/>
       <c r="K235" s="9"/>
       <c r="L235" s="8"/>
-      <c r="M235" s="30"/>
+      <c r="M235" s="26"/>
     </row>
     <row r="236" spans="1:13" ht="18" customHeight="1">
       <c r="A236" s="7"/>
@@ -8814,7 +8706,7 @@
       <c r="J236" s="8"/>
       <c r="K236" s="9"/>
       <c r="L236" s="8"/>
-      <c r="M236" s="30"/>
+      <c r="M236" s="26"/>
     </row>
     <row r="237" spans="1:13" ht="18" customHeight="1">
       <c r="A237" s="7"/>
@@ -8829,7 +8721,7 @@
       <c r="J237" s="8"/>
       <c r="K237" s="9"/>
       <c r="L237" s="8"/>
-      <c r="M237" s="30"/>
+      <c r="M237" s="26"/>
     </row>
     <row r="238" spans="1:13" ht="18" customHeight="1">
       <c r="A238" s="7"/>
@@ -8844,7 +8736,7 @@
       <c r="J238" s="8"/>
       <c r="K238" s="9"/>
       <c r="L238" s="8"/>
-      <c r="M238" s="30"/>
+      <c r="M238" s="26"/>
     </row>
     <row r="239" spans="1:13" ht="18" customHeight="1">
       <c r="A239" s="7"/>
@@ -8859,7 +8751,7 @@
       <c r="J239" s="8"/>
       <c r="K239" s="9"/>
       <c r="L239" s="8"/>
-      <c r="M239" s="30"/>
+      <c r="M239" s="26"/>
     </row>
     <row r="240" spans="1:13" ht="18" customHeight="1">
       <c r="A240" s="7"/>
@@ -8874,7 +8766,7 @@
       <c r="J240" s="8"/>
       <c r="K240" s="9"/>
       <c r="L240" s="8"/>
-      <c r="M240" s="30"/>
+      <c r="M240" s="26"/>
     </row>
     <row r="241" spans="1:13" ht="18" customHeight="1">
       <c r="A241" s="7"/>
@@ -8889,7 +8781,7 @@
       <c r="J241" s="8"/>
       <c r="K241" s="9"/>
       <c r="L241" s="8"/>
-      <c r="M241" s="30"/>
+      <c r="M241" s="26"/>
     </row>
     <row r="242" spans="1:13" ht="18" customHeight="1">
       <c r="A242" s="7"/>
@@ -8904,7 +8796,7 @@
       <c r="J242" s="8"/>
       <c r="K242" s="9"/>
       <c r="L242" s="8"/>
-      <c r="M242" s="30"/>
+      <c r="M242" s="26"/>
     </row>
     <row r="243" spans="1:13" ht="18" customHeight="1">
       <c r="A243" s="7"/>
@@ -8919,7 +8811,7 @@
       <c r="J243" s="8"/>
       <c r="K243" s="9"/>
       <c r="L243" s="8"/>
-      <c r="M243" s="30"/>
+      <c r="M243" s="26"/>
     </row>
     <row r="244" spans="1:13" ht="18" customHeight="1">
       <c r="A244" s="7"/>
@@ -8934,7 +8826,7 @@
       <c r="J244" s="8"/>
       <c r="K244" s="9"/>
       <c r="L244" s="8"/>
-      <c r="M244" s="30"/>
+      <c r="M244" s="26"/>
     </row>
     <row r="245" spans="1:13" ht="18" customHeight="1">
       <c r="A245" s="7"/>
@@ -8949,23 +8841,11 @@
       <c r="J245" s="8"/>
       <c r="K245" s="9"/>
       <c r="L245" s="8"/>
-      <c r="M245" s="30"/>
+      <c r="M245" s="26"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
-    <mergeCell ref="M18:M27"/>
-    <mergeCell ref="N18:N27"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="N35:N39"/>
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="N50:N55"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="M7:M17"/>
-    <mergeCell ref="N7:N17"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:H1"/>
@@ -8974,45 +8854,57 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M50:M55"/>
+    <mergeCell ref="N50:N55"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="M7:M17"/>
+    <mergeCell ref="N7:N17"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M18:M27"/>
+    <mergeCell ref="N18:N27"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="M35:M39"/>
+    <mergeCell ref="N35:N39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F5:H6">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F5="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H17">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$F7="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H27">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$F18="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:H39">
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$F28="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H49">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$F40="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:H55">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F50="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I5="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:K6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I6="完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9020,7 +8912,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576 I1:I1048576">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 G1:G1048576">
       <formula1>dev</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="306">
   <si>
     <t>平台接入管理</t>
   </si>
@@ -1617,9 +1617,6 @@
     <t>Routing</t>
   </si>
   <si>
-    <t>pf-mng/pf-conn-mng/pf-conn-mng-cre</t>
-  </si>
-  <si>
     <t>pf-mng/pf-conn-mng/pf-cre-step-01</t>
   </si>
   <si>
@@ -1734,6 +1731,28 @@
   </si>
   <si>
     <t>chuyu</t>
+  </si>
+  <si>
+    <t>pf-mng/pf-conn-mng/pf-conn-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-mng.module.ts
+/backend/src/ent-mng/ent-prod-mng/ent-prod-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-prod-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-cre-01</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-cre-02</t>
+  </si>
+  <si>
+    <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-cre-03</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1873,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1898,7 +1916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2164,6 +2182,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2171,7 +2228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,23 +2392,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2410,12 +2455,55 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2751,8 +2839,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2778,50 +2866,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80" t="s">
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
       <c r="L1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" s="72" t="s">
+      <c r="M1" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="72" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2841,9 +2929,9 @@
         <v>78</v>
       </c>
       <c r="L2" s="40"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="77"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -2996,16 +3084,16 @@
         <v>42643</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>286</v>
-      </c>
-      <c r="M7" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="N7" s="69" t="s">
-        <v>297</v>
+        <v>285</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" s="65" t="s">
+        <v>296</v>
       </c>
       <c r="O7" s="28" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1">
@@ -3041,10 +3129,10 @@
         <v>42643</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M8" s="60"/>
+      <c r="N8" s="66"/>
       <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
@@ -3080,12 +3168,12 @@
         <v>42643</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="66"/>
       <c r="O9" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
@@ -3121,12 +3209,12 @@
         <v>42643</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M10" s="60"/>
+      <c r="N10" s="66"/>
       <c r="O10" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
@@ -3162,12 +3250,12 @@
         <v>42643</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M11" s="60"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
@@ -3203,12 +3291,12 @@
         <v>42643</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M12" s="60"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -3244,12 +3332,12 @@
         <v>42643</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M13" s="60"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
@@ -3285,12 +3373,12 @@
         <v>42643</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M14" s="64"/>
-      <c r="N14" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M14" s="60"/>
+      <c r="N14" s="66"/>
       <c r="O14" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
@@ -3326,10 +3414,10 @@
         <v>42643</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M15" s="64"/>
-      <c r="N15" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M15" s="60"/>
+      <c r="N15" s="66"/>
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
@@ -3365,10 +3453,10 @@
         <v>42643</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M16" s="64"/>
-      <c r="N16" s="70"/>
+        <v>285</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3404,10 +3492,10 @@
         <v>42643</v>
       </c>
       <c r="L17" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="65"/>
-      <c r="N17" s="71"/>
+        <v>285</v>
+      </c>
+      <c r="M17" s="61"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1">
@@ -3443,16 +3531,16 @@
         <v>42643</v>
       </c>
       <c r="L18" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="M18" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="N18" s="66" t="s">
-        <v>296</v>
+        <v>285</v>
+      </c>
+      <c r="M18" s="69" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>295</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
@@ -3488,10 +3576,10 @@
         <v>42643</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M19" s="74"/>
-      <c r="N19" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
@@ -3527,12 +3615,12 @@
         <v>42643</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="60"/>
       <c r="O20" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1">
@@ -3568,10 +3656,10 @@
         <v>42643</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M21" s="74"/>
-      <c r="N21" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="60"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
       <c r="A22" s="7">
@@ -3606,12 +3694,12 @@
         <v>42643</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M22" s="74"/>
-      <c r="N22" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M22" s="70"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1">
@@ -3647,12 +3735,12 @@
         <v>42643</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M23" s="74"/>
-      <c r="N23" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M23" s="70"/>
+      <c r="N23" s="60"/>
       <c r="O23" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P23" s="16"/>
     </row>
@@ -3689,12 +3777,12 @@
         <v>42643</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M24" s="74"/>
-      <c r="N24" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M24" s="70"/>
+      <c r="N24" s="60"/>
       <c r="O24" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P24" s="16"/>
     </row>
@@ -3731,10 +3819,10 @@
         <v>42643</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M25" s="74"/>
-      <c r="N25" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M25" s="70"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
@@ -3770,10 +3858,10 @@
         <v>42643</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="64"/>
+        <v>285</v>
+      </c>
+      <c r="M26" s="70"/>
+      <c r="N26" s="60"/>
       <c r="O26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3809,10 +3897,10 @@
         <v>42643</v>
       </c>
       <c r="L27" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="M27" s="75"/>
-      <c r="N27" s="65"/>
+        <v>285</v>
+      </c>
+      <c r="M27" s="71"/>
+      <c r="N27" s="61"/>
       <c r="O27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="18" customHeight="1">
@@ -3848,16 +3936,16 @@
         <v>42654</v>
       </c>
       <c r="L28" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="M28" s="63" t="s">
-        <v>290</v>
-      </c>
-      <c r="N28" s="69" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="M28" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="O28" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="18" customHeight="1">
@@ -3893,12 +3981,12 @@
         <v>42654</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M29" s="64"/>
-      <c r="N29" s="70"/>
+        <v>287</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="66"/>
       <c r="O29" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
@@ -3934,12 +4022,12 @@
         <v>42654</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M30" s="64"/>
-      <c r="N30" s="70"/>
+        <v>287</v>
+      </c>
+      <c r="M30" s="60"/>
+      <c r="N30" s="66"/>
       <c r="O30" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="18" customHeight="1">
@@ -3975,10 +4063,10 @@
         <v>42654</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M31" s="64"/>
-      <c r="N31" s="70"/>
+        <v>287</v>
+      </c>
+      <c r="M31" s="60"/>
+      <c r="N31" s="66"/>
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
@@ -4014,12 +4102,12 @@
         <v>42654</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="70"/>
+        <v>287</v>
+      </c>
+      <c r="M32" s="60"/>
+      <c r="N32" s="66"/>
       <c r="O32" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
@@ -4055,12 +4143,12 @@
         <v>42654</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M33" s="64"/>
-      <c r="N33" s="70"/>
+        <v>287</v>
+      </c>
+      <c r="M33" s="60"/>
+      <c r="N33" s="66"/>
       <c r="O33" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4096,10 +4184,10 @@
         <v>42654</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="71"/>
+        <v>287</v>
+      </c>
+      <c r="M34" s="61"/>
+      <c r="N34" s="67"/>
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
@@ -4129,22 +4217,22 @@
         <v>24</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K35" s="53">
         <v>42654</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="M35" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="M35" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="N35" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="N35" s="66" t="s">
-        <v>294</v>
-      </c>
       <c r="O35" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -4174,16 +4262,16 @@
         <v>24</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K36" s="9">
         <v>42654</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -4213,18 +4301,18 @@
         <v>24</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K37" s="9">
         <v>42654</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
       <c r="O37" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1">
@@ -4254,16 +4342,16 @@
         <v>24</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K38" s="9">
         <v>42654</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4293,51 +4381,63 @@
         <v>24</v>
       </c>
       <c r="J39" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K39" s="50">
         <v>42654</v>
       </c>
       <c r="L39" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
+        <v>287</v>
+      </c>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
       <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
-      <c r="A40" s="57">
+      <c r="A40" s="84">
         <v>38</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="52" t="s">
+        <v>16</v>
+      </c>
       <c r="G40" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="59">
-        <v>42643</v>
-      </c>
-      <c r="L40" s="58" t="s">
+      <c r="I40" s="57"/>
+      <c r="J40" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" s="58">
+        <v>42652</v>
+      </c>
+      <c r="L40" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="81" t="s">
+        <v>300</v>
+      </c>
+      <c r="N40" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="O40" s="33" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
-      <c r="A41" s="25">
+      <c r="A41" s="85">
         <v>39</v>
       </c>
       <c r="B41" s="36" t="s">
@@ -4352,23 +4452,29 @@
       <c r="E41" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G41" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="36"/>
-      <c r="J41" s="61"/>
+      <c r="J41" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K41" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L41" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L41" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="38"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1">
-      <c r="A42" s="25">
+      <c r="A42" s="85">
         <v>40</v>
       </c>
       <c r="B42" s="36" t="s">
@@ -4383,23 +4489,31 @@
       <c r="E42" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G42" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="36"/>
-      <c r="J42" s="61"/>
+      <c r="J42" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K42" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L42" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L42" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="38"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="34" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1">
-      <c r="A43" s="25">
+      <c r="A43" s="85">
         <v>41</v>
       </c>
       <c r="B43" s="36" t="s">
@@ -4414,23 +4528,29 @@
       <c r="E43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G43" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="36"/>
-      <c r="J43" s="61"/>
+      <c r="J43" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K43" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L43" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L43" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M43" s="38"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="34"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
-      <c r="A44" s="25">
+      <c r="A44" s="85">
         <v>42</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -4445,23 +4565,31 @@
       <c r="E44" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G44" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="36"/>
-      <c r="J44" s="61"/>
+      <c r="J44" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K44" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L44" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L44" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="38"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="34" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1">
-      <c r="A45" s="25">
+      <c r="A45" s="85">
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
@@ -4476,23 +4604,29 @@
       <c r="E45" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G45" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="36"/>
-      <c r="J45" s="61"/>
+      <c r="J45" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K45" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L45" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L45" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="38"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
-      <c r="A46" s="25">
+      <c r="A46" s="85">
         <v>44</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -4507,23 +4641,31 @@
       <c r="E46" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G46" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="36"/>
-      <c r="J46" s="61"/>
+      <c r="J46" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K46" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L46" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L46" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="38"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="34" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1">
-      <c r="A47" s="25">
+      <c r="A47" s="85">
         <v>45</v>
       </c>
       <c r="B47" s="36" t="s">
@@ -4538,23 +4680,29 @@
       <c r="E47" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G47" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="36"/>
-      <c r="J47" s="61"/>
+      <c r="J47" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K47" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L47" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L47" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="38"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
-      <c r="A48" s="25">
+      <c r="A48" s="85">
         <v>46</v>
       </c>
       <c r="B48" s="36" t="s">
@@ -4569,23 +4717,29 @@
       <c r="E48" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="36"/>
-      <c r="J48" s="61"/>
+      <c r="J48" s="88" t="s">
+        <v>286</v>
+      </c>
       <c r="K48" s="37">
-        <v>42643</v>
-      </c>
-      <c r="L48" s="36" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L48" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="38"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="34"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A49" s="43">
+      <c r="A49" s="86">
         <v>47</v>
       </c>
       <c r="B49" s="44" t="s">
@@ -4600,20 +4754,26 @@
       <c r="E49" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="49"/>
+      <c r="F49" s="49" t="s">
+        <v>16</v>
+      </c>
       <c r="G49" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="44"/>
-      <c r="J49" s="62"/>
+      <c r="J49" s="89" t="s">
+        <v>286</v>
+      </c>
       <c r="K49" s="45">
-        <v>42643</v>
-      </c>
-      <c r="L49" s="44" t="s">
+        <v>42652</v>
+      </c>
+      <c r="L49" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="38"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="35"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
       <c r="A50" s="51">
@@ -4642,22 +4802,22 @@
         <v>24</v>
       </c>
       <c r="J50" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K50" s="53">
         <v>42654</v>
       </c>
       <c r="L50" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="M50" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="M50" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="N50" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="O50" s="28" t="s">
         <v>278</v>
-      </c>
-      <c r="N50" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="O50" s="28" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1">
@@ -4687,16 +4847,16 @@
         <v>24</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K51" s="9">
         <v>42654</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
       <c r="O51" s="32"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
@@ -4726,18 +4886,18 @@
         <v>24</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K52" s="9">
         <v>42654</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
       <c r="O52" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1">
@@ -4767,16 +4927,16 @@
         <v>24</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K53" s="9">
         <v>42654</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
       <c r="O53" s="29"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
@@ -4806,16 +4966,16 @@
         <v>24</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K54" s="9">
         <v>42654</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
+        <v>287</v>
+      </c>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
       <c r="O54" s="29"/>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4845,16 +5005,16 @@
         <v>24</v>
       </c>
       <c r="J55" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K55" s="50">
         <v>42654</v>
       </c>
       <c r="L55" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
+        <v>287</v>
+      </c>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
       <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
@@ -4875,7 +5035,7 @@
       </c>
       <c r="F56" s="55"/>
       <c r="G56" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H56" s="55"/>
       <c r="I56" s="55"/>
@@ -4902,7 +5062,7 @@
       </c>
       <c r="F57" s="36"/>
       <c r="G57" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
@@ -4929,7 +5089,7 @@
       </c>
       <c r="F58" s="36"/>
       <c r="G58" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
@@ -4956,7 +5116,7 @@
       </c>
       <c r="F59" s="44"/>
       <c r="G59" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H59" s="44"/>
       <c r="I59" s="44"/>
@@ -8845,7 +9005,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:H1"/>
@@ -8866,53 +9026,55 @@
     <mergeCell ref="N28:N34"/>
     <mergeCell ref="M35:M39"/>
     <mergeCell ref="N35:N39"/>
+    <mergeCell ref="M40:M49"/>
+    <mergeCell ref="N40:N49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F5:H6">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$F5="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H17">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$F7="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H27">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$F18="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:H39">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$F28="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H49">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$F40="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:H55">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$F50="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$I5="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:K6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I6="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 E1:F1048576">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 J1:J1048576">
       <formula1>dev</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="306">
   <si>
     <t>平台接入管理</t>
   </si>
@@ -2228,7 +2228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,6 +2398,54 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2437,33 +2485,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,30 +2494,516 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2839,8 +3346,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2866,50 +3373,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76" t="s">
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="O1" s="69" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2929,9 +3436,9 @@
         <v>78</v>
       </c>
       <c r="L2" s="40"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="73"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -3086,10 +3593,10 @@
       <c r="L7" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="81" t="s">
         <v>296</v>
       </c>
       <c r="O7" s="28" t="s">
@@ -3119,20 +3626,20 @@
         <v>258</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="42">
         <v>42643</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="66"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="82"/>
       <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
@@ -3158,20 +3665,20 @@
         <v>258</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="42">
         <v>42643</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M9" s="60"/>
-      <c r="N9" s="66"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="82"/>
       <c r="O9" s="29" t="s">
         <v>262</v>
       </c>
@@ -3199,20 +3706,20 @@
         <v>258</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="42">
         <v>42643</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="66"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="29" t="s">
         <v>263</v>
       </c>
@@ -3240,20 +3747,20 @@
         <v>258</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="42">
         <v>42643</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M11" s="60"/>
-      <c r="N11" s="66"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="82"/>
       <c r="O11" s="29" t="s">
         <v>264</v>
       </c>
@@ -3281,20 +3788,20 @@
         <v>258</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="42">
         <v>42643</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="66"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="82"/>
       <c r="O12" s="29" t="s">
         <v>265</v>
       </c>
@@ -3322,20 +3829,20 @@
         <v>258</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="42">
         <v>42643</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="66"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="29" t="s">
         <v>266</v>
       </c>
@@ -3363,20 +3870,20 @@
         <v>258</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="42">
         <v>42643</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="66"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="29" t="s">
         <v>267</v>
       </c>
@@ -3404,20 +3911,20 @@
         <v>258</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="42">
         <v>42643</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="60"/>
-      <c r="N15" s="66"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
@@ -3443,20 +3950,20 @@
         <v>258</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="42">
         <v>42643</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="66"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3494,8 +4001,8 @@
       <c r="L17" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="67"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="83"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1">
@@ -3521,22 +4028,22 @@
         <v>259</v>
       </c>
       <c r="H18" s="52"/>
-      <c r="I18" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="52" t="s">
+      <c r="I18" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="42">
         <v>42643</v>
       </c>
       <c r="L18" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="N18" s="62" t="s">
+      <c r="N18" s="78" t="s">
         <v>295</v>
       </c>
       <c r="O18" s="33" t="s">
@@ -3566,20 +4073,20 @@
         <v>259</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="42">
         <v>42643</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="60"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
@@ -3605,20 +4112,20 @@
         <v>259</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="8" t="s">
+      <c r="I20" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="42">
         <v>42643</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="60"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="34" t="s">
         <v>281</v>
       </c>
@@ -3646,20 +4153,20 @@
         <v>259</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="8" t="s">
+      <c r="I21" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="42">
         <v>42643</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="60"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
       <c r="A22" s="7">
@@ -3684,20 +4191,20 @@
         <v>259</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="8" t="s">
+      <c r="I22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="42">
         <v>42643</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M22" s="70"/>
-      <c r="N22" s="60"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="76"/>
       <c r="O22" s="34" t="s">
         <v>282</v>
       </c>
@@ -3725,20 +4232,20 @@
         <v>259</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="8" t="s">
+      <c r="I23" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="42">
         <v>42643</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="60"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="76"/>
       <c r="O23" s="34" t="s">
         <v>283</v>
       </c>
@@ -3767,20 +4274,20 @@
         <v>259</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="I24" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="42">
         <v>42643</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="60"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="34" t="s">
         <v>284</v>
       </c>
@@ -3809,20 +4316,20 @@
         <v>259</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="I25" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="42">
         <v>42643</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M25" s="70"/>
-      <c r="N25" s="60"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="76"/>
       <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
@@ -3848,20 +4355,20 @@
         <v>259</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="I26" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="42">
         <v>42643</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="60"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="34"/>
     </row>
     <row r="27" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3887,20 +4394,20 @@
         <v>259</v>
       </c>
       <c r="H27" s="49"/>
-      <c r="I27" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="49" t="s">
+      <c r="I27" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="42">
         <v>42643</v>
       </c>
       <c r="L27" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="61"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="77"/>
       <c r="O27" s="35"/>
     </row>
     <row r="28" spans="1:16" ht="18" customHeight="1">
@@ -3938,10 +4445,10 @@
       <c r="L28" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="81" t="s">
         <v>294</v>
       </c>
       <c r="O28" s="28" t="s">
@@ -3983,8 +4490,8 @@
       <c r="L29" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="66"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="82"/>
       <c r="O29" s="29" t="s">
         <v>271</v>
       </c>
@@ -4024,8 +4531,8 @@
       <c r="L30" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M30" s="60"/>
-      <c r="N30" s="66"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="82"/>
       <c r="O30" s="29" t="s">
         <v>272</v>
       </c>
@@ -4065,8 +4572,8 @@
       <c r="L31" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M31" s="60"/>
-      <c r="N31" s="66"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
@@ -4104,8 +4611,8 @@
       <c r="L32" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="66"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="82"/>
       <c r="O32" s="29" t="s">
         <v>273</v>
       </c>
@@ -4145,8 +4652,8 @@
       <c r="L33" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="60"/>
-      <c r="N33" s="66"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="82"/>
       <c r="O33" s="29" t="s">
         <v>269</v>
       </c>
@@ -4186,8 +4693,8 @@
       <c r="L34" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="M34" s="61"/>
-      <c r="N34" s="67"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="83"/>
       <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
@@ -4225,10 +4732,10 @@
       <c r="L35" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="M35" s="59" t="s">
+      <c r="M35" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="N35" s="62" t="s">
+      <c r="N35" s="78" t="s">
         <v>293</v>
       </c>
       <c r="O35" s="28" t="s">
@@ -4270,8 +4777,8 @@
       <c r="L36" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
       <c r="O36" s="29"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
@@ -4309,8 +4816,8 @@
       <c r="L37" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
       <c r="O37" s="29" t="s">
         <v>275</v>
       </c>
@@ -4350,8 +4857,8 @@
       <c r="L38" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
       <c r="O38" s="29"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4389,12 +4896,12 @@
       <c r="L39" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
       <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
-      <c r="A40" s="84">
+      <c r="A40" s="63">
         <v>38</v>
       </c>
       <c r="B40" s="57" t="s">
@@ -4416,20 +4923,22 @@
         <v>286</v>
       </c>
       <c r="H40" s="52"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="87" t="s">
+      <c r="I40" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="66" t="s">
         <v>286</v>
       </c>
       <c r="K40" s="58">
         <v>42652</v>
       </c>
-      <c r="L40" s="78" t="s">
+      <c r="L40" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M40" s="81" t="s">
+      <c r="M40" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="N40" s="62" t="s">
+      <c r="N40" s="78" t="s">
         <v>301</v>
       </c>
       <c r="O40" s="33" t="s">
@@ -4437,7 +4946,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
-      <c r="A41" s="85">
+      <c r="A41" s="64">
         <v>39</v>
       </c>
       <c r="B41" s="36" t="s">
@@ -4459,22 +4968,24 @@
         <v>286</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="88" t="s">
+      <c r="I41" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K41" s="37">
         <v>42652</v>
       </c>
-      <c r="L41" s="79" t="s">
+      <c r="L41" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="82"/>
-      <c r="N41" s="60"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="76"/>
       <c r="O41" s="34"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1">
-      <c r="A42" s="85">
+      <c r="A42" s="64">
         <v>40</v>
       </c>
       <c r="B42" s="36" t="s">
@@ -4496,24 +5007,26 @@
         <v>286</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="88" t="s">
+      <c r="I42" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K42" s="37">
         <v>42652</v>
       </c>
-      <c r="L42" s="79" t="s">
+      <c r="L42" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="82"/>
-      <c r="N42" s="60"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="76"/>
       <c r="O42" s="34" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1">
-      <c r="A43" s="85">
+      <c r="A43" s="64">
         <v>41</v>
       </c>
       <c r="B43" s="36" t="s">
@@ -4535,22 +5048,24 @@
         <v>286</v>
       </c>
       <c r="H43" s="8"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="88" t="s">
+      <c r="I43" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K43" s="37">
         <v>42652</v>
       </c>
-      <c r="L43" s="79" t="s">
+      <c r="L43" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M43" s="82"/>
-      <c r="N43" s="60"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="76"/>
       <c r="O43" s="34"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
-      <c r="A44" s="85">
+      <c r="A44" s="64">
         <v>42</v>
       </c>
       <c r="B44" s="36" t="s">
@@ -4572,24 +5087,26 @@
         <v>286</v>
       </c>
       <c r="H44" s="8"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="88" t="s">
+      <c r="I44" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K44" s="37">
         <v>42652</v>
       </c>
-      <c r="L44" s="79" t="s">
+      <c r="L44" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="82"/>
-      <c r="N44" s="60"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="76"/>
       <c r="O44" s="34" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1">
-      <c r="A45" s="85">
+      <c r="A45" s="64">
         <v>43</v>
       </c>
       <c r="B45" s="36" t="s">
@@ -4611,22 +5128,24 @@
         <v>286</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="88" t="s">
+      <c r="I45" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K45" s="37">
         <v>42652</v>
       </c>
-      <c r="L45" s="79" t="s">
+      <c r="L45" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="82"/>
-      <c r="N45" s="60"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="76"/>
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
-      <c r="A46" s="85">
+      <c r="A46" s="64">
         <v>44</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -4648,24 +5167,26 @@
         <v>286</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="88" t="s">
+      <c r="I46" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K46" s="37">
         <v>42652</v>
       </c>
-      <c r="L46" s="79" t="s">
+      <c r="L46" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="82"/>
-      <c r="N46" s="60"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="76"/>
       <c r="O46" s="34" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1">
-      <c r="A47" s="85">
+      <c r="A47" s="64">
         <v>45</v>
       </c>
       <c r="B47" s="36" t="s">
@@ -4687,22 +5208,24 @@
         <v>286</v>
       </c>
       <c r="H47" s="8"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="88" t="s">
+      <c r="I47" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K47" s="37">
         <v>42652</v>
       </c>
-      <c r="L47" s="79" t="s">
+      <c r="L47" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="82"/>
-      <c r="N47" s="60"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="76"/>
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
-      <c r="A48" s="85">
+      <c r="A48" s="64">
         <v>46</v>
       </c>
       <c r="B48" s="36" t="s">
@@ -4724,22 +5247,24 @@
         <v>286</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="88" t="s">
+      <c r="I48" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="67" t="s">
         <v>286</v>
       </c>
       <c r="K48" s="37">
         <v>42652</v>
       </c>
-      <c r="L48" s="79" t="s">
+      <c r="L48" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="82"/>
-      <c r="N48" s="60"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="76"/>
       <c r="O48" s="34"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A49" s="86">
+      <c r="A49" s="65">
         <v>47</v>
       </c>
       <c r="B49" s="44" t="s">
@@ -4761,18 +5286,20 @@
         <v>286</v>
       </c>
       <c r="H49" s="49"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="89" t="s">
+      <c r="I49" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="68" t="s">
         <v>286</v>
       </c>
       <c r="K49" s="45">
         <v>42652</v>
       </c>
-      <c r="L49" s="80" t="s">
+      <c r="L49" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="83"/>
-      <c r="N49" s="61"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="77"/>
       <c r="O49" s="35"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
@@ -4810,10 +5337,10 @@
       <c r="L50" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="M50" s="59" t="s">
+      <c r="M50" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="N50" s="62" t="s">
+      <c r="N50" s="78" t="s">
         <v>276</v>
       </c>
       <c r="O50" s="28" t="s">
@@ -4855,8 +5382,8 @@
       <c r="L51" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
       <c r="O51" s="32"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
@@ -4894,8 +5421,8 @@
       <c r="L52" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M52" s="60"/>
-      <c r="N52" s="60"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
       <c r="O52" s="29" t="s">
         <v>279</v>
       </c>
@@ -4935,8 +5462,8 @@
       <c r="L53" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M53" s="60"/>
-      <c r="N53" s="60"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
       <c r="O53" s="29"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
@@ -4974,8 +5501,8 @@
       <c r="L54" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
       <c r="O54" s="29"/>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5013,8 +5540,8 @@
       <c r="L55" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
       <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
@@ -5033,7 +5560,9 @@
       <c r="E56" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="G56" s="55" t="s">
         <v>297</v>
       </c>
@@ -5060,7 +5589,9 @@
       <c r="E57" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="36"/>
+      <c r="F57" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="G57" s="55" t="s">
         <v>298</v>
       </c>
@@ -5087,7 +5618,9 @@
       <c r="E58" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="36"/>
+      <c r="F58" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="G58" s="55" t="s">
         <v>297</v>
       </c>
@@ -5114,7 +5647,9 @@
       <c r="E59" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="44"/>
+      <c r="F59" s="44" t="s">
+        <v>16</v>
+      </c>
       <c r="G59" s="44" t="s">
         <v>298</v>
       </c>
@@ -9006,14 +9541,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M50:M55"/>
     <mergeCell ref="N50:N55"/>
     <mergeCell ref="M1:M2"/>
@@ -9028,50 +9555,68 @@
     <mergeCell ref="N35:N39"/>
     <mergeCell ref="M40:M49"/>
     <mergeCell ref="N40:N49"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F5:H6">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>$F5="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H17">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>$F7="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:H27">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>$F18="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:H39">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="31" priority="8">
       <formula>$F28="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H49">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>$F40="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:H55">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>$F50="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>$I5="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:K6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$I6="完成"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I7:K17">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$I7="完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:K27">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>$I18="完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 E1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576 I1:I1048576">
       <formula1>status</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 J1:J1048576">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="312">
   <si>
     <t>平台接入管理</t>
   </si>
@@ -1753,6 +1753,25 @@
   </si>
   <si>
     <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-cre-03</t>
+  </si>
+  <si>
+    <t>/frontend/src/prod-and-svc/cloud-host/cloud-host.module.ts
+/frontend/src/prod-and-svc/cloud-host/cloud-host.routing.ts</t>
+  </si>
+  <si>
+    <t>/frontend/src/prod-and-svc/cloud-host/</t>
+  </si>
+  <si>
+    <t>prod-and-svc/cloud-host/cloud-host-general-view</t>
+  </si>
+  <si>
+    <t>prod-and-svc/cloud-host/cloud-host-order</t>
+  </si>
+  <si>
+    <t>prod-and-svc/cloud-host/cloud-host-ins-list</t>
+  </si>
+  <si>
+    <t>prod-and-svc/cloud-host/cloud-host-ins-detail</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1897,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1912,6 +1931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2228,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2335,9 +2360,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2428,6 +2450,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2494,509 +2525,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -3346,8 +2892,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3363,7 +2909,7 @@
     <col min="9" max="9" width="7.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="52.140625" style="6" customWidth="1"/>
     <col min="14" max="14" width="48.28515625" style="6" customWidth="1"/>
     <col min="15" max="15" width="52.85546875" style="6" customWidth="1"/>
@@ -3373,50 +2919,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="71" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -3435,10 +2981,10 @@
       <c r="K2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="70"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -3465,312 +3011,290 @@
       <c r="L3" s="8"/>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="8"/>
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="53">
+        <v>54</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="N5" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F6" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="H6" s="94"/>
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="48">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="69" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="68">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F7" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G7" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49" t="s">
+      <c r="H7" s="95"/>
+      <c r="I7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49" t="s">
+      <c r="K7" s="28"/>
+      <c r="L7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7" s="47">
+      <c r="M7" s="91"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1">
+      <c r="A8" s="25">
+        <v>56</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="69"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A9" s="25">
+        <v>57</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="69"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="42">
+        <v>55</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="96"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="70" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1">
+      <c r="A11" s="46">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K11" s="41">
         <v>42643</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M11" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N11" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O11" s="28" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="42">
-        <v>42643</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M8" s="76"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="42">
-        <v>42643</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="42">
-        <v>42643</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="42">
-        <v>42643</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="29" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>14</v>
@@ -3788,30 +3312,28 @@
         <v>258</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>42643</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="29" t="s">
-        <v>265</v>
-      </c>
+      <c r="M12" s="78"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>14</v>
@@ -3829,30 +3351,30 @@
         <v>258</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="41">
         <v>42643</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="82"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="84"/>
       <c r="O13" s="29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>14</v>
@@ -3870,30 +3392,30 @@
         <v>258</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="59" t="s">
+      <c r="J14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="41">
         <v>42643</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="82"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="29" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="A15" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>14</v>
@@ -3911,28 +3433,30 @@
         <v>258</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="59" t="s">
+      <c r="J15" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <v>42643</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="76"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="29"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="29" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="A16" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
@@ -3950,118 +3474,118 @@
         <v>258</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <v>42643</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M16" s="76"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="29"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="48">
-        <v>15</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="49" t="s">
+      <c r="M16" s="78"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="41">
         <v>42643</v>
       </c>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="30"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="29" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1">
-      <c r="A18" s="51">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="52" t="s">
+      <c r="G18" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="42">
+      <c r="J18" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="41">
         <v>42643</v>
       </c>
-      <c r="L18" s="52" t="s">
+      <c r="L18" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M18" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="N18" s="78" t="s">
-        <v>295</v>
-      </c>
-      <c r="O18" s="33" t="s">
-        <v>280</v>
+      <c r="M18" s="78"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1">
       <c r="A19" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>24</v>
@@ -4070,37 +3594,37 @@
         <v>16</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="42">
+      <c r="I19" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="41">
         <v>42643</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M19" s="86"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="34"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
       <c r="A20" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>24</v>
@@ -4109,112 +3633,115 @@
         <v>16</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="42">
+      <c r="I20" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="41">
         <v>42643</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="34" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="M20" s="78"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="47">
+        <v>15</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="49">
+        <v>42643</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="M21" s="79"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" customHeight="1">
+      <c r="A22" s="50">
+        <v>16</v>
+      </c>
+      <c r="B22" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="C22" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F22" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="59" t="s">
+      <c r="H22" s="51"/>
+      <c r="I22" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="59" t="s">
+      <c r="J22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K22" s="41">
         <v>42643</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L22" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M21" s="86"/>
-      <c r="N21" s="76"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="42">
-        <v>42643</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M22" s="86"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="34" t="s">
-        <v>282</v>
+      <c r="M22" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="N22" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1">
       <c r="A23" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -4232,31 +3759,28 @@
         <v>259</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="59" t="s">
+      <c r="J23" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <v>42643</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="P23" s="16"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
       <c r="A24" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>14</v>
@@ -4274,31 +3798,30 @@
         <v>259</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <v>42643</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M24" s="86"/>
-      <c r="N24" s="76"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="78"/>
       <c r="O24" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="P24" s="16"/>
+        <v>281</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1">
       <c r="A25" s="7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>14</v>
@@ -4316,28 +3839,27 @@
         <v>259</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>42643</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="34"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="78"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>14</v>
@@ -4355,118 +3877,120 @@
         <v>259</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <v>42643</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M26" s="86"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="48">
-        <v>25</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="49" t="s">
+      <c r="M26" s="88"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="59" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <v>42643</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L27" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M27" s="87"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="35"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="P27" s="16"/>
     </row>
     <row r="28" spans="1:16" ht="18" customHeight="1">
-      <c r="A28" s="51">
-        <v>26</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="52" t="s">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="52" t="s">
+      <c r="G28" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K28" s="53">
-        <v>42654</v>
-      </c>
-      <c r="L28" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="M28" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="N28" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="O28" s="28" t="s">
-        <v>270</v>
-      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="41">
+        <v>42643</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M28" s="88"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" s="16"/>
     </row>
     <row r="29" spans="1:16" ht="18" customHeight="1">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>24</v>
@@ -4475,39 +3999,37 @@
         <v>16</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K29" s="9">
-        <v>42654</v>
+      <c r="I29" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="41">
+        <v>42643</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M29" s="76"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="29" t="s">
-        <v>271</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M29" s="88"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
       <c r="A30" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>24</v>
@@ -4516,113 +4038,115 @@
         <v>16</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="41">
+        <v>42643</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M30" s="88"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A31" s="47">
+        <v>25</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="H31" s="48"/>
+      <c r="I31" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="41">
+        <v>42643</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" s="89"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:16" ht="18" customHeight="1">
+      <c r="A32" s="50">
+        <v>26</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H32" s="51"/>
+      <c r="I32" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J32" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K32" s="52">
         <v>42654</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L32" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="M30" s="76"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1">
-      <c r="A31" s="7">
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K31" s="9">
-        <v>42654</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M31" s="76"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="29"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" customHeight="1">
-      <c r="A32" s="7">
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K32" s="9">
-        <v>42654</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M32" s="76"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="29" t="s">
-        <v>273</v>
+      <c r="M32" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="N32" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="O32" s="28" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
       <c r="A33" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>43</v>
@@ -4652,102 +4176,98 @@
       <c r="L33" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="76"/>
-      <c r="N33" s="82"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="84"/>
       <c r="O33" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A34" s="48">
-        <v>32</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="49" t="s">
+      <c r="J34" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="50">
+      <c r="K34" s="9">
         <v>42654</v>
       </c>
-      <c r="L34" s="49" t="s">
+      <c r="L34" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="30"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="29" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1">
-      <c r="A35" s="51">
-        <v>33</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="52" t="s">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="K35" s="53">
+      <c r="J35" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="9">
         <v>42654</v>
       </c>
-      <c r="L35" s="52" t="s">
+      <c r="L35" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M35" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="N35" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="O35" s="28" t="s">
-        <v>274</v>
-      </c>
+      <c r="M35" s="78"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>43</v>
@@ -4769,7 +4289,7 @@
         <v>24</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="K36" s="9">
         <v>42654</v>
@@ -4777,16 +4297,18 @@
       <c r="L36" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="29"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="29" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>43</v>
@@ -4808,7 +4330,7 @@
         <v>24</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="K37" s="9">
         <v>42654</v>
@@ -4816,301 +4338,305 @@
       <c r="L37" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="84"/>
       <c r="O37" s="29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="18" customHeight="1">
-      <c r="A38" s="7">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A38" s="47">
+        <v>32</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8" t="s">
+      <c r="H38" s="48"/>
+      <c r="I38" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="K38" s="49">
+        <v>42654</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="M38" s="79"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="30"/>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1">
+      <c r="A39" s="50">
+        <v>33</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K39" s="52">
         <v>42654</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L39" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="29"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A39" s="48">
-        <v>37</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="49" t="s">
+      <c r="M39" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="N39" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="18" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D40" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49" t="s">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="49" t="s">
+      <c r="J40" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="K39" s="50">
+      <c r="K40" s="9">
         <v>42654</v>
       </c>
-      <c r="L39" s="49" t="s">
+      <c r="L40" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="30"/>
-    </row>
-    <row r="40" spans="1:15" ht="18" customHeight="1">
-      <c r="A40" s="63">
-        <v>38</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="57" t="s">
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="29"/>
+    </row>
+    <row r="41" spans="1:15" ht="18" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="66" t="s">
-        <v>286</v>
-      </c>
-      <c r="K40" s="58">
-        <v>42652</v>
-      </c>
-      <c r="L40" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" s="88" t="s">
-        <v>300</v>
-      </c>
-      <c r="N40" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="O40" s="33" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="18" customHeight="1">
-      <c r="A41" s="64">
-        <v>39</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>286</v>
+        <v>20</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K41" s="37">
-        <v>42652</v>
-      </c>
-      <c r="L41" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M41" s="89"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="34"/>
+      <c r="J41" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K41" s="9">
+        <v>42654</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="29" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1">
-      <c r="A42" s="64">
-        <v>40</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="36" t="s">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="9">
+        <v>42654</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="29"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A43" s="47">
+        <v>37</v>
+      </c>
+      <c r="B43" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="K43" s="49">
+        <v>42654</v>
+      </c>
+      <c r="L43" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="1:15" ht="18" customHeight="1">
+      <c r="A44" s="62">
+        <v>38</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="36" t="s">
+      <c r="H44" s="51"/>
+      <c r="I44" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="67" t="s">
+      <c r="J44" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K44" s="57">
         <v>42652</v>
       </c>
-      <c r="L42" s="61" t="s">
+      <c r="L44" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="89"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="34" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="18" customHeight="1">
-      <c r="A43" s="64">
-        <v>41</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K43" s="37">
-        <v>42652</v>
-      </c>
-      <c r="L43" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43" s="89"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="34"/>
-    </row>
-    <row r="44" spans="1:15" ht="18" customHeight="1">
-      <c r="A44" s="64">
-        <v>42</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="K44" s="37">
-        <v>42652</v>
-      </c>
-      <c r="L44" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" s="89"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="34" t="s">
-        <v>304</v>
+      <c r="M44" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="N44" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="O44" s="33" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1">
-      <c r="A45" s="64">
-        <v>43</v>
+      <c r="A45" s="63">
+        <v>39</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>43</v>
@@ -5131,25 +4657,25 @@
       <c r="I45" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="67" t="s">
+      <c r="J45" s="66" t="s">
         <v>286</v>
       </c>
       <c r="K45" s="37">
         <v>42652</v>
       </c>
-      <c r="L45" s="61" t="s">
+      <c r="L45" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="89"/>
-      <c r="N45" s="76"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="78"/>
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
-      <c r="A46" s="64">
-        <v>44</v>
+      <c r="A46" s="63">
+        <v>40</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>43</v>
@@ -5170,27 +4696,27 @@
       <c r="I46" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="67" t="s">
+      <c r="J46" s="66" t="s">
         <v>286</v>
       </c>
       <c r="K46" s="37">
         <v>42652</v>
       </c>
-      <c r="L46" s="61" t="s">
+      <c r="L46" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="89"/>
-      <c r="N46" s="76"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="78"/>
       <c r="O46" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1">
-      <c r="A47" s="64">
-        <v>45</v>
+      <c r="A47" s="63">
+        <v>41</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C47" s="36" t="s">
         <v>43</v>
@@ -5211,25 +4737,25 @@
       <c r="I47" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="67" t="s">
+      <c r="J47" s="66" t="s">
         <v>286</v>
       </c>
       <c r="K47" s="37">
         <v>42652</v>
       </c>
-      <c r="L47" s="61" t="s">
+      <c r="L47" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="89"/>
-      <c r="N47" s="76"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="78"/>
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
-      <c r="A48" s="64">
-        <v>46</v>
+      <c r="A48" s="63">
+        <v>42</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C48" s="36" t="s">
         <v>43</v>
@@ -5250,421 +4776,465 @@
       <c r="I48" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="67" t="s">
+      <c r="J48" s="66" t="s">
         <v>286</v>
       </c>
       <c r="K48" s="37">
         <v>42652</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L48" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="89"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="34"/>
-    </row>
-    <row r="49" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A49" s="65">
-        <v>47</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="44" t="s">
+      <c r="M48" s="91"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="18" customHeight="1">
+      <c r="A49" s="63">
         <v>43</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="B49" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="44" t="s">
+      <c r="E49" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="H49" s="49"/>
-      <c r="I49" s="44" t="s">
+      <c r="H49" s="8"/>
+      <c r="I49" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="68" t="s">
+      <c r="J49" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="K49" s="45">
+      <c r="K49" s="37">
         <v>42652</v>
       </c>
-      <c r="L49" s="62" t="s">
+      <c r="L49" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="90"/>
-      <c r="N49" s="77"/>
-      <c r="O49" s="35"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
-      <c r="A50" s="51">
-        <v>48</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="52" t="s">
+      <c r="A50" s="63">
+        <v>44</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F50" s="52" t="s">
+      <c r="F50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52" t="s">
+      <c r="G50" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="K50" s="53">
-        <v>42654</v>
-      </c>
-      <c r="L50" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="M50" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="N50" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="O50" s="28" t="s">
-        <v>278</v>
+      <c r="J50" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="K50" s="37">
+        <v>42652</v>
+      </c>
+      <c r="L50" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M50" s="91"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="34" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1">
-      <c r="A51" s="7">
-        <v>49</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="A51" s="63">
+        <v>45</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="K51" s="9">
-        <v>42654</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="32"/>
+      <c r="J51" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="K51" s="37">
+        <v>42652</v>
+      </c>
+      <c r="L51" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M51" s="91"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
-      <c r="A52" s="7">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="A52" s="63">
+        <v>46</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="K52" s="37">
+        <v>42652</v>
+      </c>
+      <c r="L52" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="91"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="34"/>
+    </row>
+    <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A53" s="64">
+        <v>47</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="H53" s="48"/>
+      <c r="I53" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="K53" s="44">
+        <v>42652</v>
+      </c>
+      <c r="L53" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="92"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="35"/>
+    </row>
+    <row r="54" spans="1:15" ht="18" customHeight="1">
+      <c r="A54" s="50">
+        <v>48</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H54" s="51"/>
+      <c r="I54" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J54" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K54" s="52">
         <v>42654</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L54" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="29" t="s">
+      <c r="M54" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="N54" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="O54" s="28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="18" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K55" s="9">
+        <v>42654</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="32"/>
+    </row>
+    <row r="56" spans="1:15" ht="18" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K56" s="9">
+        <v>42654</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="29" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18" customHeight="1">
-      <c r="A53" s="7">
+    <row r="57" spans="1:15" ht="18" customHeight="1">
+      <c r="A57" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H57" s="8"/>
+      <c r="I57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J57" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K57" s="9">
         <v>42654</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L57" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="29"/>
-    </row>
-    <row r="54" spans="1:15" ht="18" customHeight="1">
-      <c r="A54" s="7">
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="29"/>
+    </row>
+    <row r="58" spans="1:15" ht="18" customHeight="1">
+      <c r="A58" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H58" s="8"/>
+      <c r="I58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J58" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K58" s="9">
         <v>42654</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L58" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="29"/>
-    </row>
-    <row r="55" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A55" s="48">
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="29"/>
+    </row>
+    <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A59" s="47">
         <v>53</v>
       </c>
-      <c r="B55" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C59" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D59" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E59" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F59" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G59" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49" t="s">
+      <c r="H59" s="48"/>
+      <c r="I59" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="49" t="s">
+      <c r="J59" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="K55" s="50">
+      <c r="K59" s="49">
         <v>42654</v>
       </c>
-      <c r="L55" s="49" t="s">
+      <c r="L59" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="30"/>
-    </row>
-    <row r="56" spans="1:15" ht="18" customHeight="1">
-      <c r="A56" s="54">
-        <v>54</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="38"/>
-    </row>
-    <row r="57" spans="1:15" ht="18" customHeight="1">
-      <c r="A57" s="25">
-        <v>55</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="38"/>
-    </row>
-    <row r="58" spans="1:15" ht="18" customHeight="1">
-      <c r="A58" s="25">
-        <v>56</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="38"/>
-    </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A59" s="43">
-        <v>57</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="38"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1">
       <c r="A60" s="31">
         <v>58</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C60" s="30" t="s">
@@ -5679,7 +5249,7 @@
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
-      <c r="K60" s="42"/>
+      <c r="K60" s="41"/>
       <c r="L60" s="30"/>
       <c r="M60" s="26"/>
     </row>
@@ -9540,21 +9110,23 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="22">
-    <mergeCell ref="M50:M55"/>
-    <mergeCell ref="N50:N55"/>
+  <mergeCells count="24">
+    <mergeCell ref="M54:M59"/>
+    <mergeCell ref="N54:N59"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="M7:M17"/>
-    <mergeCell ref="N7:N17"/>
+    <mergeCell ref="M11:M21"/>
+    <mergeCell ref="N11:N21"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M18:M27"/>
-    <mergeCell ref="N18:N27"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="N28:N34"/>
-    <mergeCell ref="M35:M39"/>
-    <mergeCell ref="N35:N39"/>
-    <mergeCell ref="M40:M49"/>
-    <mergeCell ref="N40:N49"/>
+    <mergeCell ref="M22:M31"/>
+    <mergeCell ref="N22:N31"/>
+    <mergeCell ref="M32:M38"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="M39:M43"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="M44:M53"/>
+    <mergeCell ref="N44:N53"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="N5:N10"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:H1"/>
@@ -9565,67 +9137,67 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F5:H6">
-    <cfRule type="expression" dxfId="34" priority="11">
-      <formula>$F5="完成"</formula>
+  <conditionalFormatting sqref="F6:H7">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$F6="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:H17">
-    <cfRule type="expression" dxfId="33" priority="10">
-      <formula>$F7="完成"</formula>
+  <conditionalFormatting sqref="F11:H21">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$F11="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:H27">
-    <cfRule type="expression" dxfId="32" priority="9">
-      <formula>$F18="完成"</formula>
+  <conditionalFormatting sqref="F22:H31">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$F22="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:H39">
-    <cfRule type="expression" dxfId="31" priority="8">
-      <formula>$F28="完成"</formula>
+  <conditionalFormatting sqref="F32:H43">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$F32="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:H49">
-    <cfRule type="expression" dxfId="30" priority="7">
-      <formula>$F40="完成"</formula>
+  <conditionalFormatting sqref="F44:H53">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$F44="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:H55">
-    <cfRule type="expression" dxfId="29" priority="6">
-      <formula>$F50="完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5">
-    <cfRule type="expression" dxfId="28" priority="5">
-      <formula>$I5="完成"</formula>
+  <conditionalFormatting sqref="F54:H59">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$F54="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:K6">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$I6="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:K17">
-    <cfRule type="expression" dxfId="25" priority="3">
+  <conditionalFormatting sqref="I7:K7">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$I7="完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:K27">
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$I18="完成"</formula>
+  <conditionalFormatting sqref="I11:K21">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$I11="完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:K31">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$I22="完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 I11:I1048576 E1:F10 E11:F1048576">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J10 J11:J1048576 G1:G10 G11:G1048576">
       <formula1>dev</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D1048576">
       <formula1>module</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C11:C1048576">
       <formula1>sprint</formula1>
     </dataValidation>
   </dataValidations>

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="312">
   <si>
     <t>平台接入管理</t>
   </si>
@@ -2253,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2459,6 +2459,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2477,65 +2537,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2892,8 +2907,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:H10"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2919,50 +2934,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
       <c r="L1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="79" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="91" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2982,9 +2997,9 @@
         <v>78</v>
       </c>
       <c r="L2" s="39"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="72"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="92"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -3052,21 +3067,25 @@
       <c r="E5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
+      <c r="J5" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="55">
+        <v>42652</v>
+      </c>
       <c r="L5" s="54"/>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="78" t="s">
         <v>307</v>
       </c>
       <c r="O5" s="28" t="s">
@@ -3089,13 +3108,13 @@
       <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="94" t="s">
+      <c r="G6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="72"/>
       <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
@@ -3104,8 +3123,8 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="78"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="69" t="s">
         <v>309</v>
       </c>
@@ -3126,13 +3145,13 @@
       <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="95" t="s">
+      <c r="G7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="95"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="28" t="s">
         <v>16</v>
       </c>
@@ -3143,8 +3162,8 @@
       <c r="L7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="78"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="69" t="s">
         <v>310</v>
       </c>
@@ -3165,19 +3184,23 @@
       <c r="E8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="H8" s="94"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="J8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="37">
+        <v>42652</v>
+      </c>
       <c r="L8" s="36"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="78"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3196,19 +3219,23 @@
       <c r="E9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="72"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="37">
+        <v>42652</v>
+      </c>
       <c r="L9" s="43"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="78"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="76"/>
       <c r="O9" s="69"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3227,19 +3254,23 @@
       <c r="E10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="H10" s="96"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="J10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="44">
+        <v>42652</v>
+      </c>
       <c r="L10" s="36"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="79"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="70" t="s">
         <v>311</v>
       </c>
@@ -3268,7 +3299,7 @@
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J11" s="45" t="s">
         <v>20</v>
@@ -3279,10 +3310,10 @@
       <c r="L11" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="N11" s="83" t="s">
+      <c r="N11" s="81" t="s">
         <v>296</v>
       </c>
       <c r="O11" s="28" t="s">
@@ -3313,7 +3344,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="58" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J12" s="58" t="s">
         <v>20</v>
@@ -3324,8 +3355,8 @@
       <c r="L12" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M12" s="78"/>
-      <c r="N12" s="84"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="82"/>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -3352,7 +3383,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="58" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>20</v>
@@ -3363,8 +3394,8 @@
       <c r="L13" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M13" s="78"/>
-      <c r="N13" s="84"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="82"/>
       <c r="O13" s="29" t="s">
         <v>262</v>
       </c>
@@ -3404,8 +3435,8 @@
       <c r="L14" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="84"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="82"/>
       <c r="O14" s="29" t="s">
         <v>263</v>
       </c>
@@ -3445,8 +3476,8 @@
       <c r="L15" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M15" s="78"/>
-      <c r="N15" s="84"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="82"/>
       <c r="O15" s="29" t="s">
         <v>264</v>
       </c>
@@ -3486,8 +3517,8 @@
       <c r="L16" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="84"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="29" t="s">
         <v>265</v>
       </c>
@@ -3527,8 +3558,8 @@
       <c r="L17" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M17" s="78"/>
-      <c r="N17" s="84"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="82"/>
       <c r="O17" s="29" t="s">
         <v>266</v>
       </c>
@@ -3568,8 +3599,8 @@
       <c r="L18" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M18" s="78"/>
-      <c r="N18" s="84"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="29" t="s">
         <v>267</v>
       </c>
@@ -3609,8 +3640,8 @@
       <c r="L19" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M19" s="78"/>
-      <c r="N19" s="84"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="82"/>
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
@@ -3648,8 +3679,8 @@
       <c r="L20" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M20" s="78"/>
-      <c r="N20" s="84"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="82"/>
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3687,8 +3718,8 @@
       <c r="L21" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M21" s="79"/>
-      <c r="N21" s="85"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="83"/>
       <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
@@ -3726,10 +3757,10 @@
       <c r="L22" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M22" s="87" t="s">
+      <c r="M22" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="N22" s="80" t="s">
+      <c r="N22" s="78" t="s">
         <v>295</v>
       </c>
       <c r="O22" s="33" t="s">
@@ -3771,8 +3802,8 @@
       <c r="L23" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M23" s="88"/>
-      <c r="N23" s="78"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="76"/>
       <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
@@ -3810,8 +3841,8 @@
       <c r="L24" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M24" s="88"/>
-      <c r="N24" s="78"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="34" t="s">
         <v>281</v>
       </c>
@@ -3851,8 +3882,8 @@
       <c r="L25" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M25" s="88"/>
-      <c r="N25" s="78"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="76"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
       <c r="A26" s="7">
@@ -3889,8 +3920,8 @@
       <c r="L26" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M26" s="88"/>
-      <c r="N26" s="78"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="34" t="s">
         <v>282</v>
       </c>
@@ -3930,8 +3961,8 @@
       <c r="L27" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M27" s="88"/>
-      <c r="N27" s="78"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="34" t="s">
         <v>283</v>
       </c>
@@ -3972,8 +4003,8 @@
       <c r="L28" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M28" s="88"/>
-      <c r="N28" s="78"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="76"/>
       <c r="O28" s="34" t="s">
         <v>284</v>
       </c>
@@ -4014,8 +4045,8 @@
       <c r="L29" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M29" s="88"/>
-      <c r="N29" s="78"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="76"/>
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
@@ -4053,8 +4084,8 @@
       <c r="L30" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M30" s="88"/>
-      <c r="N30" s="78"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -4092,8 +4123,8 @@
       <c r="L31" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M31" s="89"/>
-      <c r="N31" s="79"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
@@ -4131,10 +4162,10 @@
       <c r="L32" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="M32" s="77" t="s">
+      <c r="M32" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="N32" s="83" t="s">
+      <c r="N32" s="81" t="s">
         <v>294</v>
       </c>
       <c r="O32" s="28" t="s">
@@ -4176,8 +4207,8 @@
       <c r="L33" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="78"/>
-      <c r="N33" s="84"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="82"/>
       <c r="O33" s="29" t="s">
         <v>271</v>
       </c>
@@ -4217,8 +4248,8 @@
       <c r="L34" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M34" s="78"/>
-      <c r="N34" s="84"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="82"/>
       <c r="O34" s="29" t="s">
         <v>272</v>
       </c>
@@ -4258,8 +4289,8 @@
       <c r="L35" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M35" s="78"/>
-      <c r="N35" s="84"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="82"/>
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -4297,8 +4328,8 @@
       <c r="L36" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M36" s="78"/>
-      <c r="N36" s="84"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="82"/>
       <c r="O36" s="29" t="s">
         <v>273</v>
       </c>
@@ -4338,8 +4369,8 @@
       <c r="L37" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M37" s="78"/>
-      <c r="N37" s="84"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="82"/>
       <c r="O37" s="29" t="s">
         <v>269</v>
       </c>
@@ -4379,8 +4410,8 @@
       <c r="L38" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="85"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="83"/>
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
@@ -4406,22 +4437,22 @@
         <v>20</v>
       </c>
       <c r="H39" s="51"/>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="51" t="s">
+      <c r="J39" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="98">
         <v>42654</v>
       </c>
       <c r="L39" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="M39" s="77" t="s">
+      <c r="M39" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="N39" s="80" t="s">
+      <c r="N39" s="78" t="s">
         <v>293</v>
       </c>
       <c r="O39" s="28" t="s">
@@ -4451,20 +4482,20 @@
         <v>20</v>
       </c>
       <c r="H40" s="8"/>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="99">
         <v>42654</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
@@ -4490,20 +4521,20 @@
         <v>20</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="99">
         <v>42654</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
       <c r="O41" s="29" t="s">
         <v>275</v>
       </c>
@@ -4531,20 +4562,20 @@
         <v>20</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="99">
         <v>42654</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4570,20 +4601,20 @@
         <v>20</v>
       </c>
       <c r="H43" s="48"/>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="48" t="s">
+      <c r="J43" s="100" t="s">
         <v>297</v>
       </c>
-      <c r="K43" s="49">
+      <c r="K43" s="101">
         <v>42654</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
@@ -4621,10 +4652,10 @@
       <c r="L44" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="90" t="s">
+      <c r="M44" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="N44" s="80" t="s">
+      <c r="N44" s="78" t="s">
         <v>301</v>
       </c>
       <c r="O44" s="33" t="s">
@@ -4666,8 +4697,8 @@
       <c r="L45" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="91"/>
-      <c r="N45" s="78"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="76"/>
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
@@ -4705,8 +4736,8 @@
       <c r="L46" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="91"/>
-      <c r="N46" s="78"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="76"/>
       <c r="O46" s="34" t="s">
         <v>303</v>
       </c>
@@ -4746,8 +4777,8 @@
       <c r="L47" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="91"/>
-      <c r="N47" s="78"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="76"/>
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
@@ -4785,8 +4816,8 @@
       <c r="L48" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="91"/>
-      <c r="N48" s="78"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="76"/>
       <c r="O48" s="34" t="s">
         <v>304</v>
       </c>
@@ -4826,8 +4857,8 @@
       <c r="L49" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="91"/>
-      <c r="N49" s="78"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="76"/>
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
@@ -4865,8 +4896,8 @@
       <c r="L50" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="91"/>
-      <c r="N50" s="78"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="76"/>
       <c r="O50" s="34" t="s">
         <v>305</v>
       </c>
@@ -4906,8 +4937,8 @@
       <c r="L51" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="91"/>
-      <c r="N51" s="78"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="76"/>
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
@@ -4945,8 +4976,8 @@
       <c r="L52" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M52" s="91"/>
-      <c r="N52" s="78"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="76"/>
       <c r="O52" s="34"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4984,8 +5015,8 @@
       <c r="L53" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M53" s="92"/>
-      <c r="N53" s="79"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="77"/>
       <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
@@ -5023,10 +5054,10 @@
       <c r="L54" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="M54" s="77" t="s">
+      <c r="M54" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="N54" s="80" t="s">
+      <c r="N54" s="78" t="s">
         <v>276</v>
       </c>
       <c r="O54" s="28" t="s">
@@ -5068,8 +5099,8 @@
       <c r="L55" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="76"/>
       <c r="O55" s="32"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
@@ -5107,8 +5138,8 @@
       <c r="L56" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="76"/>
       <c r="O56" s="29" t="s">
         <v>279</v>
       </c>
@@ -5148,8 +5179,8 @@
       <c r="L57" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
       <c r="O57" s="29"/>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1">
@@ -5187,8 +5218,8 @@
       <c r="L58" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
       <c r="O58" s="29"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5226,8 +5257,8 @@
       <c r="L59" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
       <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1">
@@ -9111,6 +9142,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M54:M59"/>
     <mergeCell ref="N54:N59"/>
     <mergeCell ref="M1:M2"/>
@@ -9127,14 +9166,6 @@
     <mergeCell ref="N44:N53"/>
     <mergeCell ref="M5:M10"/>
     <mergeCell ref="N5:N10"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F6:H7">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -1659,13 +1659,6 @@
     <t>ent-mng/ent-res-quota-mng/ent-res-quota-cre</t>
   </si>
   <si>
-    <t>/backend/ent-mng/ent-admin-mng</t>
-  </si>
-  <si>
-    <t>/backend/ent-mng/ent-admin-mng/ent-admin-mng.nodule.ts
-/backend/ent-mng/ent-admin-mng/ent-admin-mng.routing.ts</t>
-  </si>
-  <si>
     <t>ent-mng/ent-admin-mng/ent-admin-mng</t>
   </si>
   <si>
@@ -1697,33 +1690,12 @@
   </si>
   <si>
     <t>zhoujian</t>
-  </si>
-  <si>
-    <t>/backend/src/ent-mng/ent-est-mng/ent-est-mng.module.ts
-/backend/src/ent-mng/ent-est-mng/ent-est-mng.routing.ts</t>
-  </si>
-  <si>
-    <t>/backend/src/pf-mng/svc-dir-mng/svc-dir-mng.module.ts
-/backend/src/pf-mng/svc-dir-mng/svc-dir-mng.routing.ts</t>
   </si>
   <si>
     <t>/backend/src/pf-mng/pf-conn-mng/pf-conn-mng.module.ts
 /backend/src/pf-mng/pf-conn-mng/pf-conn-mng.routing.ts</t>
   </si>
   <si>
-    <t>/backend/src/ent-mng/ent-res-quota-mng/ent-res-quota-mng.module.ts
-/backend/src/ent-mng/ent-res-quota-mng/ent-res-quota-mng.routing.ts</t>
-  </si>
-  <si>
-    <t>/backend/src/ent-mng/ent-res-quota-mng</t>
-  </si>
-  <si>
-    <t>/backend/src/ent-mng/ent-est-mng</t>
-  </si>
-  <si>
-    <t>/backend/src/pf-mng/svc-dir-mng</t>
-  </si>
-  <si>
     <t>/backend/src/pf-mng/pf-conn-mng/</t>
   </si>
   <si>
@@ -1734,13 +1706,6 @@
   </si>
   <si>
     <t>pf-mng/pf-conn-mng/pf-conn-mng</t>
-  </si>
-  <si>
-    <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-mng.module.ts
-/backend/src/ent-mng/ent-prod-mng/ent-prod-mng.routing.ts</t>
-  </si>
-  <si>
-    <t>/backend/src/ent-mng/ent-prod-mng</t>
   </si>
   <si>
     <t>/backend/src/ent-mng/ent-prod-mng/ent-prod-mng</t>
@@ -1772,6 +1737,41 @@
   </si>
   <si>
     <t>prod-and-svc/cloud-host/cloud-host-ins-detail</t>
+  </si>
+  <si>
+    <t>/backend/src/module/pf-mng/svc-dir-mng/svc-dir-mng.module.ts
+/backend/src/module/pf-mng/svc-dir-mng/svc-dir-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/module/pf-mng/svc-dir-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-est-mng/ent-est-mng.module.ts
+/backend/src/module/ent-mng/ent-est-mng/ent-est-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-est-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-res-quota-mng/ent-res-quota-mng.module.ts
+/backend/src/module/ent-mng/ent-res-quota-mng/ent-res-quota-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-res-quota-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-prod-mng/ent-prod-mng.module.ts
+/backend/src/module/ent-mng/ent-prod-mng/ent-prod-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-prod-mng</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-admin-mng/ent-admin-mng.nodule.ts
+/backend/src/module/ent-mng/ent-admin-mng/ent-admin-mng.routing.ts</t>
+  </si>
+  <si>
+    <t>/backend/src/module/ent-mng/ent-admin-mng</t>
   </si>
 </sst>
 </file>
@@ -2471,6 +2471,39 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2517,39 +2550,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2907,8 +2907,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39:K43"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2934,50 +2934,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
       <c r="L1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="80" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2997,9 +2997,9 @@
         <v>78</v>
       </c>
       <c r="L2" s="39"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="92"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="81"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H5" s="71"/>
       <c r="I5" s="54"/>
@@ -3082,14 +3082,14 @@
         <v>42652</v>
       </c>
       <c r="L5" s="54"/>
-      <c r="M5" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="N5" s="78" t="s">
-        <v>307</v>
+      <c r="M5" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="N5" s="89" t="s">
+        <v>297</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1">
@@ -3123,10 +3123,10 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="76"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="87"/>
       <c r="O6" s="69" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3162,10 +3162,10 @@
       <c r="L7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="N7" s="76"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="69" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1">
@@ -3188,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H8" s="72"/>
       <c r="I8" s="36"/>
@@ -3199,8 +3199,8 @@
         <v>42652</v>
       </c>
       <c r="L8" s="36"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="76"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="87"/>
       <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3223,7 +3223,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="36"/>
@@ -3234,8 +3234,8 @@
         <v>42652</v>
       </c>
       <c r="L9" s="43"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="76"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="87"/>
       <c r="O9" s="69"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3258,7 +3258,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H10" s="74"/>
       <c r="I10" s="43"/>
@@ -3269,10 +3269,10 @@
         <v>42652</v>
       </c>
       <c r="L10" s="36"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="77"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="88"/>
       <c r="O10" s="70" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
@@ -3308,16 +3308,16 @@
         <v>42643</v>
       </c>
       <c r="L11" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="M11" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="M11" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="N11" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>291</v>
-      </c>
-      <c r="N11" s="81" t="s">
-        <v>296</v>
-      </c>
-      <c r="O11" s="28" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
@@ -3353,10 +3353,10 @@
         <v>42643</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M12" s="87"/>
+      <c r="N12" s="93"/>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -3392,10 +3392,10 @@
         <v>42643</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M13" s="87"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="29" t="s">
         <v>262</v>
       </c>
@@ -3433,10 +3433,10 @@
         <v>42643</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M14" s="76"/>
-      <c r="N14" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M14" s="87"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="29" t="s">
         <v>263</v>
       </c>
@@ -3474,10 +3474,10 @@
         <v>42643</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M15" s="76"/>
-      <c r="N15" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M15" s="87"/>
+      <c r="N15" s="93"/>
       <c r="O15" s="29" t="s">
         <v>264</v>
       </c>
@@ -3515,10 +3515,10 @@
         <v>42643</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M16" s="76"/>
-      <c r="N16" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M16" s="87"/>
+      <c r="N16" s="93"/>
       <c r="O16" s="29" t="s">
         <v>265</v>
       </c>
@@ -3556,10 +3556,10 @@
         <v>42643</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M17" s="76"/>
-      <c r="N17" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M17" s="87"/>
+      <c r="N17" s="93"/>
       <c r="O17" s="29" t="s">
         <v>266</v>
       </c>
@@ -3597,10 +3597,10 @@
         <v>42643</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M18" s="76"/>
-      <c r="N18" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M18" s="87"/>
+      <c r="N18" s="93"/>
       <c r="O18" s="29" t="s">
         <v>267</v>
       </c>
@@ -3638,10 +3638,10 @@
         <v>42643</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M19" s="76"/>
-      <c r="N19" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M19" s="87"/>
+      <c r="N19" s="93"/>
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
@@ -3677,10 +3677,10 @@
         <v>42643</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M20" s="76"/>
-      <c r="N20" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="M20" s="87"/>
+      <c r="N20" s="93"/>
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3716,10 +3716,10 @@
         <v>42643</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="83"/>
+        <v>283</v>
+      </c>
+      <c r="M21" s="88"/>
+      <c r="N21" s="94"/>
       <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
@@ -3755,16 +3755,16 @@
         <v>42643</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="M22" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="N22" s="78" t="s">
-        <v>295</v>
+        <v>283</v>
+      </c>
+      <c r="M22" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="N22" s="89" t="s">
+        <v>303</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1">
@@ -3800,10 +3800,10 @@
         <v>42643</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M23" s="97"/>
+      <c r="N23" s="87"/>
       <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
@@ -3839,12 +3839,12 @@
         <v>42643</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M24" s="86"/>
-      <c r="N24" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M24" s="97"/>
+      <c r="N24" s="87"/>
       <c r="O24" s="34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1">
@@ -3880,10 +3880,10 @@
         <v>42643</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M25" s="86"/>
-      <c r="N25" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M25" s="97"/>
+      <c r="N25" s="87"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
       <c r="A26" s="7">
@@ -3918,12 +3918,12 @@
         <v>42643</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M26" s="86"/>
-      <c r="N26" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M26" s="97"/>
+      <c r="N26" s="87"/>
       <c r="O26" s="34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="18" customHeight="1">
@@ -3959,12 +3959,12 @@
         <v>42643</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M27" s="86"/>
-      <c r="N27" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M27" s="97"/>
+      <c r="N27" s="87"/>
       <c r="O27" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P27" s="16"/>
     </row>
@@ -4001,12 +4001,12 @@
         <v>42643</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M28" s="86"/>
-      <c r="N28" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M28" s="97"/>
+      <c r="N28" s="87"/>
       <c r="O28" s="34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P28" s="16"/>
     </row>
@@ -4043,10 +4043,10 @@
         <v>42643</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M29" s="86"/>
-      <c r="N29" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M29" s="97"/>
+      <c r="N29" s="87"/>
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
@@ -4082,10 +4082,10 @@
         <v>42643</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="M30" s="86"/>
-      <c r="N30" s="76"/>
+        <v>283</v>
+      </c>
+      <c r="M30" s="97"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -4121,10 +4121,10 @@
         <v>42643</v>
       </c>
       <c r="L31" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="M31" s="87"/>
-      <c r="N31" s="77"/>
+        <v>283</v>
+      </c>
+      <c r="M31" s="98"/>
+      <c r="N31" s="88"/>
       <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
@@ -4160,13 +4160,13 @@
         <v>42654</v>
       </c>
       <c r="L32" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="M32" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="N32" s="81" t="s">
-        <v>294</v>
+        <v>285</v>
+      </c>
+      <c r="M32" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="N32" s="92" t="s">
+        <v>305</v>
       </c>
       <c r="O32" s="28" t="s">
         <v>270</v>
@@ -4205,10 +4205,10 @@
         <v>42654</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M33" s="76"/>
-      <c r="N33" s="82"/>
+        <v>285</v>
+      </c>
+      <c r="M33" s="87"/>
+      <c r="N33" s="93"/>
       <c r="O33" s="29" t="s">
         <v>271</v>
       </c>
@@ -4246,10 +4246,10 @@
         <v>42654</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M34" s="76"/>
-      <c r="N34" s="82"/>
+        <v>285</v>
+      </c>
+      <c r="M34" s="87"/>
+      <c r="N34" s="93"/>
       <c r="O34" s="29" t="s">
         <v>272</v>
       </c>
@@ -4287,10 +4287,10 @@
         <v>42654</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M35" s="76"/>
-      <c r="N35" s="82"/>
+        <v>285</v>
+      </c>
+      <c r="M35" s="87"/>
+      <c r="N35" s="93"/>
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -4326,10 +4326,10 @@
         <v>42654</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M36" s="76"/>
-      <c r="N36" s="82"/>
+        <v>285</v>
+      </c>
+      <c r="M36" s="87"/>
+      <c r="N36" s="93"/>
       <c r="O36" s="29" t="s">
         <v>273</v>
       </c>
@@ -4367,10 +4367,10 @@
         <v>42654</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M37" s="76"/>
-      <c r="N37" s="82"/>
+        <v>285</v>
+      </c>
+      <c r="M37" s="87"/>
+      <c r="N37" s="93"/>
       <c r="O37" s="29" t="s">
         <v>269</v>
       </c>
@@ -4408,10 +4408,10 @@
         <v>42654</v>
       </c>
       <c r="L38" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="M38" s="77"/>
-      <c r="N38" s="83"/>
+        <v>285</v>
+      </c>
+      <c r="M38" s="88"/>
+      <c r="N38" s="94"/>
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
@@ -4437,23 +4437,23 @@
         <v>20</v>
       </c>
       <c r="H39" s="51"/>
-      <c r="I39" s="97" t="s">
+      <c r="I39" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="K39" s="98">
+      <c r="J39" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" s="76">
         <v>42654</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="M39" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="N39" s="78" t="s">
-        <v>293</v>
+        <v>285</v>
+      </c>
+      <c r="M39" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="N39" s="89" t="s">
+        <v>307</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>274</v>
@@ -4486,16 +4486,16 @@
         <v>24</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="K40" s="99">
+        <v>289</v>
+      </c>
+      <c r="K40" s="77">
         <v>42654</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>24</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="K41" s="99">
+        <v>289</v>
+      </c>
+      <c r="K41" s="77">
         <v>42654</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
       <c r="O41" s="29" t="s">
         <v>275</v>
       </c>
@@ -4566,16 +4566,16 @@
         <v>24</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="K42" s="99">
+        <v>289</v>
+      </c>
+      <c r="K42" s="77">
         <v>42654</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4601,20 +4601,20 @@
         <v>20</v>
       </c>
       <c r="H43" s="48"/>
-      <c r="I43" s="100" t="s">
+      <c r="I43" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="100" t="s">
-        <v>297</v>
-      </c>
-      <c r="K43" s="101">
+      <c r="J43" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" s="79">
         <v>42654</v>
       </c>
       <c r="L43" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
+        <v>285</v>
+      </c>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
@@ -4637,14 +4637,14 @@
         <v>16</v>
       </c>
       <c r="G44" s="51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H44" s="51"/>
       <c r="I44" s="56" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K44" s="57">
         <v>42652</v>
@@ -4652,14 +4652,14 @@
       <c r="L44" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="88" t="s">
-        <v>300</v>
-      </c>
-      <c r="N44" s="78" t="s">
-        <v>301</v>
+      <c r="M44" s="99" t="s">
+        <v>308</v>
+      </c>
+      <c r="N44" s="89" t="s">
+        <v>309</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1">
@@ -4682,14 +4682,14 @@
         <v>16</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K45" s="37">
         <v>42652</v>
@@ -4697,8 +4697,8 @@
       <c r="L45" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="89"/>
-      <c r="N45" s="76"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="87"/>
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
@@ -4721,14 +4721,14 @@
         <v>16</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K46" s="37">
         <v>42652</v>
@@ -4736,10 +4736,10 @@
       <c r="L46" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="89"/>
-      <c r="N46" s="76"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="87"/>
       <c r="O46" s="34" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1">
@@ -4762,14 +4762,14 @@
         <v>16</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K47" s="37">
         <v>42652</v>
@@ -4777,8 +4777,8 @@
       <c r="L47" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="89"/>
-      <c r="N47" s="76"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="87"/>
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
@@ -4801,14 +4801,14 @@
         <v>16</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K48" s="37">
         <v>42652</v>
@@ -4816,10 +4816,10 @@
       <c r="L48" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="89"/>
-      <c r="N48" s="76"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="87"/>
       <c r="O48" s="34" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1">
@@ -4842,14 +4842,14 @@
         <v>16</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K49" s="37">
         <v>42652</v>
@@ -4857,8 +4857,8 @@
       <c r="L49" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="89"/>
-      <c r="N49" s="76"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="87"/>
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
@@ -4881,14 +4881,14 @@
         <v>16</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K50" s="37">
         <v>42652</v>
@@ -4896,10 +4896,10 @@
       <c r="L50" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="89"/>
-      <c r="N50" s="76"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="87"/>
       <c r="O50" s="34" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1">
@@ -4922,14 +4922,14 @@
         <v>16</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J51" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K51" s="37">
         <v>42652</v>
@@ -4937,8 +4937,8 @@
       <c r="L51" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="89"/>
-      <c r="N51" s="76"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="87"/>
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
@@ -4961,14 +4961,14 @@
         <v>16</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K52" s="37">
         <v>42652</v>
@@ -4976,8 +4976,8 @@
       <c r="L52" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M52" s="89"/>
-      <c r="N52" s="76"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="87"/>
       <c r="O52" s="34"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5000,14 +5000,14 @@
         <v>16</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H53" s="48"/>
       <c r="I53" s="43" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K53" s="44">
         <v>42652</v>
@@ -5015,8 +5015,8 @@
       <c r="L53" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="M53" s="90"/>
-      <c r="N53" s="77"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="88"/>
       <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
@@ -5046,22 +5046,22 @@
         <v>24</v>
       </c>
       <c r="J54" s="51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K54" s="52">
         <v>42654</v>
       </c>
       <c r="L54" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="M54" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="N54" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="M54" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="N54" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="O54" s="28" t="s">
         <v>276</v>
-      </c>
-      <c r="O54" s="28" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1">
@@ -5091,16 +5091,16 @@
         <v>24</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K55" s="9">
         <v>42654</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
       <c r="O55" s="32"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
@@ -5130,18 +5130,18 @@
         <v>24</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K56" s="9">
         <v>42654</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
       <c r="O56" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>24</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K57" s="9">
         <v>42654</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
       <c r="O57" s="29"/>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1">
@@ -5210,16 +5210,16 @@
         <v>24</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K58" s="9">
         <v>42654</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M58" s="76"/>
-      <c r="N58" s="76"/>
+        <v>285</v>
+      </c>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
       <c r="O58" s="29"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5249,16 +5249,16 @@
         <v>24</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K59" s="49">
         <v>42654</v>
       </c>
       <c r="L59" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="M59" s="77"/>
-      <c r="N59" s="77"/>
+        <v>285</v>
+      </c>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
       <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1">
@@ -9142,14 +9142,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M54:M59"/>
     <mergeCell ref="N54:N59"/>
     <mergeCell ref="M1:M2"/>
@@ -9166,6 +9158,14 @@
     <mergeCell ref="N44:N53"/>
     <mergeCell ref="M5:M10"/>
     <mergeCell ref="N5:N10"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F6:H7">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -21,7 +21,7 @@
     <definedName name="sprint">RawData!$C$2:$C$10</definedName>
     <definedName name="status">RawData!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2402,9 +2402,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2417,9 +2414,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2441,9 +2435,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2471,12 +2462,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2485,6 +2470,21 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2908,7 +2908,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N60" sqref="N60"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -3052,36 +3052,36 @@
       <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="53">
+      <c r="A5" s="52">
         <v>54</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="54">
         <v>42652</v>
       </c>
-      <c r="L5" s="54"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="99" t="s">
         <v>296</v>
       </c>
@@ -3108,13 +3108,13 @@
       <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
@@ -3125,12 +3125,12 @@
       <c r="L6" s="8"/>
       <c r="M6" s="100"/>
       <c r="N6" s="87"/>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="66" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="68">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -3145,13 +3145,13 @@
       <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="28" t="s">
         <v>16</v>
       </c>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="M7" s="100"/>
       <c r="N7" s="87"/>
-      <c r="O7" s="69" t="s">
+      <c r="O7" s="66" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3184,13 +3184,13 @@
       <c r="E8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36" t="s">
         <v>22</v>
@@ -3201,7 +3201,7 @@
       <c r="L8" s="36"/>
       <c r="M8" s="100"/>
       <c r="N8" s="87"/>
-      <c r="O8" s="69"/>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A9" s="25">
@@ -3219,13 +3219,13 @@
       <c r="E9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36" t="s">
         <v>22</v>
@@ -3236,7 +3236,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="100"/>
       <c r="N9" s="87"/>
-      <c r="O9" s="69"/>
+      <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="42">
@@ -3254,13 +3254,13 @@
       <c r="E10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="74" t="s">
+      <c r="F10" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="43"/>
       <c r="J10" s="43" t="s">
         <v>22</v>
@@ -3271,7 +3271,7 @@
       <c r="L10" s="36"/>
       <c r="M10" s="101"/>
       <c r="N10" s="88"/>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="67" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3343,10 +3343,10 @@
         <v>258</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="41">
@@ -3382,10 +3382,10 @@
         <v>258</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="41">
@@ -3423,10 +3423,10 @@
         <v>258</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="58" t="s">
+      <c r="I14" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="41">
@@ -3464,10 +3464,10 @@
         <v>258</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="58" t="s">
+      <c r="I15" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="41">
@@ -3505,10 +3505,10 @@
         <v>258</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="58" t="s">
+      <c r="I16" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="41">
@@ -3546,10 +3546,10 @@
         <v>258</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="58" t="s">
+      <c r="I17" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="41">
@@ -3587,10 +3587,10 @@
         <v>258</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="58" t="s">
+      <c r="I18" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="41">
@@ -3628,10 +3628,10 @@
         <v>258</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J19" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="41">
@@ -3667,10 +3667,10 @@
         <v>258</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="56" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="41">
@@ -3745,10 +3745,10 @@
         <v>259</v>
       </c>
       <c r="H22" s="51"/>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="41">
@@ -3790,10 +3790,10 @@
         <v>259</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="41">
@@ -3829,10 +3829,10 @@
         <v>259</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="41">
@@ -3870,10 +3870,10 @@
         <v>259</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="58" t="s">
+      <c r="I25" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="58" t="s">
+      <c r="J25" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K25" s="41">
@@ -3908,10 +3908,10 @@
         <v>259</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K26" s="41">
@@ -3949,10 +3949,10 @@
         <v>259</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="41">
@@ -3991,10 +3991,10 @@
         <v>259</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="41">
@@ -4033,10 +4033,10 @@
         <v>259</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="58" t="s">
+      <c r="J29" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="41">
@@ -4072,10 +4072,10 @@
         <v>259</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K30" s="41">
@@ -4111,10 +4111,10 @@
         <v>259</v>
       </c>
       <c r="H31" s="48"/>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="56" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="41">
@@ -4150,13 +4150,13 @@
         <v>20</v>
       </c>
       <c r="H32" s="51"/>
-      <c r="I32" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="51" t="s">
+      <c r="I32" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="77">
         <v>42654</v>
       </c>
       <c r="L32" s="51" t="s">
@@ -4195,13 +4195,13 @@
         <v>20</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="8" t="s">
+      <c r="I33" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="78">
         <v>42654</v>
       </c>
       <c r="L33" s="8" t="s">
@@ -4236,13 +4236,13 @@
         <v>20</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="8" t="s">
+      <c r="I34" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="78">
         <v>42654</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -4277,13 +4277,13 @@
         <v>20</v>
       </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="I35" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="78">
         <v>42654</v>
       </c>
       <c r="L35" s="8" t="s">
@@ -4316,13 +4316,13 @@
         <v>20</v>
       </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="8" t="s">
+      <c r="I36" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="78">
         <v>42654</v>
       </c>
       <c r="L36" s="8" t="s">
@@ -4357,13 +4357,13 @@
         <v>20</v>
       </c>
       <c r="H37" s="8"/>
-      <c r="I37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="8" t="s">
+      <c r="I37" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="78">
         <v>42654</v>
       </c>
       <c r="L37" s="8" t="s">
@@ -4437,13 +4437,13 @@
         <v>20</v>
       </c>
       <c r="H39" s="51"/>
-      <c r="I39" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="75" t="s">
+      <c r="I39" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="K39" s="76">
+      <c r="K39" s="77">
         <v>42654</v>
       </c>
       <c r="L39" s="51" t="s">
@@ -4482,13 +4482,13 @@
         <v>20</v>
       </c>
       <c r="H40" s="8"/>
-      <c r="I40" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="19" t="s">
+      <c r="I40" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="K40" s="77">
+      <c r="K40" s="78">
         <v>42654</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -4527,7 +4527,7 @@
       <c r="J41" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="77">
+      <c r="K41" s="72">
         <v>42654</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -4568,7 +4568,7 @@
       <c r="J42" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="K42" s="77">
+      <c r="K42" s="72">
         <v>42654</v>
       </c>
       <c r="L42" s="8" t="s">
@@ -4601,13 +4601,13 @@
         <v>20</v>
       </c>
       <c r="H43" s="48"/>
-      <c r="I43" s="78" t="s">
+      <c r="I43" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="J43" s="78" t="s">
+      <c r="J43" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="79">
+      <c r="K43" s="74">
         <v>42654</v>
       </c>
       <c r="L43" s="48" t="s">
@@ -4618,19 +4618,19 @@
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
-      <c r="A44" s="62">
+      <c r="A44" s="60">
         <v>38</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="51" t="s">
@@ -4640,16 +4640,16 @@
         <v>284</v>
       </c>
       <c r="H44" s="51"/>
-      <c r="I44" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="65" t="s">
+      <c r="I44" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="57">
+      <c r="K44" s="77">
         <v>42652</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="57" t="s">
         <v>56</v>
       </c>
       <c r="M44" s="99" t="s">
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1">
-      <c r="A45" s="63">
+      <c r="A45" s="61">
         <v>39</v>
       </c>
       <c r="B45" s="36" t="s">
@@ -4688,13 +4688,13 @@
       <c r="I45" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="66" t="s">
+      <c r="J45" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K45" s="37">
         <v>42652</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M45" s="100"/>
@@ -4702,7 +4702,7 @@
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
-      <c r="A46" s="63">
+      <c r="A46" s="61">
         <v>40</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -4727,13 +4727,13 @@
       <c r="I46" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="66" t="s">
+      <c r="J46" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K46" s="37">
         <v>42652</v>
       </c>
-      <c r="L46" s="60" t="s">
+      <c r="L46" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M46" s="100"/>
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1">
-      <c r="A47" s="63">
+      <c r="A47" s="61">
         <v>41</v>
       </c>
       <c r="B47" s="36" t="s">
@@ -4768,13 +4768,13 @@
       <c r="I47" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="66" t="s">
+      <c r="J47" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K47" s="37">
         <v>42652</v>
       </c>
-      <c r="L47" s="60" t="s">
+      <c r="L47" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M47" s="100"/>
@@ -4782,7 +4782,7 @@
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
-      <c r="A48" s="63">
+      <c r="A48" s="61">
         <v>42</v>
       </c>
       <c r="B48" s="36" t="s">
@@ -4807,13 +4807,13 @@
       <c r="I48" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="66" t="s">
+      <c r="J48" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K48" s="37">
         <v>42652</v>
       </c>
-      <c r="L48" s="60" t="s">
+      <c r="L48" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M48" s="100"/>
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1">
-      <c r="A49" s="63">
+      <c r="A49" s="61">
         <v>43</v>
       </c>
       <c r="B49" s="36" t="s">
@@ -4848,13 +4848,13 @@
       <c r="I49" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="66" t="s">
+      <c r="J49" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K49" s="37">
         <v>42652</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M49" s="100"/>
@@ -4862,7 +4862,7 @@
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
-      <c r="A50" s="63">
+      <c r="A50" s="61">
         <v>44</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -4887,13 +4887,13 @@
       <c r="I50" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J50" s="66" t="s">
+      <c r="J50" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K50" s="37">
         <v>42652</v>
       </c>
-      <c r="L50" s="60" t="s">
+      <c r="L50" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M50" s="100"/>
@@ -4903,7 +4903,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1">
-      <c r="A51" s="63">
+      <c r="A51" s="61">
         <v>45</v>
       </c>
       <c r="B51" s="36" t="s">
@@ -4928,13 +4928,13 @@
       <c r="I51" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="66" t="s">
+      <c r="J51" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K51" s="37">
         <v>42652</v>
       </c>
-      <c r="L51" s="60" t="s">
+      <c r="L51" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M51" s="100"/>
@@ -4942,7 +4942,7 @@
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
-      <c r="A52" s="63">
+      <c r="A52" s="61">
         <v>46</v>
       </c>
       <c r="B52" s="36" t="s">
@@ -4967,13 +4967,13 @@
       <c r="I52" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="66" t="s">
+      <c r="J52" s="63" t="s">
         <v>284</v>
       </c>
       <c r="K52" s="37">
         <v>42652</v>
       </c>
-      <c r="L52" s="60" t="s">
+      <c r="L52" s="58" t="s">
         <v>56</v>
       </c>
       <c r="M52" s="100"/>
@@ -4981,7 +4981,7 @@
       <c r="O52" s="34"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A53" s="64">
+      <c r="A53" s="62">
         <v>47</v>
       </c>
       <c r="B53" s="43" t="s">
@@ -5006,13 +5006,13 @@
       <c r="I53" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="67" t="s">
+      <c r="J53" s="64" t="s">
         <v>284</v>
       </c>
       <c r="K53" s="44">
         <v>42652</v>
       </c>
-      <c r="L53" s="61" t="s">
+      <c r="L53" s="59" t="s">
         <v>56</v>
       </c>
       <c r="M53" s="101"/>
@@ -5042,13 +5042,13 @@
         <v>20</v>
       </c>
       <c r="H54" s="51"/>
-      <c r="I54" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="51" t="s">
+      <c r="I54" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="K54" s="52">
+      <c r="K54" s="77">
         <v>42654</v>
       </c>
       <c r="L54" s="51" t="s">
@@ -5087,13 +5087,13 @@
         <v>20</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="8" t="s">
+      <c r="I55" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="78">
         <v>42654</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -5126,13 +5126,13 @@
         <v>20</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="8" t="s">
+      <c r="I56" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="78">
         <v>42654</v>
       </c>
       <c r="L56" s="8" t="s">
@@ -5167,13 +5167,13 @@
         <v>20</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" s="8" t="s">
+      <c r="I57" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="78">
         <v>42654</v>
       </c>
       <c r="L57" s="8" t="s">
@@ -9219,16 +9219,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I10 I11:I1048576 E1:F10 E11:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:F1048576 I1:I1048576">
       <formula1>status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J10 J11:J1048576 G1:G10 G11:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 G1:G1048576">
       <formula1>dev</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D11:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>module</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C11:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>sprint</formula1>
     </dataValidation>
   </dataValidations>

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -2253,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2486,6 +2486,54 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2504,53 +2552,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2907,8 +2910,8 @@
   <dimension ref="A1:P245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M44" sqref="M44:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2934,50 +2937,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84" t="s">
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="95" t="s">
+      <c r="N1" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="O1" s="96" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2997,9 +3000,9 @@
         <v>78</v>
       </c>
       <c r="L2" s="39"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="81"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="97"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -3082,10 +3085,10 @@
         <v>42652</v>
       </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="N5" s="83" t="s">
         <v>297</v>
       </c>
       <c r="O5" s="28" t="s">
@@ -3123,8 +3126,8 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="87"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="81"/>
       <c r="O6" s="66" t="s">
         <v>299</v>
       </c>
@@ -3162,8 +3165,8 @@
       <c r="L7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="87"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="81"/>
       <c r="O7" s="66" t="s">
         <v>300</v>
       </c>
@@ -3199,8 +3202,8 @@
         <v>42652</v>
       </c>
       <c r="L8" s="36"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="87"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="81"/>
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3234,8 +3237,8 @@
         <v>42652</v>
       </c>
       <c r="L9" s="43"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="87"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3269,8 +3272,8 @@
         <v>42652</v>
       </c>
       <c r="L10" s="36"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="88"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="67" t="s">
         <v>301</v>
       </c>
@@ -3310,10 +3313,10 @@
       <c r="L11" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="N11" s="92" t="s">
+      <c r="N11" s="86" t="s">
         <v>288</v>
       </c>
       <c r="O11" s="28" t="s">
@@ -3355,8 +3358,8 @@
       <c r="L12" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M12" s="87"/>
-      <c r="N12" s="93"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="87"/>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -3394,8 +3397,8 @@
       <c r="L13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M13" s="87"/>
-      <c r="N13" s="93"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="87"/>
       <c r="O13" s="29" t="s">
         <v>262</v>
       </c>
@@ -3435,8 +3438,8 @@
       <c r="L14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="87"/>
-      <c r="N14" s="93"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="29" t="s">
         <v>263</v>
       </c>
@@ -3476,8 +3479,8 @@
       <c r="L15" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="87"/>
-      <c r="N15" s="93"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="87"/>
       <c r="O15" s="29" t="s">
         <v>264</v>
       </c>
@@ -3517,8 +3520,8 @@
       <c r="L16" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M16" s="87"/>
-      <c r="N16" s="93"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="29" t="s">
         <v>265</v>
       </c>
@@ -3558,8 +3561,8 @@
       <c r="L17" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="93"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="87"/>
       <c r="O17" s="29" t="s">
         <v>266</v>
       </c>
@@ -3599,8 +3602,8 @@
       <c r="L18" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M18" s="87"/>
-      <c r="N18" s="93"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="87"/>
       <c r="O18" s="29" t="s">
         <v>267</v>
       </c>
@@ -3629,7 +3632,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="56" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J19" s="56" t="s">
         <v>20</v>
@@ -3640,8 +3643,8 @@
       <c r="L19" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M19" s="87"/>
-      <c r="N19" s="93"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="87"/>
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
@@ -3668,7 +3671,7 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="56" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J20" s="56" t="s">
         <v>20</v>
@@ -3679,8 +3682,8 @@
       <c r="L20" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M20" s="87"/>
-      <c r="N20" s="93"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="87"/>
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3707,7 +3710,7 @@
       </c>
       <c r="H21" s="48"/>
       <c r="I21" s="48" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J21" s="48" t="s">
         <v>20</v>
@@ -3718,8 +3721,8 @@
       <c r="L21" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="M21" s="88"/>
-      <c r="N21" s="94"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="88"/>
       <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
@@ -3757,10 +3760,10 @@
       <c r="L22" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="M22" s="96" t="s">
+      <c r="M22" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="N22" s="89" t="s">
+      <c r="N22" s="83" t="s">
         <v>303</v>
       </c>
       <c r="O22" s="33" t="s">
@@ -3802,8 +3805,8 @@
       <c r="L23" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M23" s="97"/>
-      <c r="N23" s="87"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="81"/>
       <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
@@ -3841,8 +3844,8 @@
       <c r="L24" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M24" s="97"/>
-      <c r="N24" s="87"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="81"/>
       <c r="O24" s="34" t="s">
         <v>279</v>
       </c>
@@ -3882,8 +3885,8 @@
       <c r="L25" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M25" s="97"/>
-      <c r="N25" s="87"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="81"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
       <c r="A26" s="7">
@@ -3920,8 +3923,8 @@
       <c r="L26" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="97"/>
-      <c r="N26" s="87"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="34" t="s">
         <v>280</v>
       </c>
@@ -3961,8 +3964,8 @@
       <c r="L27" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M27" s="97"/>
-      <c r="N27" s="87"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="81"/>
       <c r="O27" s="34" t="s">
         <v>281</v>
       </c>
@@ -4003,8 +4006,8 @@
       <c r="L28" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M28" s="97"/>
-      <c r="N28" s="87"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="81"/>
       <c r="O28" s="34" t="s">
         <v>282</v>
       </c>
@@ -4045,8 +4048,8 @@
       <c r="L29" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M29" s="97"/>
-      <c r="N29" s="87"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="81"/>
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
@@ -4084,8 +4087,8 @@
       <c r="L30" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M30" s="97"/>
-      <c r="N30" s="87"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="81"/>
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -4123,8 +4126,8 @@
       <c r="L31" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="M31" s="98"/>
-      <c r="N31" s="88"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
@@ -4162,10 +4165,10 @@
       <c r="L32" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M32" s="86" t="s">
+      <c r="M32" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="N32" s="92" t="s">
+      <c r="N32" s="86" t="s">
         <v>305</v>
       </c>
       <c r="O32" s="28" t="s">
@@ -4207,8 +4210,8 @@
       <c r="L33" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M33" s="87"/>
-      <c r="N33" s="93"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="87"/>
       <c r="O33" s="29" t="s">
         <v>271</v>
       </c>
@@ -4248,8 +4251,8 @@
       <c r="L34" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M34" s="87"/>
-      <c r="N34" s="93"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="87"/>
       <c r="O34" s="29" t="s">
         <v>272</v>
       </c>
@@ -4289,8 +4292,8 @@
       <c r="L35" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M35" s="87"/>
-      <c r="N35" s="93"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="87"/>
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -4328,8 +4331,8 @@
       <c r="L36" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M36" s="87"/>
-      <c r="N36" s="93"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="87"/>
       <c r="O36" s="29" t="s">
         <v>273</v>
       </c>
@@ -4369,8 +4372,8 @@
       <c r="L37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M37" s="87"/>
-      <c r="N37" s="93"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="87"/>
       <c r="O37" s="29" t="s">
         <v>269</v>
       </c>
@@ -4410,8 +4413,8 @@
       <c r="L38" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M38" s="88"/>
-      <c r="N38" s="94"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="88"/>
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
@@ -4449,10 +4452,10 @@
       <c r="L39" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M39" s="86" t="s">
+      <c r="M39" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="N39" s="89" t="s">
+      <c r="N39" s="83" t="s">
         <v>307</v>
       </c>
       <c r="O39" s="28" t="s">
@@ -4494,8 +4497,8 @@
       <c r="L40" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
@@ -4533,8 +4536,8 @@
       <c r="L41" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
       <c r="O41" s="29" t="s">
         <v>275</v>
       </c>
@@ -4574,8 +4577,8 @@
       <c r="L42" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4613,8 +4616,8 @@
       <c r="L43" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
@@ -4652,10 +4655,10 @@
       <c r="L44" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="99" t="s">
+      <c r="M44" s="93" t="s">
         <v>308</v>
       </c>
-      <c r="N44" s="89" t="s">
+      <c r="N44" s="83" t="s">
         <v>309</v>
       </c>
       <c r="O44" s="33" t="s">
@@ -4685,20 +4688,20 @@
         <v>284</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="63" t="s">
+      <c r="I45" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="78">
         <v>42652</v>
       </c>
       <c r="L45" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="100"/>
-      <c r="N45" s="87"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="81"/>
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
@@ -4724,20 +4727,20 @@
         <v>284</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="63" t="s">
+      <c r="I46" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="78">
         <v>42652</v>
       </c>
       <c r="L46" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="100"/>
-      <c r="N46" s="87"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="81"/>
       <c r="O46" s="34" t="s">
         <v>293</v>
       </c>
@@ -4765,20 +4768,20 @@
         <v>284</v>
       </c>
       <c r="H47" s="8"/>
-      <c r="I47" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="63" t="s">
+      <c r="I47" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="78">
         <v>42652</v>
       </c>
       <c r="L47" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="100"/>
-      <c r="N47" s="87"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="81"/>
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
@@ -4804,20 +4807,20 @@
         <v>284</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="63" t="s">
+      <c r="I48" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="78">
         <v>42652</v>
       </c>
       <c r="L48" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="100"/>
-      <c r="N48" s="87"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="81"/>
       <c r="O48" s="34" t="s">
         <v>294</v>
       </c>
@@ -4857,8 +4860,8 @@
       <c r="L49" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="100"/>
-      <c r="N49" s="87"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="81"/>
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
@@ -4896,8 +4899,8 @@
       <c r="L50" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="100"/>
-      <c r="N50" s="87"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="81"/>
       <c r="O50" s="34" t="s">
         <v>295</v>
       </c>
@@ -4937,8 +4940,8 @@
       <c r="L51" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="100"/>
-      <c r="N51" s="87"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="81"/>
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
@@ -4976,8 +4979,8 @@
       <c r="L52" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M52" s="100"/>
-      <c r="N52" s="87"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="81"/>
       <c r="O52" s="34"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5015,8 +5018,8 @@
       <c r="L53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M53" s="101"/>
-      <c r="N53" s="88"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="82"/>
       <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
@@ -5054,10 +5057,10 @@
       <c r="L54" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M54" s="86" t="s">
+      <c r="M54" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="N54" s="89" t="s">
+      <c r="N54" s="83" t="s">
         <v>311</v>
       </c>
       <c r="O54" s="28" t="s">
@@ -5099,8 +5102,8 @@
       <c r="L55" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
       <c r="O55" s="32"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
@@ -5138,8 +5141,8 @@
       <c r="L56" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
       <c r="O56" s="29" t="s">
         <v>277</v>
       </c>
@@ -5179,8 +5182,8 @@
       <c r="L57" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
       <c r="O57" s="29"/>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1">
@@ -5218,8 +5221,8 @@
       <c r="L58" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
       <c r="O58" s="29"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5257,8 +5260,8 @@
       <c r="L59" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
       <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1">
@@ -9142,6 +9145,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M54:M59"/>
     <mergeCell ref="N54:N59"/>
     <mergeCell ref="M1:M2"/>
@@ -9158,14 +9169,6 @@
     <mergeCell ref="N44:N53"/>
     <mergeCell ref="M5:M10"/>
     <mergeCell ref="N5:N10"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F6:H7">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -2253,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,15 +2462,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2486,6 +2477,27 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2534,26 +2546,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2911,7 +2905,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M44" sqref="M44:M53"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2937,50 +2931,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
       <c r="L1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="88" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="93" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="96" t="s">
+      <c r="O1" s="78" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -3000,9 +2994,9 @@
         <v>78</v>
       </c>
       <c r="L2" s="39"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="97"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1">
       <c r="A3" s="7">
@@ -3085,10 +3079,10 @@
         <v>42652</v>
       </c>
       <c r="L5" s="53"/>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="N5" s="83" t="s">
+      <c r="N5" s="87" t="s">
         <v>297</v>
       </c>
       <c r="O5" s="28" t="s">
@@ -3126,8 +3120,8 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="81"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="85"/>
       <c r="O6" s="66" t="s">
         <v>299</v>
       </c>
@@ -3165,8 +3159,8 @@
       <c r="L7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="N7" s="81"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="85"/>
       <c r="O7" s="66" t="s">
         <v>300</v>
       </c>
@@ -3202,8 +3196,8 @@
         <v>42652</v>
       </c>
       <c r="L8" s="36"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="81"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="85"/>
       <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3237,8 +3231,8 @@
         <v>42652</v>
       </c>
       <c r="L9" s="43"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="81"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="85"/>
       <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -3272,8 +3266,8 @@
         <v>42652</v>
       </c>
       <c r="L10" s="36"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="82"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="86"/>
       <c r="O10" s="67" t="s">
         <v>301</v>
       </c>
@@ -3313,10 +3307,10 @@
       <c r="L11" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="M11" s="80" t="s">
+      <c r="M11" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="N11" s="86" t="s">
+      <c r="N11" s="90" t="s">
         <v>288</v>
       </c>
       <c r="O11" s="28" t="s">
@@ -3358,8 +3352,8 @@
       <c r="L12" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="87"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
@@ -3397,8 +3391,8 @@
       <c r="L13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M13" s="81"/>
-      <c r="N13" s="87"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="91"/>
       <c r="O13" s="29" t="s">
         <v>262</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>258</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="72" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="56" t="s">
@@ -3438,8 +3432,8 @@
       <c r="L14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="81"/>
-      <c r="N14" s="87"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="91"/>
       <c r="O14" s="29" t="s">
         <v>263</v>
       </c>
@@ -3467,7 +3461,7 @@
         <v>258</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="72" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="56" t="s">
@@ -3479,8 +3473,8 @@
       <c r="L15" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="81"/>
-      <c r="N15" s="87"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="91"/>
       <c r="O15" s="29" t="s">
         <v>264</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>258</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="75" t="s">
+      <c r="I16" s="72" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="56" t="s">
@@ -3520,8 +3514,8 @@
       <c r="L16" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M16" s="81"/>
-      <c r="N16" s="87"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="91"/>
       <c r="O16" s="29" t="s">
         <v>265</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>258</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="72" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="56" t="s">
@@ -3561,8 +3555,8 @@
       <c r="L17" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="87"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="91"/>
       <c r="O17" s="29" t="s">
         <v>266</v>
       </c>
@@ -3590,7 +3584,7 @@
         <v>258</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="72" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="56" t="s">
@@ -3602,8 +3596,8 @@
       <c r="L18" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M18" s="81"/>
-      <c r="N18" s="87"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="91"/>
       <c r="O18" s="29" t="s">
         <v>267</v>
       </c>
@@ -3643,8 +3637,8 @@
       <c r="L19" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M19" s="81"/>
-      <c r="N19" s="87"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="91"/>
       <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1">
@@ -3682,8 +3676,8 @@
       <c r="L20" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="87"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="91"/>
       <c r="O20" s="29"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -3721,8 +3715,8 @@
       <c r="L21" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="M21" s="82"/>
-      <c r="N21" s="88"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="92"/>
       <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1">
@@ -3760,10 +3754,10 @@
       <c r="L22" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="M22" s="90" t="s">
+      <c r="M22" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="N22" s="83" t="s">
+      <c r="N22" s="87" t="s">
         <v>303</v>
       </c>
       <c r="O22" s="33" t="s">
@@ -3805,8 +3799,8 @@
       <c r="L23" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M23" s="91"/>
-      <c r="N23" s="81"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="85"/>
       <c r="O23" s="34"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1">
@@ -3844,8 +3838,8 @@
       <c r="L24" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M24" s="91"/>
-      <c r="N24" s="81"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="85"/>
       <c r="O24" s="34" t="s">
         <v>279</v>
       </c>
@@ -3885,8 +3879,8 @@
       <c r="L25" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M25" s="91"/>
-      <c r="N25" s="81"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="85"/>
     </row>
     <row r="26" spans="1:16" ht="18" customHeight="1">
       <c r="A26" s="7">
@@ -3923,8 +3917,8 @@
       <c r="L26" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="91"/>
-      <c r="N26" s="81"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="34" t="s">
         <v>280</v>
       </c>
@@ -3964,8 +3958,8 @@
       <c r="L27" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M27" s="91"/>
-      <c r="N27" s="81"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="34" t="s">
         <v>281</v>
       </c>
@@ -4006,8 +4000,8 @@
       <c r="L28" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M28" s="91"/>
-      <c r="N28" s="81"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="34" t="s">
         <v>282</v>
       </c>
@@ -4048,8 +4042,8 @@
       <c r="L29" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M29" s="91"/>
-      <c r="N29" s="81"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:16" ht="18" customHeight="1">
@@ -4087,8 +4081,8 @@
       <c r="L30" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M30" s="91"/>
-      <c r="N30" s="81"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="85"/>
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1">
@@ -4126,8 +4120,8 @@
       <c r="L31" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="M31" s="92"/>
-      <c r="N31" s="82"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="86"/>
       <c r="O31" s="35"/>
     </row>
     <row r="32" spans="1:16" ht="18" customHeight="1">
@@ -4153,22 +4147,22 @@
         <v>20</v>
       </c>
       <c r="H32" s="51"/>
-      <c r="I32" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="76" t="s">
+      <c r="I32" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="K32" s="77">
+      <c r="K32" s="74">
         <v>42654</v>
       </c>
       <c r="L32" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M32" s="80" t="s">
+      <c r="M32" s="84" t="s">
         <v>304</v>
       </c>
-      <c r="N32" s="86" t="s">
+      <c r="N32" s="90" t="s">
         <v>305</v>
       </c>
       <c r="O32" s="28" t="s">
@@ -4204,14 +4198,14 @@
       <c r="J33" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="78">
+      <c r="K33" s="75">
         <v>42654</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M33" s="81"/>
-      <c r="N33" s="87"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="29" t="s">
         <v>271</v>
       </c>
@@ -4245,14 +4239,14 @@
       <c r="J34" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="78">
+      <c r="K34" s="75">
         <v>42654</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="87"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="91"/>
       <c r="O34" s="29" t="s">
         <v>272</v>
       </c>
@@ -4286,14 +4280,14 @@
       <c r="J35" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K35" s="78">
+      <c r="K35" s="75">
         <v>42654</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="87"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="91"/>
       <c r="O35" s="29"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -4325,14 +4319,14 @@
       <c r="J36" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="78">
+      <c r="K36" s="75">
         <v>42654</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M36" s="81"/>
-      <c r="N36" s="87"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="91"/>
       <c r="O36" s="29" t="s">
         <v>273</v>
       </c>
@@ -4366,14 +4360,14 @@
       <c r="J37" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="K37" s="78">
+      <c r="K37" s="75">
         <v>42654</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M37" s="81"/>
-      <c r="N37" s="87"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="91"/>
       <c r="O37" s="29" t="s">
         <v>269</v>
       </c>
@@ -4413,8 +4407,8 @@
       <c r="L38" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M38" s="82"/>
-      <c r="N38" s="88"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="92"/>
       <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1">
@@ -4440,22 +4434,22 @@
         <v>20</v>
       </c>
       <c r="H39" s="51"/>
-      <c r="I39" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="76" t="s">
+      <c r="I39" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="K39" s="77">
+      <c r="K39" s="74">
         <v>42654</v>
       </c>
       <c r="L39" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M39" s="80" t="s">
+      <c r="M39" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="N39" s="83" t="s">
+      <c r="N39" s="87" t="s">
         <v>307</v>
       </c>
       <c r="O39" s="28" t="s">
@@ -4491,14 +4485,14 @@
       <c r="J40" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="K40" s="78">
+      <c r="K40" s="75">
         <v>42654</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
       <c r="O40" s="29"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1">
@@ -4524,20 +4518,20 @@
         <v>20</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="19" t="s">
+      <c r="I41" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="72">
+      <c r="K41" s="75">
         <v>42654</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
       <c r="O41" s="29" t="s">
         <v>275</v>
       </c>
@@ -4565,20 +4559,20 @@
         <v>20</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="19" t="s">
+      <c r="I42" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="K42" s="72">
+      <c r="K42" s="75">
         <v>42654</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
       <c r="O42" s="29"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -4604,20 +4598,20 @@
         <v>20</v>
       </c>
       <c r="H43" s="48"/>
-      <c r="I43" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="73" t="s">
+      <c r="I43" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="71" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="74">
+      <c r="K43" s="100">
         <v>42654</v>
       </c>
       <c r="L43" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
       <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1">
@@ -4643,22 +4637,22 @@
         <v>284</v>
       </c>
       <c r="H44" s="51"/>
-      <c r="I44" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="79" t="s">
+      <c r="I44" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="77">
+      <c r="K44" s="74">
         <v>42652</v>
       </c>
       <c r="L44" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="93" t="s">
+      <c r="M44" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="N44" s="83" t="s">
+      <c r="N44" s="87" t="s">
         <v>309</v>
       </c>
       <c r="O44" s="33" t="s">
@@ -4691,17 +4685,17 @@
       <c r="I45" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="102" t="s">
+      <c r="J45" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="K45" s="78">
+      <c r="K45" s="75">
         <v>42652</v>
       </c>
       <c r="L45" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="81"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="85"/>
       <c r="O45" s="34"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1">
@@ -4730,17 +4724,17 @@
       <c r="I46" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="102" t="s">
+      <c r="J46" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="K46" s="78">
+      <c r="K46" s="75">
         <v>42652</v>
       </c>
       <c r="L46" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="94"/>
-      <c r="N46" s="81"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="85"/>
       <c r="O46" s="34" t="s">
         <v>293</v>
       </c>
@@ -4771,17 +4765,17 @@
       <c r="I47" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="102" t="s">
+      <c r="J47" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="K47" s="78">
+      <c r="K47" s="75">
         <v>42652</v>
       </c>
       <c r="L47" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="94"/>
-      <c r="N47" s="81"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="85"/>
       <c r="O47" s="34"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1">
@@ -4810,17 +4804,17 @@
       <c r="I48" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="102" t="s">
+      <c r="J48" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="K48" s="78">
+      <c r="K48" s="75">
         <v>42652</v>
       </c>
       <c r="L48" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="94"/>
-      <c r="N48" s="81"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="85"/>
       <c r="O48" s="34" t="s">
         <v>294</v>
       </c>
@@ -4860,8 +4854,8 @@
       <c r="L49" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="94"/>
-      <c r="N49" s="81"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="85"/>
       <c r="O49" s="34"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1">
@@ -4899,8 +4893,8 @@
       <c r="L50" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="94"/>
-      <c r="N50" s="81"/>
+      <c r="M50" s="98"/>
+      <c r="N50" s="85"/>
       <c r="O50" s="34" t="s">
         <v>295</v>
       </c>
@@ -4940,8 +4934,8 @@
       <c r="L51" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="94"/>
-      <c r="N51" s="81"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="85"/>
       <c r="O51" s="34"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1">
@@ -4979,8 +4973,8 @@
       <c r="L52" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="M52" s="94"/>
-      <c r="N52" s="81"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="85"/>
       <c r="O52" s="34"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5018,8 +5012,8 @@
       <c r="L53" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M53" s="95"/>
-      <c r="N53" s="82"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="86"/>
       <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1">
@@ -5045,22 +5039,22 @@
         <v>20</v>
       </c>
       <c r="H54" s="51"/>
-      <c r="I54" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="76" t="s">
+      <c r="I54" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="K54" s="77">
+      <c r="K54" s="74">
         <v>42654</v>
       </c>
       <c r="L54" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="M54" s="80" t="s">
+      <c r="M54" s="84" t="s">
         <v>310</v>
       </c>
-      <c r="N54" s="83" t="s">
+      <c r="N54" s="87" t="s">
         <v>311</v>
       </c>
       <c r="O54" s="28" t="s">
@@ -5096,14 +5090,14 @@
       <c r="J55" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="K55" s="78">
+      <c r="K55" s="75">
         <v>42654</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
       <c r="O55" s="32"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1">
@@ -5135,14 +5129,14 @@
       <c r="J56" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="K56" s="78">
+      <c r="K56" s="75">
         <v>42654</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
+      <c r="M56" s="85"/>
+      <c r="N56" s="85"/>
       <c r="O56" s="29" t="s">
         <v>277</v>
       </c>
@@ -5176,14 +5170,14 @@
       <c r="J57" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="K57" s="78">
+      <c r="K57" s="75">
         <v>42654</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
       <c r="O57" s="29"/>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1">
@@ -5221,8 +5215,8 @@
       <c r="L58" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
       <c r="O58" s="29"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
@@ -5260,8 +5254,8 @@
       <c r="L59" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
+      <c r="M59" s="86"/>
+      <c r="N59" s="86"/>
       <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1">
@@ -9145,14 +9139,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="24">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="M54:M59"/>
     <mergeCell ref="N54:N59"/>
     <mergeCell ref="M1:M2"/>
@@ -9169,6 +9155,14 @@
     <mergeCell ref="N44:N53"/>
     <mergeCell ref="M5:M10"/>
     <mergeCell ref="N5:N10"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F6:H7">

--- a/ES China CMP_前端UI开发进度跟踪.xlsx
+++ b/ES China CMP_前端UI开发进度跟踪.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="312">
   <si>
     <t>平台接入管理</t>
   </si>
@@ -1781,7 +1781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1844,6 +1844,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1896,6 +1897,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1941,7 +1949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2246,6 +2254,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2253,7 +2296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2357,9 +2400,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2378,9 +2418,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2408,9 +2445,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2435,12 +2469,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2474,80 +2502,113 @@
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2901,11 +2962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P245"/>
+  <dimension ref="A1:Q245"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2914,67 +2975,68 @@
     <col min="2" max="2" width="42.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="7" style="6" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="52.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="48.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="52.85546875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="12" max="13" width="36.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="52.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="48.28515625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="52.85546875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:16" ht="18" customHeight="1">
+      <c r="A1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82" t="s">
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="38" t="s">
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="72"/>
+      <c r="N1" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="93" t="s">
+      <c r="O1" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="P1" s="97" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+    <row r="2" spans="1:16" ht="18" customHeight="1">
+      <c r="A2" s="100"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
@@ -2993,12 +3055,13 @@
       <c r="K2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="79"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1">
+      <c r="L2" s="38"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="98"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3022,74 +3085,81 @@
       <c r="K3" s="9"/>
       <c r="L3" s="8"/>
       <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="47">
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="E4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="8"/>
       <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1">
-      <c r="A5" s="52">
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="50">
         <v>54</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53" t="s">
+      <c r="H5" s="63"/>
+      <c r="I5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="103">
         <v>42652</v>
       </c>
-      <c r="L5" s="53"/>
-      <c r="M5" s="97" t="s">
+      <c r="L5" s="51"/>
+      <c r="M5" s="74">
+        <v>1</v>
+      </c>
+      <c r="N5" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="O5" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="P5" s="28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1">
+    <row r="6" spans="1:16" ht="18" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -3105,29 +3175,30 @@
       <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="69" t="s">
+      <c r="F6" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="H6" s="64"/>
+      <c r="I6" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="64"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="66" t="s">
+      <c r="M6" s="75"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="61" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="65">
+    <row r="7" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="60">
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -3142,30 +3213,31 @@
       <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="70" t="s">
+      <c r="F7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="28" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="65"/>
+      <c r="L7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="98"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="66" t="s">
+      <c r="M7" s="75"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="61" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:16" ht="18" customHeight="1">
       <c r="A8" s="25">
         <v>56</v>
       </c>
@@ -3181,26 +3253,29 @@
       <c r="E8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36" t="s">
+      <c r="H8" s="64"/>
+      <c r="I8" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="70">
         <v>42652</v>
       </c>
       <c r="L8" s="36"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="M8" s="75"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="61"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" thickBot="1">
       <c r="A9" s="25">
         <v>57</v>
       </c>
@@ -3216,112 +3291,121 @@
       <c r="E9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="70">
         <v>42652</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="42">
+      <c r="L9" s="42"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="61"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="41">
         <v>55</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="71" t="s">
+      <c r="F10" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="71">
         <v>42652</v>
       </c>
       <c r="L10" s="36"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="67" t="s">
+      <c r="M10" s="76"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="62" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="A11" s="46">
+    <row r="11" spans="1:16" ht="18" customHeight="1">
+      <c r="A11" s="44">
         <v>5</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="45" t="s">
+      <c r="H11" s="43"/>
+      <c r="I11" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>42643</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="80">
+        <v>1</v>
+      </c>
+      <c r="N11" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="N11" s="90" t="s">
+      <c r="O11" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="O11" s="28" t="s">
+      <c r="P11" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:16" ht="18" customHeight="1">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="36" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3340,27 +3424,28 @@
         <v>258</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="56" t="s">
+      <c r="I12" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="40">
         <v>42643</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="29"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+      <c r="M12" s="78"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="29"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3379,29 +3464,30 @@
         <v>258</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="56" t="s">
+      <c r="I13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="40">
         <v>42643</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="29" t="s">
+      <c r="M13" s="78"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="29" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:16" ht="18" customHeight="1">
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -3420,29 +3506,30 @@
         <v>258</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>42643</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="29" t="s">
+      <c r="M14" s="78"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="29" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:16" ht="18" customHeight="1">
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3461,29 +3548,30 @@
         <v>258</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="56" t="s">
+      <c r="I15" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="40">
         <v>42643</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M15" s="85"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="29" t="s">
+      <c r="M15" s="78"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="29" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:16" ht="18" customHeight="1">
       <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -3502,29 +3590,30 @@
         <v>258</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="56" t="s">
+      <c r="I16" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="40">
         <v>42643</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="29" t="s">
+      <c r="M16" s="78"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="29" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1">
+    <row r="17" spans="1:17" ht="18" customHeight="1">
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3543,29 +3632,30 @@
         <v>258</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="56" t="s">
+      <c r="I17" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="40">
         <v>42643</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M17" s="85"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="29" t="s">
+      <c r="M17" s="78"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1">
       <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -3584,29 +3674,30 @@
         <v>258</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="56" t="s">
+      <c r="I18" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="40">
         <v>42643</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M18" s="85"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="29" t="s">
+      <c r="M18" s="78"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="29" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1">
       <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3625,27 +3716,28 @@
         <v>258</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="56" t="s">
+      <c r="I19" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="40">
         <v>42643</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1">
+      <c r="M19" s="78"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:17" ht="18" customHeight="1">
       <c r="A20" s="7">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="36" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -3664,111 +3756,116 @@
         <v>258</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="56" t="s">
+      <c r="I20" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="40">
         <v>42643</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M20" s="85"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="47">
+      <c r="M20" s="78"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="45">
         <v>15</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="48" t="s">
+      <c r="H21" s="46"/>
+      <c r="I21" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="47">
         <v>42643</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="M21" s="86"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="30"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1">
-      <c r="A22" s="50">
-        <v>16</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="M21" s="79"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="1:17" ht="18" customHeight="1">
+      <c r="A22" s="48">
+        <v>16</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="56" t="s">
+      <c r="H22" s="49"/>
+      <c r="I22" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="40">
         <v>42643</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="M22" s="94" t="s">
+      <c r="M22" s="77">
+        <v>1</v>
+      </c>
+      <c r="N22" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="N22" s="87" t="s">
+      <c r="O22" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="O22" s="33" t="s">
+      <c r="P22" s="33" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1">
       <c r="A23" s="7">
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -3787,27 +3884,28 @@
         <v>259</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="56" t="s">
+      <c r="I23" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <v>42643</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M23" s="95"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="34"/>
-    </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1">
+      <c r="M23" s="78"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="34"/>
+    </row>
+    <row r="24" spans="1:17" ht="18" customHeight="1">
       <c r="A24" s="7">
         <v>18</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -3826,29 +3924,30 @@
         <v>259</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="I24" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="56" t="s">
+      <c r="I24" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="40">
         <v>42643</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M24" s="95"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="34" t="s">
+      <c r="M24" s="78"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1">
       <c r="A25" s="7">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="36" t="s">
         <v>257</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -3867,26 +3966,27 @@
         <v>259</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="I25" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="56" t="s">
+      <c r="I25" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="40">
         <v>42643</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M25" s="95"/>
-      <c r="N25" s="85"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" customHeight="1">
+      <c r="M25" s="78"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="82"/>
+    </row>
+    <row r="26" spans="1:17" ht="18" customHeight="1">
       <c r="A26" s="7">
         <v>20</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -3905,29 +4005,30 @@
         <v>259</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="I26" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="56" t="s">
+      <c r="I26" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="40">
         <v>42643</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="95"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="34" t="s">
+      <c r="M26" s="78"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1">
       <c r="A27" s="7">
         <v>21</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -3946,30 +4047,31 @@
         <v>259</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="56" t="s">
+      <c r="I27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="40">
         <v>42643</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M27" s="95"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="34" t="s">
+      <c r="M27" s="78"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1">
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" ht="18" customHeight="1">
       <c r="A28" s="7">
         <v>22</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="36" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -3988,30 +4090,31 @@
         <v>259</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="I28" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="56" t="s">
+      <c r="I28" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="40">
         <v>42643</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M28" s="95"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="34" t="s">
+      <c r="M28" s="78"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="1:16" ht="18" customHeight="1">
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" ht="18" customHeight="1">
       <c r="A29" s="7">
         <v>23</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="36" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -4030,27 +4133,28 @@
         <v>259</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="I29" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="56" t="s">
+      <c r="I29" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="40">
         <v>42643</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M29" s="95"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="34"/>
-    </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1">
+      <c r="M29" s="78"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="34"/>
+    </row>
+    <row r="30" spans="1:17" ht="18" customHeight="1">
       <c r="A30" s="7">
         <v>24</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="36" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -4069,111 +4173,116 @@
         <v>259</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="I30" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="56" t="s">
+      <c r="I30" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="40">
         <v>42643</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M30" s="95"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="34"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" thickBot="1">
-      <c r="A31" s="47">
+      <c r="M30" s="78"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="34"/>
+    </row>
+    <row r="31" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A31" s="45">
         <v>25</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="48" t="s">
+      <c r="F31" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="56" t="s">
+      <c r="H31" s="46"/>
+      <c r="I31" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="40">
         <v>42643</v>
       </c>
-      <c r="L31" s="48" t="s">
+      <c r="L31" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="M31" s="96"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" customHeight="1">
-      <c r="A32" s="50">
+      <c r="M31" s="79"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:17" ht="18" customHeight="1">
+      <c r="A32" s="48">
         <v>26</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="51" t="s">
+      <c r="F32" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="73" t="s">
+      <c r="H32" s="49"/>
+      <c r="I32" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="K32" s="74">
+      <c r="K32" s="69">
         <v>42654</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="L32" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="M32" s="84" t="s">
+      <c r="M32" s="80">
+        <v>1</v>
+      </c>
+      <c r="N32" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="N32" s="90" t="s">
+      <c r="O32" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="O32" s="28" t="s">
+      <c r="P32" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="18" customHeight="1">
+    <row r="33" spans="1:16" ht="18" customHeight="1">
       <c r="A33" s="7">
         <v>27</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="36" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -4192,29 +4301,30 @@
         <v>20</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="I33" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="69" t="s">
+      <c r="I33" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="70">
         <v>42654</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M33" s="85"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="29" t="s">
+      <c r="M33" s="78"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="29" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1">
+    <row r="34" spans="1:16" ht="18" customHeight="1">
       <c r="A34" s="7">
         <v>28</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="36" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -4233,29 +4343,30 @@
         <v>20</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="69" t="s">
+      <c r="I34" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="70">
         <v>42654</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M34" s="85"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="29" t="s">
+      <c r="M34" s="78"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="29" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="18" customHeight="1">
+    <row r="35" spans="1:16" ht="18" customHeight="1">
       <c r="A35" s="7">
         <v>29</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -4274,27 +4385,28 @@
         <v>20</v>
       </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="69" t="s">
+      <c r="I35" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="70">
         <v>42654</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M35" s="85"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="29"/>
-    </row>
-    <row r="36" spans="1:15" ht="18" customHeight="1">
+      <c r="M35" s="78"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="29"/>
+    </row>
+    <row r="36" spans="1:16" ht="18" customHeight="1">
       <c r="A36" s="7">
         <v>30</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="36" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -4313,29 +4425,30 @@
         <v>20</v>
       </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="69" t="s">
+      <c r="I36" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="70">
         <v>42654</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M36" s="85"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="29" t="s">
+      <c r="M36" s="78"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="18" customHeight="1">
+    <row r="37" spans="1:16" ht="18" customHeight="1">
       <c r="A37" s="7">
         <v>31</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -4354,113 +4467,118 @@
         <v>20</v>
       </c>
       <c r="H37" s="8"/>
-      <c r="I37" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="69" t="s">
+      <c r="I37" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="K37" s="75">
+      <c r="K37" s="70">
         <v>42654</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M37" s="85"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="29" t="s">
+      <c r="M37" s="78"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="29" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A38" s="47">
+    <row r="38" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A38" s="45">
         <v>32</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="48" t="s">
+      <c r="F38" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48" t="s">
+      <c r="H38" s="46"/>
+      <c r="I38" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="K38" s="49">
+      <c r="K38" s="71">
         <v>42654</v>
       </c>
-      <c r="L38" s="48" t="s">
+      <c r="L38" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="M38" s="86"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="30"/>
-    </row>
-    <row r="39" spans="1:15" ht="18" customHeight="1">
-      <c r="A39" s="50">
+      <c r="M38" s="79"/>
+      <c r="N38" s="83"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="30"/>
+    </row>
+    <row r="39" spans="1:16" ht="18" customHeight="1">
+      <c r="A39" s="48">
         <v>33</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="51" t="s">
+      <c r="F39" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="73" t="s">
+      <c r="H39" s="49"/>
+      <c r="I39" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="K39" s="74">
+      <c r="K39" s="69">
         <v>42654</v>
       </c>
-      <c r="L39" s="51" t="s">
+      <c r="L39" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="M39" s="84" t="s">
+      <c r="M39" s="77">
+        <v>1</v>
+      </c>
+      <c r="N39" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="N39" s="87" t="s">
+      <c r="O39" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="O39" s="28" t="s">
+      <c r="P39" s="28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="18" customHeight="1">
+    <row r="40" spans="1:16" ht="18" customHeight="1">
       <c r="A40" s="7">
         <v>34</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="36" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -4479,27 +4597,28 @@
         <v>20</v>
       </c>
       <c r="H40" s="8"/>
-      <c r="I40" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="69" t="s">
+      <c r="I40" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="K40" s="75">
+      <c r="K40" s="70">
         <v>42654</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="29"/>
-    </row>
-    <row r="41" spans="1:15" ht="18" customHeight="1">
+      <c r="M40" s="78"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="29"/>
+    </row>
+    <row r="41" spans="1:16" ht="18" customHeight="1">
       <c r="A41" s="7">
         <v>35</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -4518,29 +4637,30 @@
         <v>20</v>
       </c>
       <c r="H41" s="8"/>
-      <c r="I41" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="69" t="s">
+      <c r="I41" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="K41" s="75">
+      <c r="K41" s="70">
         <v>42654</v>
       </c>
       <c r="L41" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="29" t="s">
+      <c r="M41" s="78"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="18" customHeight="1">
+    <row r="42" spans="1:16" ht="18" customHeight="1">
       <c r="A42" s="7">
         <v>36</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -4559,108 +4679,113 @@
         <v>20</v>
       </c>
       <c r="H42" s="8"/>
-      <c r="I42" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="69" t="s">
+      <c r="I42" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="K42" s="75">
+      <c r="K42" s="70">
         <v>42654</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="29"/>
-    </row>
-    <row r="43" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A43" s="47">
+      <c r="M42" s="78"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="29"/>
+    </row>
+    <row r="43" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A43" s="45">
         <v>37</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="48" t="s">
+      <c r="F43" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="48"/>
-      <c r="I43" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="71" t="s">
+      <c r="H43" s="46"/>
+      <c r="I43" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="K43" s="100">
+      <c r="K43" s="71">
         <v>42654</v>
       </c>
-      <c r="L43" s="48" t="s">
+      <c r="L43" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="30"/>
-    </row>
-    <row r="44" spans="1:15" ht="18" customHeight="1">
-      <c r="A44" s="60">
+      <c r="M43" s="79"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="30"/>
+    </row>
+    <row r="44" spans="1:16" ht="18" customHeight="1">
+      <c r="A44" s="57">
         <v>38</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="51" t="s">
+      <c r="F44" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="76" t="s">
+      <c r="H44" s="49"/>
+      <c r="I44" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="74">
+      <c r="K44" s="69">
         <v>42652</v>
       </c>
-      <c r="L44" s="57" t="s">
+      <c r="L44" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="97" t="s">
+      <c r="M44" s="74">
+        <v>1</v>
+      </c>
+      <c r="N44" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="N44" s="87" t="s">
+      <c r="O44" s="84" t="s">
         <v>309</v>
       </c>
-      <c r="O44" s="33" t="s">
+      <c r="P44" s="33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="18" customHeight="1">
-      <c r="A45" s="61">
+    <row r="45" spans="1:16" ht="18" customHeight="1">
+      <c r="A45" s="58">
         <v>39</v>
       </c>
       <c r="B45" s="36" t="s">
@@ -4682,24 +4807,25 @@
         <v>284</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="I45" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="77" t="s">
+      <c r="I45" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K45" s="75">
+      <c r="K45" s="70">
         <v>42652</v>
       </c>
-      <c r="L45" s="58" t="s">
+      <c r="L45" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M45" s="98"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="34"/>
-    </row>
-    <row r="46" spans="1:15" ht="18" customHeight="1">
-      <c r="A46" s="61">
+      <c r="M45" s="75"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="34"/>
+    </row>
+    <row r="46" spans="1:16" ht="18" customHeight="1">
+      <c r="A46" s="58">
         <v>40</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -4721,26 +4847,27 @@
         <v>284</v>
       </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="77" t="s">
+      <c r="I46" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K46" s="75">
+      <c r="K46" s="70">
         <v>42652</v>
       </c>
-      <c r="L46" s="58" t="s">
+      <c r="L46" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="98"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="34" t="s">
+      <c r="M46" s="75"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="18" customHeight="1">
-      <c r="A47" s="61">
+    <row r="47" spans="1:16" ht="18" customHeight="1">
+      <c r="A47" s="58">
         <v>41</v>
       </c>
       <c r="B47" s="36" t="s">
@@ -4762,24 +4889,25 @@
         <v>284</v>
       </c>
       <c r="H47" s="8"/>
-      <c r="I47" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="77" t="s">
+      <c r="I47" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K47" s="75">
+      <c r="K47" s="70">
         <v>42652</v>
       </c>
-      <c r="L47" s="58" t="s">
+      <c r="L47" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M47" s="98"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="34"/>
-    </row>
-    <row r="48" spans="1:15" ht="18" customHeight="1">
-      <c r="A48" s="61">
+      <c r="M47" s="75"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="34"/>
+    </row>
+    <row r="48" spans="1:16" ht="18" customHeight="1">
+      <c r="A48" s="58">
         <v>42</v>
       </c>
       <c r="B48" s="36" t="s">
@@ -4801,26 +4929,27 @@
         <v>284</v>
       </c>
       <c r="H48" s="8"/>
-      <c r="I48" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="77" t="s">
+      <c r="I48" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K48" s="75">
+      <c r="K48" s="70">
         <v>42652</v>
       </c>
-      <c r="L48" s="58" t="s">
+      <c r="L48" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="98"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="34" t="s">
+      <c r="M48" s="75"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="18" customHeight="1">
-      <c r="A49" s="61">
+    <row r="49" spans="1:16" ht="18" customHeight="1">
+      <c r="A49" s="58">
         <v>43</v>
       </c>
       <c r="B49" s="36" t="s">
@@ -4842,24 +4971,25 @@
         <v>284</v>
       </c>
       <c r="H49" s="8"/>
-      <c r="I49" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="63" t="s">
+      <c r="I49" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="70">
         <v>42652</v>
       </c>
-      <c r="L49" s="58" t="s">
+      <c r="L49" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M49" s="98"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="34"/>
-    </row>
-    <row r="50" spans="1:15" ht="18" customHeight="1">
-      <c r="A50" s="61">
+      <c r="M49" s="75"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="34"/>
+    </row>
+    <row r="50" spans="1:16" ht="18" customHeight="1">
+      <c r="A50" s="58">
         <v>44</v>
       </c>
       <c r="B50" s="36" t="s">
@@ -4881,26 +5011,27 @@
         <v>284</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="I50" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="63" t="s">
+      <c r="I50" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="70">
         <v>42652</v>
       </c>
-      <c r="L50" s="58" t="s">
+      <c r="L50" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M50" s="98"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="34" t="s">
+      <c r="M50" s="75"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="18" customHeight="1">
-      <c r="A51" s="61">
+    <row r="51" spans="1:16" ht="18" customHeight="1">
+      <c r="A51" s="58">
         <v>45</v>
       </c>
       <c r="B51" s="36" t="s">
@@ -4922,24 +5053,25 @@
         <v>284</v>
       </c>
       <c r="H51" s="8"/>
-      <c r="I51" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="63" t="s">
+      <c r="I51" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="70">
         <v>42652</v>
       </c>
-      <c r="L51" s="58" t="s">
+      <c r="L51" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="98"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="34"/>
-    </row>
-    <row r="52" spans="1:15" ht="18" customHeight="1">
-      <c r="A52" s="61">
+      <c r="M51" s="75"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="34"/>
+    </row>
+    <row r="52" spans="1:16" ht="18" customHeight="1">
+      <c r="A52" s="58">
         <v>46</v>
       </c>
       <c r="B52" s="36" t="s">
@@ -4961,111 +5093,116 @@
         <v>284</v>
       </c>
       <c r="H52" s="8"/>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="K52" s="70">
+        <v>42652</v>
+      </c>
+      <c r="L52" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="75"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="34"/>
+    </row>
+    <row r="53" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A53" s="59">
+        <v>47</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="63" t="s">
+      <c r="F53" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="K52" s="37">
+      <c r="H53" s="46"/>
+      <c r="I53" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="K53" s="71">
         <v>42652</v>
       </c>
-      <c r="L52" s="58" t="s">
+      <c r="L53" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="M52" s="98"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="34"/>
-    </row>
-    <row r="53" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A53" s="62">
-        <v>47</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="43" t="s">
+      <c r="M53" s="76"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="35"/>
+    </row>
+    <row r="54" spans="1:16" ht="18" customHeight="1">
+      <c r="A54" s="48">
+        <v>48</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D54" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E54" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F53" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="K53" s="44">
-        <v>42652</v>
-      </c>
-      <c r="L53" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="M53" s="99"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="35"/>
-    </row>
-    <row r="54" spans="1:15" ht="18" customHeight="1">
-      <c r="A54" s="50">
-        <v>48</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="51" t="s">
+      <c r="F54" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" s="73" t="s">
+      <c r="H54" s="49"/>
+      <c r="I54" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="K54" s="74">
+      <c r="K54" s="69">
         <v>42654</v>
       </c>
-      <c r="L54" s="51" t="s">
+      <c r="L54" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="M54" s="84" t="s">
+      <c r="M54" s="77">
+        <v>1</v>
+      </c>
+      <c r="N54" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="N54" s="87" t="s">
+      <c r="O54" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="O54" s="28" t="s">
+      <c r="P54" s="28" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18" customHeight="1">
+    <row r="55" spans="1:16" ht="18" customHeight="1">
       <c r="A55" s="7">
         <v>49</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -5084,27 +5221,28 @@
         <v>20</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="69" t="s">
+      <c r="I55" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="K55" s="75">
+      <c r="K55" s="70">
         <v>42654</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="32"/>
-    </row>
-    <row r="56" spans="1:15" ht="18" customHeight="1">
+      <c r="M55" s="78"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
+      <c r="P55" s="32"/>
+    </row>
+    <row r="56" spans="1:16" ht="18" customHeight="1">
       <c r="A56" s="7">
         <v>50</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="36" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -5123,29 +5261,30 @@
         <v>20</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="69" t="s">
+      <c r="I56" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="K56" s="75">
+      <c r="K56" s="70">
         <v>42654</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="29" t="s">
+      <c r="M56" s="78"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="82"/>
+      <c r="P56" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="18" customHeight="1">
+    <row r="57" spans="1:16" ht="18" customHeight="1">
       <c r="A57" s="7">
         <v>51</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="36" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -5164,27 +5303,28 @@
         <v>20</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="69" t="s">
+      <c r="I57" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="K57" s="75">
+      <c r="K57" s="70">
         <v>42654</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="29"/>
-    </row>
-    <row r="58" spans="1:15" ht="18" customHeight="1">
+      <c r="M57" s="78"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="82"/>
+      <c r="P57" s="29"/>
+    </row>
+    <row r="58" spans="1:16" ht="18" customHeight="1">
       <c r="A58" s="7">
         <v>52</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="36" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -5203,66 +5343,68 @@
         <v>20</v>
       </c>
       <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" s="8" t="s">
+      <c r="I58" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="70">
         <v>42654</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="29"/>
-    </row>
-    <row r="59" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A59" s="47">
+      <c r="M58" s="78"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="29"/>
+    </row>
+    <row r="59" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A59" s="45">
         <v>53</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="48" t="s">
+      <c r="F59" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="48"/>
-      <c r="I59" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="48" t="s">
+      <c r="H59" s="46"/>
+      <c r="I59" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="K59" s="49">
+      <c r="K59" s="71">
         <v>42654</v>
       </c>
-      <c r="L59" s="48" t="s">
+      <c r="L59" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="M59" s="86"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="30"/>
-    </row>
-    <row r="60" spans="1:15" ht="18" customHeight="1">
+      <c r="M59" s="79"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="83"/>
+      <c r="P59" s="30"/>
+    </row>
+    <row r="60" spans="1:16" ht="18" customHeight="1">
       <c r="A60" s="31">
         <v>58</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>100</v>
       </c>
       <c r="C60" s="30" t="s">
@@ -5277,11 +5419,12 @@
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
-      <c r="K60" s="41"/>
+      <c r="K60" s="40"/>
       <c r="L60" s="30"/>
       <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="1:15" ht="18" customHeight="1">
+      <c r="N60" s="26"/>
+    </row>
+    <row r="61" spans="1:16" ht="18" customHeight="1">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -5303,8 +5446,9 @@
       <c r="K61" s="9"/>
       <c r="L61" s="8"/>
       <c r="M61" s="26"/>
-    </row>
-    <row r="62" spans="1:15" ht="18" customHeight="1">
+      <c r="N61" s="26"/>
+    </row>
+    <row r="62" spans="1:16" ht="18" customHeight="1">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -5326,8 +5470,9 @@
       <c r="K62" s="9"/>
       <c r="L62" s="8"/>
       <c r="M62" s="26"/>
-    </row>
-    <row r="63" spans="1:15" ht="18" customHeight="1">
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="1:16" ht="18" customHeight="1">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -5349,8 +5494,9 @@
       <c r="K63" s="9"/>
       <c r="L63" s="8"/>
       <c r="M63" s="26"/>
-    </row>
-    <row r="64" spans="1:15" ht="18" customHeight="1">
+      <c r="N63" s="26"/>
+    </row>
+    <row r="64" spans="1:16" ht="18" customHeight="1">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -5372,8 +5518,9 @@
       <c r="K64" s="9"/>
       <c r="L64" s="8"/>
       <c r="M64" s="26"/>
-    </row>
-    <row r="65" spans="1:13" ht="18" customHeight="1">
+      <c r="N64" s="26"/>
+    </row>
+    <row r="65" spans="1:14" ht="18" customHeight="1">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -5395,8 +5542,9 @@
       <c r="K65" s="9"/>
       <c r="L65" s="8"/>
       <c r="M65" s="26"/>
-    </row>
-    <row r="66" spans="1:13" ht="18" customHeight="1">
+      <c r="N65" s="26"/>
+    </row>
+    <row r="66" spans="1:14" ht="18" customHeight="1">
       <c r="A66" s="7">
         <v>64</v>
       </c>
@@ -5418,8 +5566,9 @@
       <c r="K66" s="9"/>
       <c r="L66" s="8"/>
       <c r="M66" s="26"/>
-    </row>
-    <row r="67" spans="1:13" ht="18" customHeight="1">
+      <c r="N66" s="26"/>
+    </row>
+    <row r="67" spans="1:14" ht="18" customHeight="1">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -5441,8 +5590,9 @@
       <c r="K67" s="9"/>
       <c r="L67" s="8"/>
       <c r="M67" s="26"/>
-    </row>
-    <row r="68" spans="1:13" ht="18" customHeight="1">
+      <c r="N67" s="26"/>
+    </row>
+    <row r="68" spans="1:14" ht="18" customHeight="1">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -5464,8 +5614,9 @@
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="26"/>
-    </row>
-    <row r="69" spans="1:13" ht="18" customHeight="1">
+      <c r="N68" s="26"/>
+    </row>
+    <row r="69" spans="1:14" ht="18" customHeight="1">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -5487,8 +5638,9 @@
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
       <c r="M69" s="26"/>
-    </row>
-    <row r="70" spans="1:13" ht="18" customHeight="1">
+      <c r="N69" s="26"/>
+    </row>
+    <row r="70" spans="1:14" ht="18" customHeight="1">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -5510,8 +5662,9 @@
       <c r="K70" s="9"/>
       <c r="L70" s="8"/>
       <c r="M70" s="26"/>
-    </row>
-    <row r="71" spans="1:13" ht="18" customHeight="1">
+      <c r="N70" s="26"/>
+    </row>
+    <row r="71" spans="1:14" ht="18" customHeight="1">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -5533,8 +5686,9 @@
       <c r="K71" s="9"/>
       <c r="L71" s="8"/>
       <c r="M71" s="26"/>
-    </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" ht="18" customHeight="1">
+      <c r="N71" s="26"/>
+    </row>
+    <row r="72" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -5556,8 +5710,9 @@
       <c r="K72" s="13"/>
       <c r="L72" s="14"/>
       <c r="M72" s="27"/>
-    </row>
-    <row r="73" spans="1:13" ht="18" customHeight="1">
+      <c r="N72" s="27"/>
+    </row>
+    <row r="73" spans="1:14" ht="18" customHeight="1">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -5579,8 +5734,9 @@
       <c r="K73" s="9"/>
       <c r="L73" s="8"/>
       <c r="M73" s="26"/>
-    </row>
-    <row r="74" spans="1:13" ht="18" customHeight="1">
+      <c r="N73" s="26"/>
+    </row>
+    <row r="74" spans="1:14" ht="18" customHeight="1">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -5602,8 +5758,9 @@
       <c r="K74" s="9"/>
       <c r="L74" s="8"/>
       <c r="M74" s="26"/>
-    </row>
-    <row r="75" spans="1:13" ht="18" customHeight="1">
+      <c r="N74" s="26"/>
+    </row>
+    <row r="75" spans="1:14" ht="18" customHeight="1">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -5625,8 +5782,9 @@
       <c r="K75" s="9"/>
       <c r="L75" s="8"/>
       <c r="M75" s="26"/>
-    </row>
-    <row r="76" spans="1:13" ht="18" customHeight="1">
+      <c r="N75" s="26"/>
+    </row>
+    <row r="76" spans="1:14" ht="18" customHeight="1">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -5648,8 +5806,9 @@
       <c r="K76" s="9"/>
       <c r="L76" s="8"/>
       <c r="M76" s="26"/>
-    </row>
-    <row r="77" spans="1:13" ht="18" customHeight="1">
+      <c r="N76" s="26"/>
+    </row>
+    <row r="77" spans="1:14" ht="18" customHeight="1">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -5671,8 +5830,9 @@
       <c r="K77" s="9"/>
       <c r="L77" s="8"/>
       <c r="M77" s="26"/>
-    </row>
-    <row r="78" spans="1:13" ht="18" customHeight="1">
+      <c r="N77" s="26"/>
+    </row>
+    <row r="78" spans="1:14" ht="18" customHeight="1">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -5694,8 +5854,9 @@
       <c r="K78" s="9"/>
       <c r="L78" s="8"/>
       <c r="M78" s="26"/>
-    </row>
-    <row r="79" spans="1:13" ht="18" customHeight="1">
+      <c r="N78" s="26"/>
+    </row>
+    <row r="79" spans="1:14" ht="18" customHeight="1">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -5717,8 +5878,9 @@
       <c r="K79" s="9"/>
       <c r="L79" s="8"/>
       <c r="M79" s="26"/>
-    </row>
-    <row r="80" spans="1:13" ht="18" customHeight="1">
+      <c r="N79" s="26"/>
+    </row>
+    <row r="80" spans="1:14" ht="18" customHeight="1">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -5740,8 +5902,9 @@
       <c r="K80" s="9"/>
       <c r="L80" s="8"/>
       <c r="M80" s="26"/>
-    </row>
-    <row r="81" spans="1:13" ht="18" customHeight="1">
+      <c r="N80" s="26"/>
+    </row>
+    <row r="81" spans="1:14" ht="18" customHeight="1">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -5763,8 +5926,9 @@
       <c r="K81" s="9"/>
       <c r="L81" s="8"/>
       <c r="M81" s="26"/>
-    </row>
-    <row r="82" spans="1:13" ht="18" customHeight="1">
+      <c r="N81" s="26"/>
+    </row>
+    <row r="82" spans="1:14" ht="18" customHeight="1">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -5786,8 +5950,9 @@
       <c r="K82" s="9"/>
       <c r="L82" s="8"/>
       <c r="M82" s="26"/>
-    </row>
-    <row r="83" spans="1:13" ht="18" customHeight="1">
+      <c r="N82" s="26"/>
+    </row>
+    <row r="83" spans="1:14" ht="18" customHeight="1">
       <c r="A83" s="7">
         <v>81</v>
       </c>
@@ -5809,8 +5974,9 @@
       <c r="K83" s="9"/>
       <c r="L83" s="8"/>
       <c r="M83" s="26"/>
-    </row>
-    <row r="84" spans="1:13" ht="18" customHeight="1">
+      <c r="N83" s="26"/>
+    </row>
+    <row r="84" spans="1:14" ht="18" customHeight="1">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -5832,8 +5998,9 @@
       <c r="K84" s="9"/>
       <c r="L84" s="8"/>
       <c r="M84" s="26"/>
-    </row>
-    <row r="85" spans="1:13" ht="18" customHeight="1">
+      <c r="N84" s="26"/>
+    </row>
+    <row r="85" spans="1:14" ht="18" customHeight="1">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -5855,8 +6022,9 @@
       <c r="K85" s="9"/>
       <c r="L85" s="8"/>
       <c r="M85" s="26"/>
-    </row>
-    <row r="86" spans="1:13" ht="18" customHeight="1">
+      <c r="N85" s="26"/>
+    </row>
+    <row r="86" spans="1:14" ht="18" customHeight="1">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -5878,8 +6046,9 @@
       <c r="K86" s="9"/>
       <c r="L86" s="8"/>
       <c r="M86" s="26"/>
-    </row>
-    <row r="87" spans="1:13" ht="18" customHeight="1">
+      <c r="N86" s="26"/>
+    </row>
+    <row r="87" spans="1:14" ht="18" customHeight="1">
       <c r="A87" s="7">
         <v>85</v>
       </c>
@@ -5901,8 +6070,9 @@
       <c r="K87" s="9"/>
       <c r="L87" s="8"/>
       <c r="M87" s="26"/>
-    </row>
-    <row r="88" spans="1:13" ht="18" customHeight="1">
+      <c r="N87" s="26"/>
+    </row>
+    <row r="88" spans="1:14" ht="18" customHeight="1">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -5924,8 +6094,9 @@
       <c r="K88" s="9"/>
       <c r="L88" s="8"/>
       <c r="M88" s="26"/>
-    </row>
-    <row r="89" spans="1:13" ht="18" customHeight="1">
+      <c r="N88" s="26"/>
+    </row>
+    <row r="89" spans="1:14" ht="18" customHeight="1">
       <c r="A89" s="7">
         <v>87</v>
       </c>
@@ -5947,8 +6118,9 @@
       <c r="K89" s="9"/>
       <c r="L89" s="8"/>
       <c r="M89" s="26"/>
-    </row>
-    <row r="90" spans="1:13" ht="18" customHeight="1">
+      <c r="N89" s="26"/>
+    </row>
+    <row r="90" spans="1:14" ht="18" customHeight="1">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -5970,8 +6142,9 @@
       <c r="K90" s="9"/>
       <c r="L90" s="8"/>
       <c r="M90" s="26"/>
-    </row>
-    <row r="91" spans="1:13" ht="18" customHeight="1">
+      <c r="N90" s="26"/>
+    </row>
+    <row r="91" spans="1:14" ht="18" customHeight="1">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -5993,8 +6166,9 @@
       <c r="K91" s="9"/>
       <c r="L91" s="8"/>
       <c r="M91" s="26"/>
-    </row>
-    <row r="92" spans="1:13" ht="18" customHeight="1">
+      <c r="N91" s="26"/>
+    </row>
+    <row r="92" spans="1:14" ht="18" customHeight="1">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -6016,8 +6190,9 @@
       <c r="K92" s="9"/>
       <c r="L92" s="8"/>
       <c r="M92" s="26"/>
-    </row>
-    <row r="93" spans="1:13" ht="18" customHeight="1">
+      <c r="N92" s="26"/>
+    </row>
+    <row r="93" spans="1:14" ht="18" customHeight="1">
       <c r="A93" s="7">
         <v>91</v>
       </c>
@@ -6039,8 +6214,9 @@
       <c r="K93" s="9"/>
       <c r="L93" s="8"/>
       <c r="M93" s="26"/>
-    </row>
-    <row r="94" spans="1:13" ht="18" customHeight="1">
+      <c r="N93" s="26"/>
+    </row>
+    <row r="94" spans="1:14" ht="18" customHeight="1">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -6062,8 +6238,9 @@
       <c r="K94" s="9"/>
       <c r="L94" s="8"/>
       <c r="M94" s="26"/>
-    </row>
-    <row r="95" spans="1:13" ht="18" customHeight="1">
+      <c r="N94" s="26"/>
+    </row>
+    <row r="95" spans="1:14" ht="18" customHeight="1">
       <c r="A95" s="7">
         <v>93</v>
       </c>
@@ -6085,8 +6262,9 @@
       <c r="K95" s="9"/>
       <c r="L95" s="8"/>
       <c r="M95" s="26"/>
-    </row>
-    <row r="96" spans="1:13" ht="18" customHeight="1">
+      <c r="N95" s="26"/>
+    </row>
+    <row r="96" spans="1:14" ht="18" customHeight="1">
       <c r="A96" s="7">
         <v>94</v>
       </c>
@@ -6108,8 +6286,9 @@
       <c r="K96" s="9"/>
       <c r="L96" s="8"/>
       <c r="M96" s="26"/>
-    </row>
-    <row r="97" spans="1:13" ht="18" customHeight="1">
+      <c r="N96" s="26"/>
+    </row>
+    <row r="97" spans="1:14" ht="18" customHeight="1">
       <c r="A97" s="7">
         <v>95</v>
       </c>
@@ -6131,8 +6310,9 @@
       <c r="K97" s="9"/>
       <c r="L97" s="8"/>
       <c r="M97" s="26"/>
-    </row>
-    <row r="98" spans="1:13" ht="18" customHeight="1">
+      <c r="N97" s="26"/>
+    </row>
+    <row r="98" spans="1:14" ht="18" customHeight="1">
       <c r="A98" s="7">
         <v>96</v>
       </c>
@@ -6154,8 +6334,9 @@
       <c r="K98" s="9"/>
       <c r="L98" s="8"/>
       <c r="M98" s="26"/>
-    </row>
-    <row r="99" spans="1:13" ht="18" customHeight="1">
+      <c r="N98" s="26"/>
+    </row>
+    <row r="99" spans="1:14" ht="18" customHeight="1">
       <c r="A99" s="7">
         <v>97</v>
       </c>
@@ -6177,8 +6358,9 @@
       <c r="K99" s="9"/>
       <c r="L99" s="8"/>
       <c r="M99" s="26"/>
-    </row>
-    <row r="100" spans="1:13" ht="18" customHeight="1">
+      <c r="N99" s="26"/>
+    </row>
+    <row r="100" spans="1:14" ht="18" customHeight="1">
       <c r="A100" s="7">
         <v>98</v>
       </c>
@@ -6200,8 +6382,9 @@
       <c r="K100" s="9"/>
       <c r="L100" s="8"/>
       <c r="M100" s="26"/>
-    </row>
-    <row r="101" spans="1:13" ht="18" customHeight="1">
+      <c r="N100" s="26"/>
+    </row>
+    <row r="101" spans="1:14" ht="18" customHeight="1">
       <c r="A101" s="7">
         <v>99</v>
       </c>
@@ -6223,8 +6406,9 @@
       <c r="K101" s="9"/>
       <c r="L101" s="8"/>
       <c r="M101" s="26"/>
-    </row>
-    <row r="102" spans="1:13" ht="18" customHeight="1">
+      <c r="N101" s="26"/>
+    </row>
+    <row r="102" spans="1:14" ht="18" customHeight="1">
       <c r="A102" s="7">
         <v>100</v>
       </c>
@@ -6246,8 +6430,9 @@
       <c r="K102" s="9"/>
       <c r="L102" s="8"/>
       <c r="M102" s="26"/>
-    </row>
-    <row r="103" spans="1:13" ht="18" customHeight="1">
+      <c r="N102" s="26"/>
+    </row>
+    <row r="103" spans="1:14" ht="18" customHeight="1">
       <c r="A103" s="7">
         <v>101</v>
       </c>
@@ -6269,8 +6454,9 @@
       <c r="K103" s="9"/>
       <c r="L103" s="8"/>
       <c r="M103" s="26"/>
-    </row>
-    <row r="104" spans="1:13" ht="18" customHeight="1">
+      <c r="N103" s="26"/>
+    </row>
+    <row r="104" spans="1:14" ht="18" customHeight="1">
       <c r="A104" s="7">
         <v>102</v>
       </c>
@@ -6292,8 +6478,9 @@
       <c r="K104" s="9"/>
       <c r="L104" s="8"/>
       <c r="M104" s="26"/>
-    </row>
-    <row r="105" spans="1:13" ht="18" customHeight="1">
+      <c r="N104" s="26"/>
+    </row>
+    <row r="105" spans="1:14" ht="18" customHeight="1">
       <c r="A105" s="7">
         <v>103</v>
       </c>
@@ -6315,8 +6502,9 @@
       <c r="K105" s="9"/>
       <c r="L105" s="8"/>
       <c r="M105" s="26"/>
-    </row>
-    <row r="106" spans="1:13" ht="18" customHeight="1">
+      <c r="N105" s="26"/>
+    </row>
+    <row r="106" spans="1:14" ht="18" customHeight="1">
       <c r="A106" s="7">
         <v>104</v>
       </c>
@@ -6338,8 +6526,9 @@
       <c r="K106" s="9"/>
       <c r="L106" s="8"/>
       <c r="M106" s="26"/>
-    </row>
-    <row r="107" spans="1:13" ht="18" customHeight="1">
+      <c r="N106" s="26"/>
+    </row>
+    <row r="107" spans="1:14" ht="18" customHeight="1">
       <c r="A107" s="7">
         <v>105</v>
       </c>
@@ -6361,8 +6550,9 @@
       <c r="K107" s="9"/>
       <c r="L107" s="8"/>
       <c r="M107" s="26"/>
-    </row>
-    <row r="108" spans="1:13" ht="18" customHeight="1">
+      <c r="N107" s="26"/>
+    </row>
+    <row r="108" spans="1:14" ht="18" customHeight="1">
       <c r="A108" s="7">
         <v>106</v>
       </c>
@@ -6384,8 +6574,9 @@
       <c r="K108" s="9"/>
       <c r="L108" s="8"/>
       <c r="M108" s="26"/>
-    </row>
-    <row r="109" spans="1:13" ht="18" customHeight="1">
+      <c r="N108" s="26"/>
+    </row>
+    <row r="109" spans="1:14" ht="18" customHeight="1">
       <c r="A109" s="7">
         <v>107</v>
       </c>
@@ -6407,8 +6598,9 @@
       <c r="K109" s="9"/>
       <c r="L109" s="8"/>
       <c r="M109" s="26"/>
-    </row>
-    <row r="110" spans="1:13" ht="18" customHeight="1">
+      <c r="N109" s="26"/>
+    </row>
+    <row r="110" spans="1:14" ht="18" customHeight="1">
       <c r="A110" s="7">
         <v>108</v>
       </c>
@@ -6430,8 +6622,9 @@
       <c r="K110" s="9"/>
       <c r="L110" s="8"/>
       <c r="M110" s="26"/>
-    </row>
-    <row r="111" spans="1:13" ht="18" customHeight="1">
+      <c r="N110" s="26"/>
+    </row>
+    <row r="111" spans="1:14" ht="18" customHeight="1">
       <c r="A111" s="7">
         <v>109</v>
       </c>
@@ -6453,8 +6646,9 @@
       <c r="K111" s="9"/>
       <c r="L111" s="8"/>
       <c r="M111" s="26"/>
-    </row>
-    <row r="112" spans="1:13" ht="18" customHeight="1">
+      <c r="N111" s="26"/>
+    </row>
+    <row r="112" spans="1:14" ht="18" customHeight="1">
       <c r="A112" s="7">
         <v>110</v>
       </c>
@@ -6476,8 +6670,9 @@
       <c r="K112" s="9"/>
       <c r="L112" s="8"/>
       <c r="M112" s="26"/>
-    </row>
-    <row r="113" spans="1:13" ht="18" customHeight="1">
+      <c r="N112" s="26"/>
+    </row>
+    <row r="113" spans="1:14" ht="18" customHeight="1">
       <c r="A113" s="7">
         <v>111</v>
       </c>
@@ -6499,8 +6694,9 @@
       <c r="K113" s="9"/>
       <c r="L113" s="8"/>
       <c r="M113" s="26"/>
-    </row>
-    <row r="114" spans="1:13" ht="18" customHeight="1">
+      <c r="N113" s="26"/>
+    </row>
+    <row r="114" spans="1:14" ht="18" customHeight="1">
       <c r="A114" s="7">
         <v>112</v>
       </c>
@@ -6522,8 +6718,9 @@
       <c r="K114" s="9"/>
       <c r="L114" s="8"/>
       <c r="M114" s="26"/>
-    </row>
-    <row r="115" spans="1:13" ht="18" customHeight="1">
+      <c r="N114" s="26"/>
+    </row>
+    <row r="115" spans="1:14" ht="18" customHeight="1">
       <c r="A115" s="7">
         <v>113</v>
       </c>
@@ -6545,8 +6742,9 @@
       <c r="K115" s="9"/>
       <c r="L115" s="8"/>
       <c r="M115" s="26"/>
-    </row>
-    <row r="116" spans="1:13" ht="18" customHeight="1">
+      <c r="N115" s="26"/>
+    </row>
+    <row r="116" spans="1:14" ht="18" customHeight="1">
       <c r="A116" s="7">
         <v>114</v>
       </c>
@@ -6568,8 +6766,9 @@
       <c r="K116" s="9"/>
       <c r="L116" s="8"/>
       <c r="M116" s="26"/>
-    </row>
-    <row r="117" spans="1:13" ht="18" customHeight="1">
+      <c r="N116" s="26"/>
+    </row>
+    <row r="117" spans="1:14" ht="18" customHeight="1">
       <c r="A117" s="7">
         <v>115</v>
       </c>
@@ -6591,8 +6790,9 @@
       <c r="K117" s="9"/>
       <c r="L117" s="8"/>
       <c r="M117" s="26"/>
-    </row>
-    <row r="118" spans="1:13" ht="18" customHeight="1">
+      <c r="N117" s="26"/>
+    </row>
+    <row r="118" spans="1:14" ht="18" customHeight="1">
       <c r="A118" s="7">
         <v>116</v>
       </c>
@@ -6614,8 +6814,9 @@
       <c r="K118" s="9"/>
       <c r="L118" s="8"/>
       <c r="M118" s="26"/>
-    </row>
-    <row r="119" spans="1:13" ht="18" customHeight="1">
+      <c r="N118" s="26"/>
+    </row>
+    <row r="119" spans="1:14" ht="18" customHeight="1">
       <c r="A119" s="7">
         <v>117</v>
       </c>
@@ -6637,8 +6838,9 @@
       <c r="K119" s="9"/>
       <c r="L119" s="8"/>
       <c r="M119" s="26"/>
-    </row>
-    <row r="120" spans="1:13" ht="18" customHeight="1">
+      <c r="N119" s="26"/>
+    </row>
+    <row r="120" spans="1:14" ht="18" customHeight="1">
       <c r="A120" s="7">
         <v>118</v>
       </c>
@@ -6660,8 +6862,9 @@
       <c r="K120" s="9"/>
       <c r="L120" s="8"/>
       <c r="M120" s="26"/>
-    </row>
-    <row r="121" spans="1:13" ht="18" customHeight="1">
+      <c r="N120" s="26"/>
+    </row>
+    <row r="121" spans="1:14" ht="18" customHeight="1">
       <c r="A121" s="7">
         <v>119</v>
       </c>
@@ -6683,8 +6886,9 @@
       <c r="K121" s="9"/>
       <c r="L121" s="8"/>
       <c r="M121" s="26"/>
-    </row>
-    <row r="122" spans="1:13" ht="18" customHeight="1">
+      <c r="N121" s="26"/>
+    </row>
+    <row r="122" spans="1:14" ht="18" customHeight="1">
       <c r="A122" s="7">
         <v>120</v>
       </c>
@@ -6706,8 +6910,9 @@
       <c r="K122" s="9"/>
       <c r="L122" s="8"/>
       <c r="M122" s="26"/>
-    </row>
-    <row r="123" spans="1:13" ht="18" customHeight="1">
+      <c r="N122" s="26"/>
+    </row>
+    <row r="123" spans="1:14" ht="18" customHeight="1">
       <c r="A123" s="7">
         <v>121</v>
       </c>
@@ -6729,8 +6934,9 @@
       <c r="K123" s="9"/>
       <c r="L123" s="8"/>
       <c r="M123" s="26"/>
-    </row>
-    <row r="124" spans="1:13" ht="18" customHeight="1">
+      <c r="N123" s="26"/>
+    </row>
+    <row r="124" spans="1:14" ht="18" customHeight="1">
       <c r="A124" s="7">
         <v>122</v>
       </c>
@@ -6752,8 +6958,9 @@
       <c r="K124" s="9"/>
       <c r="L124" s="8"/>
       <c r="M124" s="26"/>
-    </row>
-    <row r="125" spans="1:13" ht="18" customHeight="1">
+      <c r="N124" s="26"/>
+    </row>
+    <row r="125" spans="1:14" ht="18" customHeight="1">
       <c r="A125" s="7">
         <v>123</v>
       </c>
@@ -6775,8 +6982,9 @@
       <c r="K125" s="9"/>
       <c r="L125" s="8"/>
       <c r="M125" s="26"/>
-    </row>
-    <row r="126" spans="1:13" ht="18" customHeight="1">
+      <c r="N125" s="26"/>
+    </row>
+    <row r="126" spans="1:14" ht="18" customHeight="1">
       <c r="A126" s="7">
         <v>124</v>
       </c>
@@ -6798,8 +7006,9 @@
       <c r="K126" s="9"/>
       <c r="L126" s="8"/>
       <c r="M126" s="26"/>
-    </row>
-    <row r="127" spans="1:13" ht="18" customHeight="1">
+      <c r="N126" s="26"/>
+    </row>
+    <row r="127" spans="1:14" ht="18" customHeight="1">
       <c r="A127" s="7">
         <v>125</v>
       </c>
@@ -6821,8 +7030,9 @@
       <c r="K127" s="9"/>
       <c r="L127" s="8"/>
       <c r="M127" s="26"/>
-    </row>
-    <row r="128" spans="1:13" ht="18" customHeight="1">
+      <c r="N127" s="26"/>
+    </row>
+    <row r="128" spans="1:14" ht="18" customHeight="1">
       <c r="A128" s="7">
         <v>126</v>
       </c>
@@ -6844,8 +7054,9 @@
       <c r="K128" s="9"/>
       <c r="L128" s="8"/>
       <c r="M128" s="26"/>
-    </row>
-    <row r="129" spans="1:13" ht="18" customHeight="1">
+      <c r="N128" s="26"/>
+    </row>
+    <row r="129" spans="1:14" ht="18" customHeight="1">
       <c r="A129" s="7">
         <v>127</v>
       </c>
@@ -6867,8 +7078,9 @@
       <c r="K129" s="9"/>
       <c r="L129" s="8"/>
       <c r="M129" s="26"/>
-    </row>
-    <row r="130" spans="1:13" ht="18" customHeight="1">
+      <c r="N129" s="26"/>
+    </row>
+    <row r="130" spans="1:14" ht="18" customHeight="1">
       <c r="A130" s="7">
         <v>128</v>
       </c>
@@ -6890,8 +7102,9 @@
       <c r="K130" s="9"/>
       <c r="L130" s="8"/>
       <c r="M130" s="26"/>
-    </row>
-    <row r="131" spans="1:13" ht="18" customHeight="1">
+      <c r="N130" s="26"/>
+    </row>
+    <row r="131" spans="1:14" ht="18" customHeight="1">
       <c r="A131" s="7">
         <v>129</v>
       </c>
@@ -6913,8 +7126,9 @@
       <c r="K131" s="9"/>
       <c r="L131" s="8"/>
       <c r="M131" s="26"/>
-    </row>
-    <row r="132" spans="1:13" ht="18" customHeight="1">
+      <c r="N131" s="26"/>
+    </row>
+    <row r="132" spans="1:14" ht="18" customHeight="1">
       <c r="A132" s="7">
         <v>130</v>
       </c>
@@ -6936,8 +7150,9 @@
       <c r="K132" s="9"/>
       <c r="L132" s="8"/>
       <c r="M132" s="26"/>
-    </row>
-    <row r="133" spans="1:13" ht="18" customHeight="1">
+      <c r="N132" s="26"/>
+    </row>
+    <row r="133" spans="1:14" ht="18" customHeight="1">
       <c r="A133" s="7">
         <v>131</v>
       </c>
@@ -6959,8 +7174,9 @@
       <c r="K133" s="9"/>
       <c r="L133" s="8"/>
       <c r="M133" s="26"/>
-    </row>
-    <row r="134" spans="1:13" ht="18" customHeight="1">
+      <c r="N133" s="26"/>
+    </row>
+    <row r="134" spans="1:14" ht="18" customHeight="1">
       <c r="A134" s="7">
         <v>132</v>
       </c>
@@ -6982,8 +7198,9 @@
       <c r="K134" s="9"/>
       <c r="L134" s="8"/>
       <c r="M134" s="26"/>
-    </row>
-    <row r="135" spans="1:13" ht="18" customHeight="1">
+      <c r="N134" s="26"/>
+    </row>
+    <row r="135" spans="1:14" ht="18" customHeight="1">
       <c r="A135" s="7">
         <v>133</v>
       </c>
@@ -7005,8 +7222,9 @@
       <c r="K135" s="9"/>
       <c r="L135" s="8"/>
       <c r="M135" s="26"/>
-    </row>
-    <row r="136" spans="1:13" ht="18" customHeight="1">
+      <c r="N135" s="26"/>
+    </row>
+    <row r="136" spans="1:14" ht="18" customHeight="1">
       <c r="A136" s="7">
         <v>134</v>
       </c>
@@ -7028,8 +7246,9 @@
       <c r="K136" s="9"/>
       <c r="L136" s="8"/>
       <c r="M136" s="26"/>
-    </row>
-    <row r="137" spans="1:13" ht="18" customHeight="1">
+      <c r="N136" s="26"/>
+    </row>
+    <row r="137" spans="1:14" ht="18" customHeight="1">
       <c r="A137" s="7">
         <v>135</v>
       </c>
@@ -7051,8 +7270,9 @@
       <c r="K137" s="9"/>
       <c r="L137" s="8"/>
       <c r="M137" s="26"/>
-    </row>
-    <row r="138" spans="1:13" ht="18" customHeight="1">
+      <c r="N137" s="26"/>
+    </row>
+    <row r="138" spans="1:14" ht="18" customHeight="1">
       <c r="A138" s="7">
         <v>136</v>
       </c>
@@ -7074,8 +7294,9 @@
       <c r="K138" s="9"/>
       <c r="L138" s="8"/>
       <c r="M138" s="26"/>
-    </row>
-    <row r="139" spans="1:13" ht="18" customHeight="1">
+      <c r="N138" s="26"/>
+    </row>
+    <row r="139" spans="1:14" ht="18" customHeight="1">
       <c r="A139" s="7">
         <v>137</v>
       </c>
@@ -7097,8 +7318,9 @@
       <c r="K139" s="9"/>
       <c r="L139" s="8"/>
       <c r="M139" s="26"/>
-    </row>
-    <row r="140" spans="1:13" ht="18" customHeight="1">
+      <c r="N139" s="26"/>
+    </row>
+    <row r="140" spans="1:14" ht="18" customHeight="1">
       <c r="A140" s="7">
         <v>138</v>
       </c>
@@ -7120,8 +7342,9 @@
       <c r="K140" s="9"/>
       <c r="L140" s="8"/>
       <c r="M140" s="26"/>
-    </row>
-    <row r="141" spans="1:13" ht="18" customHeight="1">
+      <c r="N140" s="26"/>
+    </row>
+    <row r="141" spans="1:14" ht="18" customHeight="1">
       <c r="A141" s="7">
         <v>139</v>
       </c>
@@ -7143,8 +7366,9 @@
       <c r="K141" s="9"/>
       <c r="L141" s="8"/>
       <c r="M141" s="26"/>
-    </row>
-    <row r="142" spans="1:13" ht="18" customHeight="1">
+      <c r="N141" s="26"/>
+    </row>
+    <row r="142" spans="1:14" ht="18" customHeight="1">
       <c r="A142" s="7">
         <v>140</v>
       </c>
@@ -7166,8 +7390,9 @@
       <c r="K142" s="9"/>
       <c r="L142" s="8"/>
       <c r="M142" s="26"/>
-    </row>
-    <row r="143" spans="1:13" ht="18" customHeight="1">
+      <c r="N142" s="26"/>
+    </row>
+    <row r="143" spans="1:14" ht="18" customHeight="1">
       <c r="A143" s="7">
         <v>141</v>
       </c>
@@ -7189,8 +7414,9 @@
       <c r="K143" s="9"/>
       <c r="L143" s="8"/>
       <c r="M143" s="26"/>
-    </row>
-    <row r="144" spans="1:13" ht="18" customHeight="1">
+      <c r="N143" s="26"/>
+    </row>
+    <row r="144" spans="1:14" ht="18" customHeight="1">
       <c r="A144" s="7">
         <v>142</v>
       </c>
@@ -7212,8 +7438,9 @@
       <c r="K144" s="9"/>
       <c r="L144" s="8"/>
       <c r="M144" s="26"/>
-    </row>
-    <row r="145" spans="1:13" ht="18" customHeight="1">
+      <c r="N144" s="26"/>
+    </row>
+    <row r="145" spans="1:14" ht="18" customHeight="1">
       <c r="A145" s="7">
         <v>143</v>
       </c>
@@ -7235,8 +7462,9 @@
       <c r="K145" s="9"/>
       <c r="L145" s="8"/>
       <c r="M145" s="26"/>
-    </row>
-    <row r="146" spans="1:13" ht="18" customHeight="1">
+      <c r="N145" s="26"/>
+    </row>
+    <row r="146" spans="1:14" ht="18" customHeight="1">
       <c r="A146" s="7">
         <v>144</v>
       </c>
@@ -7258,8 +7486,9 @@
       <c r="K146" s="9"/>
       <c r="L146" s="8"/>
       <c r="M146" s="26"/>
-    </row>
-    <row r="147" spans="1:13" ht="18" customHeight="1">
+      <c r="N146" s="26"/>
+    </row>
+    <row r="147" spans="1:14" ht="18" customHeight="1">
       <c r="A147" s="7">
         <v>145</v>
       </c>
@@ -7281,8 +7510,9 @@
       <c r="K147" s="9"/>
       <c r="L147" s="8"/>
       <c r="M147" s="26"/>
-    </row>
-    <row r="148" spans="1:13" ht="18" customHeight="1">
+      <c r="N147" s="26"/>
+    </row>
+    <row r="148" spans="1:14" ht="18" customHeight="1">
       <c r="A148" s="7">
         <v>146</v>
       </c>
@@ -7304,8 +7534,9 @@
       <c r="K148" s="9"/>
       <c r="L148" s="8"/>
       <c r="M148" s="26"/>
-    </row>
-    <row r="149" spans="1:13" ht="18" customHeight="1">
+      <c r="N148" s="26"/>
+    </row>
+    <row r="149" spans="1:14" ht="18" customHeight="1">
       <c r="A149" s="7">
         <v>147</v>
       </c>
@@ -7327,8 +7558,9 @@
       <c r="K149" s="9"/>
       <c r="L149" s="8"/>
       <c r="M149" s="26"/>
-    </row>
-    <row r="150" spans="1:13" ht="18" customHeight="1">
+      <c r="N149" s="26"/>
+    </row>
+    <row r="150" spans="1:14" ht="18" customHeight="1">
       <c r="A150" s="7">
         <v>148</v>
       </c>
@@ -7350,8 +7582,9 @@
       <c r="K150" s="9"/>
       <c r="L150" s="8"/>
       <c r="M150" s="26"/>
-    </row>
-    <row r="151" spans="1:13" ht="18" customHeight="1">
+      <c r="N150" s="26"/>
+    </row>
+    <row r="151" spans="1:14" ht="18" customHeight="1">
       <c r="A151" s="7">
         <v>149</v>
       </c>
@@ -7373,8 +7606,9 @@
       <c r="K151" s="9"/>
       <c r="L151" s="8"/>
       <c r="M151" s="26"/>
-    </row>
-    <row r="152" spans="1:13" ht="18" customHeight="1">
+      <c r="N151" s="26"/>
+    </row>
+    <row r="152" spans="1:14" ht="18" customHeight="1">
       <c r="A152" s="7">
         <v>150</v>
       </c>
@@ -7396,8 +7630,9 @@
       <c r="K152" s="9"/>
       <c r="L152" s="8"/>
       <c r="M152" s="26"/>
-    </row>
-    <row r="153" spans="1:13" ht="18" customHeight="1">
+      <c r="N152" s="26"/>
+    </row>
+    <row r="153" spans="1:14" ht="18" customHeight="1">
       <c r="A153" s="7">
         <v>151</v>
       </c>
@@ -7419,8 +7654,9 @@
       <c r="K153" s="9"/>
       <c r="L153" s="8"/>
       <c r="M153" s="26"/>
-    </row>
-    <row r="154" spans="1:13" ht="18" customHeight="1">
+      <c r="N153" s="26"/>
+    </row>
+    <row r="154" spans="1:14" ht="18" customHeight="1">
       <c r="A154" s="7">
         <v>152</v>
       </c>
@@ -7442,8 +7678,9 @@
       <c r="K154" s="9"/>
       <c r="L154" s="8"/>
       <c r="M154" s="26"/>
-    </row>
-    <row r="155" spans="1:13" ht="18" customHeight="1">
+      <c r="N154" s="26"/>
+    </row>
+    <row r="155" spans="1:14" ht="18" customHeight="1">
       <c r="A155" s="7">
         <v>153</v>
       </c>
@@ -7465,8 +7702,9 @@
       <c r="K155" s="9"/>
       <c r="L155" s="8"/>
       <c r="M155" s="26"/>
-    </row>
-    <row r="156" spans="1:13" ht="18" customHeight="1">
+      <c r="N155" s="26"/>
+    </row>
+    <row r="156" spans="1:14" ht="18" customHeight="1">
       <c r="A156" s="7">
         <v>154</v>
       </c>
@@ -7488,8 +7726,9 @@
       <c r="K156" s="9"/>
       <c r="L156" s="8"/>
       <c r="M156" s="26"/>
-    </row>
-    <row r="157" spans="1:13" ht="18" customHeight="1">
+      <c r="N156" s="26"/>
+    </row>
+    <row r="157" spans="1:14" ht="18" customHeight="1">
       <c r="A157" s="7">
         <v>155</v>
       </c>
@@ -7511,8 +7750,9 @@
       <c r="K157" s="9"/>
       <c r="L157" s="8"/>
       <c r="M157" s="26"/>
-    </row>
-    <row r="158" spans="1:13" ht="18" customHeight="1">
+      <c r="N157" s="26"/>
+    </row>
+    <row r="158" spans="1:14" ht="18" customHeight="1">
       <c r="A158" s="7">
         <v>156</v>
       </c>
@@ -7534,8 +7774,9 @@
       <c r="K158" s="9"/>
       <c r="L158" s="8"/>
       <c r="M158" s="26"/>
-    </row>
-    <row r="159" spans="1:13" ht="18" customHeight="1">
+      <c r="N158" s="26"/>
+    </row>
+    <row r="159" spans="1:14" ht="18" customHeight="1">
       <c r="A159" s="7">
         <v>157</v>
       </c>
@@ -7557,8 +7798,9 @@
       <c r="K159" s="9"/>
       <c r="L159" s="8"/>
       <c r="M159" s="26"/>
-    </row>
-    <row r="160" spans="1:13" ht="18" customHeight="1">
+      <c r="N159" s="26"/>
+    </row>
+    <row r="160" spans="1:14" ht="18" customHeight="1">
       <c r="A160" s="7">
         <v>158</v>
       </c>
@@ -7580,8 +7822,9 @@
       <c r="K160" s="9"/>
       <c r="L160" s="8"/>
       <c r="M160" s="26"/>
-    </row>
-    <row r="161" spans="1:13" ht="18" customHeight="1">
+      <c r="N160" s="26"/>
+    </row>
+    <row r="161" spans="1:14" ht="18" customHeight="1">
       <c r="A161" s="7">
         <v>159</v>
       </c>
@@ -7603,8 +7846,9 @@
       <c r="K161" s="9"/>
       <c r="L161" s="8"/>
       <c r="M161" s="26"/>
-    </row>
-    <row r="162" spans="1:13" ht="18" customHeight="1">
+      <c r="N161" s="26"/>
+    </row>
+    <row r="162" spans="1:14" ht="18" customHeight="1">
       <c r="A162" s="7">
         <v>160</v>
       </c>
@@ -7626,8 +7870,9 @@
       <c r="K162" s="9"/>
       <c r="L162" s="8"/>
       <c r="M162" s="26"/>
-    </row>
-    <row r="163" spans="1:13" ht="18" customHeight="1">
+      <c r="N162" s="26"/>
+    </row>
+    <row r="163" spans="1:14" ht="18" customHeight="1">
       <c r="A163" s="7">
         <v>161</v>
       </c>
@@ -7649,8 +7894,9 @@
       <c r="K163" s="9"/>
       <c r="L163" s="8"/>
       <c r="M163" s="26"/>
-    </row>
-    <row r="164" spans="1:13" ht="18" customHeight="1">
+      <c r="N163" s="26"/>
+    </row>
+    <row r="164" spans="1:14" ht="18" customHeight="1">
       <c r="A164" s="7">
         <v>162</v>
       </c>
@@ -7672,8 +7918,9 @@
       <c r="K164" s="9"/>
       <c r="L164" s="8"/>
       <c r="M164" s="26"/>
-    </row>
-    <row r="165" spans="1:13" ht="18" customHeight="1">
+      <c r="N164" s="26"/>
+    </row>
+    <row r="165" spans="1:14" ht="18" customHeight="1">
       <c r="A165" s="7">
         <v>163</v>
       </c>
@@ -7695,8 +7942,9 @@
       <c r="K165" s="9"/>
       <c r="L165" s="8"/>
       <c r="M165" s="26"/>
-    </row>
-    <row r="166" spans="1:13" ht="18" customHeight="1">
+      <c r="N165" s="26"/>
+    </row>
+    <row r="166" spans="1:14" ht="18" customHeight="1">
       <c r="A166" s="7">
         <v>164</v>
       </c>
@@ -7718,8 +7966,9 @@
       <c r="K166" s="9"/>
       <c r="L166" s="8"/>
       <c r="M166" s="26"/>
-    </row>
-    <row r="167" spans="1:13" ht="18" customHeight="1">
+      <c r="N166" s="26"/>
+    </row>
+    <row r="167" spans="1:14" ht="18" customHeight="1">
       <c r="A167" s="7">
         <v>165</v>
       </c>
@@ -7741,8 +7990,9 @@
       <c r="K167" s="9"/>
       <c r="L167" s="8"/>
       <c r="M167" s="26"/>
-    </row>
-    <row r="168" spans="1:13" ht="18" customHeight="1">
+      <c r="N167" s="26"/>
+    </row>
+    <row r="168" spans="1:14" ht="18" customHeight="1">
       <c r="A168" s="7">
         <v>166</v>
       </c>
@@ -7764,8 +8014,9 @@
       <c r="K168" s="9"/>
       <c r="L168" s="8"/>
       <c r="M168" s="26"/>
-    </row>
-    <row r="169" spans="1:13" ht="18" customHeight="1">
+      <c r="N168" s="26"/>
+    </row>
+    <row r="169" spans="1:14" ht="18" customHeight="1">
       <c r="A169" s="7">
         <v>167</v>
       </c>
@@ -7787,8 +8038,9 @@
       <c r="K169" s="9"/>
       <c r="L169" s="8"/>
       <c r="M169" s="26"/>
-    </row>
-    <row r="170" spans="1:13" ht="18" customHeight="1">
+      <c r="N169" s="26"/>
+    </row>
+    <row r="170" spans="1:14" ht="18" customHeight="1">
       <c r="A170" s="7">
         <v>168</v>
       </c>
@@ -7810,8 +8062,9 @@
       <c r="K170" s="9"/>
       <c r="L170" s="8"/>
       <c r="M170" s="26"/>
-    </row>
-    <row r="171" spans="1:13" ht="18" customHeight="1">
+      <c r="N170" s="26"/>
+    </row>
+    <row r="171" spans="1:14" ht="18" customHeight="1">
       <c r="A171" s="7">
         <v>169</v>
       </c>
@@ -7833,8 +8086,9 @@
       <c r="K171" s="9"/>
       <c r="L171" s="8"/>
       <c r="M171" s="26"/>
-    </row>
-    <row r="172" spans="1:13" ht="18" customHeight="1">
+      <c r="N171" s="26"/>
+    </row>
+    <row r="172" spans="1:14" ht="18" customHeight="1">
       <c r="A172" s="7">
         <v>170</v>
       </c>
@@ -7856,8 +8110,9 @@
       <c r="K172" s="9"/>
       <c r="L172" s="8"/>
       <c r="M172" s="26"/>
-    </row>
-    <row r="173" spans="1:13" ht="18" customHeight="1">
+      <c r="N172" s="26"/>
+    </row>
+    <row r="173" spans="1:14" ht="18" customHeight="1">
       <c r="A173" s="7">
         <v>171</v>
       </c>
@@ -7879,8 +8134,9 @@
       <c r="K173" s="9"/>
       <c r="L173" s="8"/>
       <c r="M173" s="26"/>
-    </row>
-    <row r="174" spans="1:13" ht="18" customHeight="1">
+      <c r="N173" s="26"/>
+    </row>
+    <row r="174" spans="1:14" ht="18" customHeight="1">
       <c r="A174" s="7">
         <v>172</v>
       </c>
@@ -7902,8 +8158,9 @@
       <c r="K174" s="9"/>
       <c r="L174" s="8"/>
       <c r="M174" s="26"/>
-    </row>
-    <row r="175" spans="1:13" ht="18" customHeight="1">
+      <c r="N174" s="26"/>
+    </row>
+    <row r="175" spans="1:14" ht="18" customHeight="1">
       <c r="A175" s="7">
         <v>173</v>
       </c>
@@ -7925,8 +8182,9 @@
       <c r="K175" s="9"/>
       <c r="L175" s="8"/>
       <c r="M175" s="26"/>
-    </row>
-    <row r="176" spans="1:13" ht="18" customHeight="1">
+      <c r="N175" s="26"/>
+    </row>
+    <row r="176" spans="1:14" ht="18" customHeight="1">
       <c r="A176" s="7">
         <v>174</v>
       </c>
@@ -7948,8 +8206,9 @@
       <c r="K176" s="9"/>
       <c r="L176" s="8"/>
       <c r="M176" s="26"/>
-    </row>
-    <row r="177" spans="1:13" ht="18" customHeight="1">
+      <c r="N176" s="26"/>
+    </row>
+    <row r="177" spans="1:14" ht="18" customHeight="1">
       <c r="A177" s="7">
         <v>175</v>
       </c>
@@ -7971,8 +8230,9 @@
       <c r="K177" s="9"/>
       <c r="L177" s="8"/>
       <c r="M177" s="26"/>
-    </row>
-    <row r="178" spans="1:13" ht="18" customHeight="1">
+      <c r="N177" s="26"/>
+    </row>
+    <row r="178" spans="1:14" ht="18" customHeight="1">
       <c r="A178" s="7">
         <v>176</v>
       </c>
@@ -7994,8 +8254,9 @@
       <c r="K178" s="9"/>
       <c r="L178" s="8"/>
       <c r="M178" s="26"/>
-    </row>
-    <row r="179" spans="1:13" ht="18" customHeight="1">
+      <c r="N178" s="26"/>
+    </row>
+    <row r="179" spans="1:14" ht="18" customHeight="1">
       <c r="A179" s="7">
         <v>177</v>
       </c>
@@ -8017,8 +8278,9 @@
       <c r="K179" s="9"/>
       <c r="L179" s="8"/>
       <c r="M179" s="26"/>
-    </row>
-    <row r="180" spans="1:13" ht="18" customHeight="1">
+      <c r="N179" s="26"/>
+    </row>
+    <row r="180" spans="1:14" ht="18" customHeight="1">
       <c r="A180" s="7">
         <v>178</v>
       </c>
@@ -8040,8 +8302,9 @@
       <c r="K180" s="9"/>
       <c r="L180" s="8"/>
       <c r="M180" s="26"/>
-    </row>
-    <row r="181" spans="1:13" ht="18" customHeight="1">
+      <c r="N180" s="26"/>
+    </row>
+    <row r="181" spans="1:14" ht="18" customHeight="1">
       <c r="A181" s="7">
         <v>179</v>
       </c>
@@ -8063,8 +8326,9 @@
       <c r="K181" s="9"/>
       <c r="L181" s="8"/>
       <c r="M181" s="26"/>
-    </row>
-    <row r="182" spans="1:13" ht="18" customHeight="1">
+      <c r="N181" s="26"/>
+    </row>
+    <row r="182" spans="1:14" ht="18" customHeight="1">
       <c r="A182" s="7">
         <v>180</v>
       </c>
@@ -8086,8 +8350,9 @@
       <c r="K182" s="9"/>
       <c r="L182" s="8"/>
       <c r="M182" s="26"/>
-    </row>
-    <row r="183" spans="1:13" ht="18" customHeight="1">
+      <c r="N182" s="26"/>
+    </row>
+    <row r="183" spans="1:14" ht="18" customHeight="1">
       <c r="A183" s="7">
         <v>181</v>
       </c>
@@ -8109,8 +8374,9 @@
       <c r="K183" s="9"/>
       <c r="L183" s="8"/>
       <c r="M183" s="26"/>
-    </row>
-    <row r="184" spans="1:13" ht="18" customHeight="1">
+      <c r="N183" s="26"/>
+    </row>
+    <row r="184" spans="1:14" ht="18" customHeight="1">
       <c r="A184" s="7">
         <v>182</v>
       </c>
@@ -8132,8 +8398,9 @@
       <c r="K184" s="9"/>
       <c r="L184" s="8"/>
       <c r="M184" s="26"/>
-    </row>
-    <row r="185" spans="1:13" ht="18" customHeight="1">
+      <c r="N184" s="26"/>
+    </row>
+    <row r="185" spans="1:14" ht="18" customHeight="1">
       <c r="A185" s="7">
         <v>183</v>
       </c>
@@ -8155,8 +8422,9 @@
       <c r="K185" s="9"/>
       <c r="L185" s="8"/>
       <c r="M185" s="26"/>
-    </row>
-    <row r="186" spans="1:13" ht="18" customHeight="1">
+      <c r="N185" s="26"/>
+    </row>
+    <row r="186" spans="1:14" ht="18" customHeight="1">
       <c r="A186" s="7">
         <v>184</v>
       </c>
@@ -8178,8 +8446,9 @@
       <c r="K186" s="9"/>
       <c r="L186" s="8"/>
       <c r="M186" s="26"/>
-    </row>
-    <row r="187" spans="1:13" ht="18" customHeight="1">
+      <c r="N186" s="26"/>
+    </row>
+    <row r="187" spans="1:14" ht="18" customHeight="1">
       <c r="A187" s="7">
         <v>185</v>
       </c>
@@ -8201,8 +8470,9 @@
       <c r="K187" s="9"/>
       <c r="L187" s="8"/>
       <c r="M187" s="26"/>
-    </row>
-    <row r="188" spans="1:13" ht="18" customHeight="1">
+      <c r="N187" s="26"/>
+    </row>
+    <row r="188" spans="1:14" ht="18" customHeight="1">
       <c r="A188" s="7">
         <v>186</v>
       </c>
@@ -8224,8 +8494,9 @@
       <c r="K188" s="9"/>
       <c r="L188" s="8"/>
       <c r="M188" s="26"/>
-    </row>
-    <row r="189" spans="1:13" ht="18" customHeight="1">
+      <c r="N188" s="26"/>
+    </row>
+    <row r="189" spans="1:14" ht="18" customHeight="1">
       <c r="A189" s="7">
         <v>187</v>
       </c>
@@ -8247,8 +8518,9 @@
       <c r="K189" s="9"/>
       <c r="L189" s="8"/>
       <c r="M189" s="26"/>
-    </row>
-    <row r="190" spans="1:13" ht="18" customHeight="1">
+      <c r="N189" s="26"/>
+    </row>
+    <row r="190" spans="1:14" ht="18" customHeight="1">
       <c r="A190" s="7">
         <v>188</v>
       </c>
@@ -8270,8 +8542,9 @@
       <c r="K190" s="9"/>
       <c r="L190" s="8"/>
       <c r="M190" s="26"/>
-    </row>
-    <row r="191" spans="1:13" ht="18" customHeight="1">
+      <c r="N190" s="26"/>
+    </row>
+    <row r="191" spans="1:14" ht="18" customHeight="1">
       <c r="A191" s="7">
         <v>189</v>
       </c>
@@ -8293,8 +8566,9 @@
       <c r="K191" s="9"/>
       <c r="L191" s="8"/>
       <c r="M191" s="26"/>
-    </row>
-    <row r="192" spans="1:13" ht="18" customHeight="1">
+      <c r="N191" s="26"/>
+    </row>
+    <row r="192" spans="1:14" ht="18" customHeight="1">
       <c r="A192" s="7">
         <v>190</v>
       </c>
@@ -8316,8 +8590,9 @@
       <c r="K192" s="9"/>
       <c r="L192" s="8"/>
       <c r="M192" s="26"/>
-    </row>
-    <row r="193" spans="1:13" ht="18" customHeight="1">
+      <c r="N192" s="26"/>
+    </row>
+    <row r="193" spans="1:14" ht="18" customHeight="1">
       <c r="A193" s="7">
         <v>191</v>
       </c>
@@ -8339,8 +8614,9 @@
       <c r="K193" s="9"/>
       <c r="L193" s="8"/>
       <c r="M193" s="26"/>
-    </row>
-    <row r="194" spans="1:13" ht="18" customHeight="1">
+      <c r="N193" s="26"/>
+    </row>
+    <row r="194" spans="1:14" ht="18" customHeight="1">
       <c r="A194" s="7">
         <v>192</v>
       </c>
@@ -8362,8 +8638,9 @@
       <c r="K194" s="9"/>
       <c r="L194" s="8"/>
       <c r="M194" s="26"/>
-    </row>
-    <row r="195" spans="1:13" ht="18" customHeight="1">
+      <c r="N194" s="26"/>
+    </row>
+    <row r="195" spans="1:14" ht="18" customHeight="1">
       <c r="A195" s="7">
         <v>193</v>
       </c>
@@ -8385,8 +8662,9 @@
       <c r="K195" s="9"/>
       <c r="L195" s="8"/>
       <c r="M195" s="26"/>
-    </row>
-    <row r="196" spans="1:13" ht="18" customHeight="1">
+      <c r="N195" s="26"/>
+    </row>
+    <row r="196" spans="1:14" ht="18" customHeight="1">
       <c r="A196" s="7"/>
       <c r="B196" s="10"/>
       <c r="C196" s="8"/>
@@ -8400,8 +8678,9 @@
       <c r="K196" s="9"/>
       <c r="L196" s="8"/>
       <c r="M196" s="26"/>
-    </row>
-    <row r="197" spans="1:13" ht="18" customHeight="1">
+      <c r="N196" s="26"/>
+    </row>
+    <row r="197" spans="1:14" ht="18" customHeight="1">
       <c r="A197" s="7"/>
       <c r="B197" s="10"/>
       <c r="C197" s="8"/>
@@ -8415,8 +8694,9 @@
       <c r="K197" s="9"/>
       <c r="L197" s="8"/>
       <c r="M197" s="26"/>
-    </row>
-    <row r="198" spans="1:13" ht="18" customHeight="1">
+      <c r="N197" s="26"/>
+    </row>
+    <row r="198" spans="1:14" ht="18" customHeight="1">
       <c r="A198" s="7"/>
       <c r="B198" s="10"/>
       <c r="C198" s="8"/>
@@ -8430,8 +8710,9 @@
       <c r="K198" s="9"/>
       <c r="L198" s="8"/>
       <c r="M198" s="26"/>
-    </row>
-    <row r="199" spans="1:13" ht="18" customHeight="1">
+      <c r="N198" s="26"/>
+    </row>
+    <row r="199" spans="1:14" ht="18" customHeight="1">
       <c r="A199" s="7"/>
       <c r="B199" s="10"/>
       <c r="C199" s="8"/>
@@ -8445,8 +8726,9 @@
       <c r="K199" s="9"/>
       <c r="L199" s="8"/>
       <c r="M199" s="26"/>
-    </row>
-    <row r="200" spans="1:13" ht="18" customHeight="1">
+      <c r="N199" s="26"/>
+    </row>
+    <row r="200" spans="1:14" ht="18" customHeight="1">
       <c r="A200" s="7"/>
       <c r="B200" s="10"/>
       <c r="C200" s="8"/>
@@ -8460,8 +8742,9 @@
       <c r="K200" s="9"/>
       <c r="L200" s="8"/>
       <c r="M200" s="26"/>
-    </row>
-    <row r="201" spans="1:13" ht="18" customHeight="1">
+      <c r="N200" s="26"/>
+    </row>
+    <row r="201" spans="1:14" ht="18" customHeight="1">
       <c r="A201" s="7"/>
       <c r="B201" s="10"/>
       <c r="C201" s="8"/>
@@ -8475,8 +8758,9 @@
       <c r="K201" s="9"/>
       <c r="L201" s="8"/>
       <c r="M201" s="26"/>
-    </row>
-    <row r="202" spans="1:13" ht="18" customHeight="1">
+      <c r="N201" s="26"/>
+    </row>
+    <row r="202" spans="1:14" ht="18" customHeight="1">
       <c r="A202" s="7"/>
       <c r="B202" s="10"/>
       <c r="C202" s="8"/>
@@ -8490,8 +8774,9 @@
       <c r="K202" s="9"/>
       <c r="L202" s="8"/>
       <c r="M202" s="26"/>
-    </row>
-    <row r="203" spans="1:13" ht="18" customHeight="1">
+      <c r="N202" s="26"/>
+    </row>
+    <row r="203" spans="1:14" ht="18" customHeight="1">
       <c r="A203" s="7"/>
       <c r="B203" s="10"/>
       <c r="C203" s="8"/>
@@ -8505,8 +8790,9 @@
       <c r="K203" s="9"/>
       <c r="L203" s="8"/>
       <c r="M203" s="26"/>
-    </row>
-    <row r="204" spans="1:13" ht="18" customHeight="1">
+      <c r="N203" s="26"/>
+    </row>
+    <row r="204" spans="1:14" ht="18" customHeight="1">
       <c r="A204" s="7"/>
       <c r="B204" s="10"/>
       <c r="C204" s="8"/>
@@ -8520,8 +8806,9 @@
       <c r="K204" s="9"/>
       <c r="L204" s="8"/>
       <c r="M204" s="26"/>
-    </row>
-    <row r="205" spans="1:13" ht="18" customHeight="1">
+      <c r="N204" s="26"/>
+    </row>
+    <row r="205" spans="1:14" ht="18" customHeight="1">
       <c r="A205" s="7"/>
       <c r="B205" s="10"/>
       <c r="C205" s="8"/>
@@ -8535,8 +8822,9 @@
       <c r="K205" s="9"/>
       <c r="L205" s="8"/>
       <c r="M205" s="26"/>
-    </row>
-    <row r="206" spans="1:13" ht="18" customHeight="1">
+      <c r="N205" s="26"/>
+    </row>
+    <row r="206" spans="1:14" ht="18" customHeight="1">
       <c r="A206" s="7"/>
       <c r="B206" s="10"/>
       <c r="C206" s="8"/>
@@ -8550,8 +8838,9 @@
       <c r="K206" s="9"/>
       <c r="L206" s="8"/>
       <c r="M206" s="26"/>
-    </row>
-    <row r="207" spans="1:13" ht="18" customHeight="1">
+      <c r="N206" s="26"/>
+    </row>
+    <row r="207" spans="1:14" ht="18" customHeight="1">
       <c r="A207" s="7"/>
       <c r="B207" s="10"/>
       <c r="C207" s="8"/>
@@ -8565,8 +8854,9 @@
       <c r="K207" s="9"/>
       <c r="L207" s="8"/>
       <c r="M207" s="26"/>
-    </row>
-    <row r="208" spans="1:13" ht="18" customHeight="1">
+      <c r="N207" s="26"/>
+    </row>
+    <row r="208" spans="1:14" ht="18" customHeight="1">
       <c r="A208" s="7"/>
       <c r="B208" s="10"/>
       <c r="C208" s="8"/>
@@ -8580,8 +8870,9 @@
       <c r="K208" s="9"/>
       <c r="L208" s="8"/>
       <c r="M208" s="26"/>
-    </row>
-    <row r="209" spans="1:13" ht="18" customHeight="1">
+      <c r="N208" s="26"/>
+    </row>
+    <row r="209" spans="1:14" ht="18" customHeight="1">
       <c r="A209" s="7"/>
       <c r="B209" s="10"/>
       <c r="C209" s="8"/>
@@ -8595,8 +8886,9 @@
       <c r="K209" s="9"/>
       <c r="L209" s="8"/>
       <c r="M209" s="26"/>
-    </row>
-    <row r="210" spans="1:13" ht="18" customHeight="1">
+      <c r="N209" s="26"/>
+    </row>
+    <row r="210" spans="1:14" ht="18" customHeight="1">
       <c r="A210" s="7"/>
       <c r="B210" s="10"/>
       <c r="C210" s="8"/>
@@ -8610,8 +8902,9 @@
       <c r="K210" s="9"/>
       <c r="L210" s="8"/>
       <c r="M210" s="26"/>
-    </row>
-    <row r="211" spans="1:13" ht="18" customHeight="1">
+      <c r="N210" s="26"/>
+    </row>
+    <row r="211" spans="1:14" ht="18" customHeight="1">
       <c r="A211" s="7"/>
       <c r="B211" s="10"/>
       <c r="C211" s="8"/>
@@ -8625,8 +8918,9 @@
       <c r="K211" s="9"/>
       <c r="L211" s="8"/>
       <c r="M211" s="26"/>
-    </row>
-    <row r="212" spans="1:13" ht="18" customHeight="1">
+      <c r="N211" s="26"/>
+    </row>
+    <row r="212" spans="1:14" ht="18" customHeight="1">
       <c r="A212" s="7"/>
       <c r="B212" s="10"/>
       <c r="C212" s="8"/>
@@ -8640,8 +8934,9 @@
       <c r="K212" s="9"/>
       <c r="L212" s="8"/>
       <c r="M212" s="26"/>
-    </row>
-    <row r="213" spans="1:13" ht="18" customHeight="1">
+      <c r="N212" s="26"/>
+    </row>
+    <row r="213" spans="1:14" ht="18" customHeight="1">
       <c r="A213" s="7"/>
       <c r="B213" s="10"/>
       <c r="C213" s="8"/>
@@ -8655,8 +8950,9 @@
       <c r="K213" s="9"/>
       <c r="L213" s="8"/>
       <c r="M213" s="26"/>
-    </row>
-    <row r="214" spans="1:13" ht="18" customHeight="1">
+      <c r="N213" s="26"/>
+    </row>
+    <row r="214" spans="1:14" ht="18" customHeight="1">
       <c r="A214" s="7"/>
       <c r="B214" s="10"/>
       <c r="C214" s="8"/>
@@ -8670,8 +8966,9 @@
       <c r="K214" s="9"/>
       <c r="L214" s="8"/>
       <c r="M214" s="26"/>
-    </row>
-    <row r="215" spans="1:13" ht="18" customHeight="1">
+      <c r="N214" s="26"/>
+    </row>
+    <row r="215" spans="1:14" ht="18" customHeight="1">
       <c r="A215" s="7"/>
       <c r="B215" s="10"/>
       <c r="C215" s="8"/>
@@ -8685,8 +8982,9 @@
       <c r="K215" s="9"/>
       <c r="L215" s="8"/>
       <c r="M215" s="26"/>
-    </row>
-    <row r="216" spans="1:13" ht="18" customHeight="1">
+      <c r="N215" s="26"/>
+    </row>
+    <row r="216" spans="1:14" ht="18" customHeight="1">
       <c r="A216" s="7"/>
       <c r="B216" s="10"/>
       <c r="C216" s="8"/>
@@ -8700,8 +8998,9 @@
       <c r="K216" s="9"/>
       <c r="L216" s="8"/>
       <c r="M216" s="26"/>
-    </row>
-    <row r="217" spans="1:13" ht="18" customHeight="1">
+      <c r="N216" s="26"/>
+    </row>
+    <row r="217" spans="1:14" ht="18" customHeight="1">
       <c r="A217" s="7"/>
       <c r="B217" s="10"/>
       <c r="C217" s="8"/>
@@ -8715,8 +9014,9 @@
       <c r="K217" s="9"/>
       <c r="L217" s="8"/>
       <c r="M217" s="26"/>
-    </row>
-    <row r="218" spans="1:13" ht="18" customHeight="1">
+      <c r="N217" s="26"/>
+    </row>
+    <row r="218" spans="1:14" ht="18" customHeight="1">
       <c r="A218" s="7"/>
       <c r="B218" s="10"/>
       <c r="C218" s="8"/>
@@ -8730,8 +9030,9 @@
       <c r="K218" s="9"/>
       <c r="L218" s="8"/>
       <c r="M218" s="26"/>
-    </row>
-    <row r="219" spans="1:13" ht="18" customHeight="1">
+      <c r="N218" s="26"/>
+    </row>
+    <row r="219" spans="1:14" ht="18" customHeight="1">
       <c r="A219" s="7"/>
       <c r="B219" s="10"/>
       <c r="C219" s="8"/>
@@ -8745,8 +9046,9 @@
       <c r="K219" s="9"/>
       <c r="L219" s="8"/>
       <c r="M219" s="26"/>
-    </row>
-    <row r="220" spans="1:13" ht="18" customHeight="1">
+      <c r="N219" s="26"/>
+    </row>
+    <row r="220" spans="1:14" ht="18" customHeight="1">
       <c r="A220" s="7"/>
       <c r="B220" s="10"/>
       <c r="C220" s="8"/>
@@ -8760,8 +9062,9 @@
       <c r="K220" s="9"/>
       <c r="L220" s="8"/>
       <c r="M220" s="26"/>
-    </row>
-    <row r="221" spans="1:13" ht="18" customHeight="1">
+      <c r="N220" s="26"/>
+    </row>
+    <row r="221" spans="1:14" ht="18" customHeight="1">
       <c r="A221" s="7"/>
       <c r="B221" s="10"/>
       <c r="C221" s="8"/>
@@ -8775,8 +9078,9 @@
       <c r="K221" s="9"/>
       <c r="L221" s="8"/>
       <c r="M221" s="26"/>
-    </row>
-    <row r="222" spans="1:13" ht="18" customHeight="1">
+      <c r="N221" s="26"/>
+    </row>
+    <row r="222" spans="1:14" ht="18" customHeight="1">
       <c r="A222" s="7"/>
       <c r="B222" s="10"/>
       <c r="C222" s="8"/>
@@ -8790,8 +9094,9 @@
       <c r="K222" s="9"/>
       <c r="L222" s="8"/>
       <c r="M222" s="26"/>
-    </row>
-    <row r="223" spans="1:13" ht="18" customHeight="1">
+      <c r="N222" s="26"/>
+    </row>
+    <row r="223" spans="1:14" ht="18" customHeight="1">
       <c r="A223" s="7"/>
       <c r="B223" s="10"/>
       <c r="C223" s="8"/>
@@ -8805,8 +9110,9 @@
       <c r="K223" s="9"/>
       <c r="L223" s="8"/>
       <c r="M223" s="26"/>
-    </row>
-    <row r="224" spans="1:13" ht="18" customHeight="1">
+      <c r="N223" s="26"/>
+    </row>
+    <row r="224" spans="1:14" ht="18" customHeight="1">
       <c r="A224" s="7"/>
       <c r="B224" s="10"/>
       <c r="C224" s="8"/>
@@ -8820,8 +9126,9 @@
       <c r="K224" s="9"/>
       <c r="L224" s="8"/>
       <c r="M224" s="26"/>
-    </row>
-    <row r="225" spans="1:13" ht="18" customHeight="1">
+      <c r="N224" s="26"/>
+    </row>
+    <row r="225" spans="1:14" ht="18" customHeight="1">
       <c r="A225" s="7"/>
       <c r="B225" s="10"/>
       <c r="C225" s="8"/>
@@ -8835,8 +9142,9 @@
       <c r="K225" s="9"/>
       <c r="L225" s="8"/>
       <c r="M225" s="26"/>
-    </row>
-    <row r="226" spans="1:13" ht="18" customHeight="1">
+      <c r="N225" s="26"/>
+    </row>
+    <row r="226" spans="1:14" ht="18" customHeight="1">
       <c r="A226" s="7"/>
       <c r="B226" s="10"/>
       <c r="C226" s="8"/>
@@ -8850,8 +9158,9 @@
       <c r="K226" s="9"/>
       <c r="L226" s="8"/>
       <c r="M226" s="26"/>
-    </row>
-    <row r="227" spans="1:13" ht="18" customHeight="1">
+      <c r="N226" s="26"/>
+    </row>
+    <row r="227" spans="1:14" ht="18" customHeight="1">
       <c r="A227" s="7"/>
       <c r="B227" s="10"/>
       <c r="C227" s="8"/>
@@ -8865,8 +9174,9 @@
       <c r="K227" s="9"/>
       <c r="L227" s="8"/>
       <c r="M227" s="26"/>
-    </row>
-    <row r="228" spans="1:13" ht="18" customHeight="1">
+      <c r="N227" s="26"/>
+    </row>
+    <row r="228" spans="1:14" ht="18" customHeight="1">
       <c r="A228" s="7"/>
       <c r="B228" s="10"/>
       <c r="C228" s="8"/>
@@ -8880,8 +9190,9 @@
       <c r="K228" s="9"/>
       <c r="L228" s="8"/>
       <c r="M228" s="26"/>
-    </row>
-    <row r="229" spans="1:13" ht="18" customHeight="1">
+      <c r="N228" s="26"/>
+    </row>
+    <row r="229" spans="1:14" ht="18" customHeight="1">
       <c r="A229" s="7"/>
       <c r="B229" s="10"/>
       <c r="C229" s="8"/>
@@ -8895,8 +9206,9 @@
       <c r="K229" s="9"/>
       <c r="L229" s="8"/>
       <c r="M229" s="26"/>
-    </row>
-    <row r="230" spans="1:13" ht="18" customHeight="1">
+      <c r="N229" s="26"/>
+    </row>
+    <row r="230" spans="1:14" ht="18" customHeight="1">
       <c r="A230" s="7"/>
       <c r="B230" s="10"/>
       <c r="C230" s="8"/>
@@ -8910,8 +9222,9 @@
       <c r="K230" s="9"/>
       <c r="L230" s="8"/>
       <c r="M230" s="26"/>
-    </row>
-    <row r="231" spans="1:13" ht="18" customHeight="1">
+      <c r="N230" s="26"/>
+    </row>
+    <row r="231" spans="1:14" ht="18" customHeight="1">
       <c r="A231" s="7"/>
       <c r="B231" s="10"/>
       <c r="C231" s="8"/>
@@ -8925,8 +9238,9 @@
       <c r="K231" s="9"/>
       <c r="L231" s="8"/>
       <c r="M231" s="26"/>
-    </row>
-    <row r="232" spans="1:13" ht="18" customHeight="1">
+      <c r="N231" s="26"/>
+    </row>
+    <row r="232" spans="1:14" ht="18" customHeight="1">
       <c r="A232" s="7"/>
       <c r="B232" s="10"/>
       <c r="C232" s="8"/>
@@ -8940,8 +9254,9 @@
       <c r="K232" s="9"/>
       <c r="L232" s="8"/>
       <c r="M232" s="26"/>
-    </row>
-    <row r="233" spans="1:13" ht="18" customHeight="1">
+      <c r="N232" s="26"/>
+    </row>
+    <row r="233" spans="1:14" ht="18" customHeight="1">
       <c r="A233" s="7"/>
       <c r="B233" s="10"/>
       <c r="C233" s="8"/>
@@ -8955,8 +9270,9 @@
       <c r="K233" s="9"/>
       <c r="L233" s="8"/>
       <c r="M233" s="26"/>
-    </row>
-    <row r="234" spans="1:13" ht="18" customHeight="1">
+      <c r="N233" s="26"/>
+    </row>
+    <row r="234" spans="1:14" ht="18" customHeight="1">
       <c r="A234" s="7"/>
       <c r="B234" s="10"/>
       <c r="C234" s="8"/>
@@ -8970,8 +9286,9 @@
       <c r="K234" s="9"/>
       <c r="L234" s="8"/>
       <c r="M234" s="26"/>
-    </row>
-    <row r="235" spans="1:13" ht="18" customHeight="1">
+      <c r="N234" s="26"/>
+    </row>
+    <row r="235" spans="1:14" ht="18" customHeight="1">
       <c r="A235" s="7"/>
       <c r="B235" s="10"/>
       <c r="C235" s="8"/>
@@ -8985,8 +9302,9 @@
       <c r="K235" s="9"/>
       <c r="L235" s="8"/>
       <c r="M235" s="26"/>
-    </row>
-    <row r="236" spans="1:13" ht="18" customHeight="1">
+      <c r="N235" s="26"/>
+    </row>
+    <row r="236" spans="1:14" ht="18" customHeight="1">
       <c r="A236" s="7"/>
       <c r="B236" s="10"/>
       <c r="C236" s="8"/>
@@ -9000,8 +9318,9 @@
       <c r="K236" s="9"/>
       <c r="L236" s="8"/>
       <c r="M236" s="26"/>
-    </row>
-    <row r="237" spans="1:13" ht="18" customHeight="1">
+      <c r="N236" s="26"/>
+    </row>
+    <row r="237" spans="1:14" ht="18" customHeight="1">
       <c r="A237" s="7"/>
       <c r="B237" s="10"/>
       <c r="C237" s="8"/>
@@ -9015,8 +9334,9 @@
       <c r="K237" s="9"/>
       <c r="L237" s="8"/>
       <c r="M237" s="26"/>
-    </row>
-    <row r="238" spans="1:13" ht="18" customHeight="1">
+      <c r="N237" s="26"/>
+    </row>
+    <row r="238" spans="1:14" ht="18" customHeight="1">
       <c r="A238" s="7"/>
       <c r="B238" s="10"/>
       <c r="C238" s="8"/>
@@ -9030,8 +9350,9 @@
       <c r="K238" s="9"/>
       <c r="L238" s="8"/>
       <c r="M238" s="26"/>
-    </row>
-    <row r="239" spans="1:13" ht="18" customHeight="1">
+      <c r="N238" s="26"/>
+    </row>
+    <row r="239" spans="1:14" ht="18" customHeight="1">
       <c r="A239" s="7"/>
       <c r="B239" s="10"/>
       <c r="C239" s="8"/>
@@ -9045,8 +9366,9 @@
       <c r="K239" s="9"/>
       <c r="L239" s="8"/>
       <c r="M239" s="26"/>
-    </row>
-    <row r="240" spans="1:13" ht="18" customHeight="1">
+      <c r="N239" s="26"/>
+    </row>
+    <row r="240" spans="1:14" ht="18" customHeight="1">
       <c r="A240" s="7"/>
       <c r="B240" s="10"/>
       <c r="C240" s="8"/>
@@ -9060,8 +9382,9 @@
       <c r="K240" s="9"/>
       <c r="L240" s="8"/>
       <c r="M240" s="26"/>
-    </row>
-    <row r="241" spans="1:13" ht="18" customHeight="1">
+      <c r="N240" s="26"/>
+    </row>
+    <row r="241" spans="1:14" ht="18" customHeight="1">
       <c r="A241" s="7"/>
       <c r="B241" s="10"/>
       <c r="C241" s="8"/>
@@ -9075,8 +9398,9 @@
       <c r="K241" s="9"/>
       <c r="L241" s="8"/>
       <c r="M241" s="26"/>
-    </row>
-    <row r="242" spans="1:13" ht="18" customHeight="1">
+      <c r="N241" s="26"/>
+    </row>
+    <row r="242" spans="1:14" ht="18" customHeight="1">
       <c r="A242" s="7"/>
       <c r="B242" s="10"/>
       <c r="C242" s="8"/>
@@ -9090,8 +9414,9 @@
       <c r="K242" s="9"/>
       <c r="L242" s="8"/>
       <c r="M242" s="26"/>
-    </row>
-    <row r="243" spans="1:13" ht="18" customHeight="1">
+      <c r="N242" s="26"/>
+    </row>
+    <row r="243" spans="1:14" ht="18" customHeight="1">
       <c r="A243" s="7"/>
       <c r="B243" s="10"/>
       <c r="C243" s="8"/>
@@ -9105,8 +9430,9 @@
       <c r="K243" s="9"/>
       <c r="L243" s="8"/>
       <c r="M243" s="26"/>
-    </row>
-    <row r="244" spans="1:13" ht="18" customHeight="1">
+      <c r="N243" s="26"/>
+    </row>
+    <row r="244" spans="1:14" ht="18" customHeight="1">
       <c r="A244" s="7"/>
       <c r="B244" s="10"/>
       <c r="C244" s="8"/>
@@ -9120,8 +9446,9 @@
       <c r="K244" s="9"/>
       <c r="L244" s="8"/>
       <c r="M244" s="26"/>
-    </row>
-    <row r="245" spans="1:13" ht="18" customHeight="1">
+      <c r="N244" s="26"/>
+    </row>
+    <row r="245" spans="1:14" ht="18" customHeight="1">
       <c r="A245" s="7"/>
       <c r="B245" s="10"/>
       <c r="C245" s="8"/>
@@ -9135,27 +9462,12 @@
       <c r="K245" s="9"/>
       <c r="L245" s="8"/>
       <c r="M245" s="26"/>
+      <c r="N245" s="26"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="24">
-    <mergeCell ref="M54:M59"/>
-    <mergeCell ref="N54:N59"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="M11:M21"/>
-    <mergeCell ref="N11:N21"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M22:M31"/>
-    <mergeCell ref="N22:N31"/>
-    <mergeCell ref="M32:M38"/>
-    <mergeCell ref="N32:N38"/>
-    <mergeCell ref="M39:M43"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="M44:M53"/>
-    <mergeCell ref="N44:N53"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="O1:O2"/>
+  <mergeCells count="31">
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -9163,6 +9475,29 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N54:N59"/>
+    <mergeCell ref="O54:O59"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="N11:N21"/>
+    <mergeCell ref="O11:O21"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N22:N31"/>
+    <mergeCell ref="O22:O31"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="O32:O38"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="O39:O43"/>
+    <mergeCell ref="N44:N53"/>
+    <mergeCell ref="O44:O53"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="O5:O10"/>
+    <mergeCell ref="M44:M53"/>
+    <mergeCell ref="M54:M59"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="M11:M21"/>
+    <mergeCell ref="M22:M31"/>
+    <mergeCell ref="M32:M38"/>
+    <mergeCell ref="M39:M43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F6:H7">
